--- a/upload/00-天翼云集成实施基本信息表模板(网络和服务器设备表含公式)20230101(1).xlsx
+++ b/upload/00-天翼云集成实施基本信息表模板(网络和服务器设备表含公式)20230101(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingz\Documents\GitHub\jw3\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ADECB4-80FD-4B85-B2AA-0E05CC5E16C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58485989-5B52-4CAC-93BC-AD770A2263DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="693" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="693" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明（请勿修改此页内容）" sheetId="21" r:id="rId1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="973">
   <si>
     <t>模板名称</t>
   </si>
@@ -3764,10 +3764,6 @@
   </si>
   <si>
     <t>省份</t>
-    <phoneticPr fontId="50" type="noConversion"/>
-  </si>
-  <si>
-    <t>OS</t>
     <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
@@ -17654,7 +17650,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="147" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C7" s="150" t="s">
         <v>40</v>
@@ -17666,7 +17662,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="147" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C8" s="150" t="s">
         <v>41</v>
@@ -17692,7 +17688,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="147" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C10" s="151" t="s">
         <v>47</v>
@@ -17720,7 +17716,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="147" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C12" s="148" t="s">
         <v>61</v>
@@ -17734,7 +17730,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="147" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C13" s="148" t="s">
         <v>64</v>
@@ -17790,7 +17786,7 @@
         <v>864</v>
       </c>
       <c r="B17" s="147" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C17" s="152">
         <v>20</v>
@@ -17840,7 +17836,7 @@
   </sheetPr>
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
@@ -17917,13 +17913,13 @@
         <v>78</v>
       </c>
       <c r="Q1" s="179" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="R1" s="179" t="s">
         <v>79</v>
       </c>
       <c r="S1" s="179" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="T1" s="201" t="s">
         <v>28</v>
@@ -17965,13 +17961,13 @@
         <v>OK</v>
       </c>
       <c r="L2" s="204" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M2" s="204" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="204" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="O2" s="204" t="s">
         <v>87</v>
@@ -17986,7 +17982,7 @@
         <v>89</v>
       </c>
       <c r="S2" s="204" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="T2" s="163"/>
     </row>
@@ -18023,13 +18019,13 @@
         <v>OK</v>
       </c>
       <c r="L3" s="204" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="M3" s="204" t="s">
         <v>86</v>
       </c>
       <c r="N3" s="204" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="O3" s="204" t="s">
         <v>95</v>
@@ -18044,7 +18040,7 @@
         <v>89</v>
       </c>
       <c r="S3" s="204" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="T3" s="163"/>
     </row>
@@ -18081,13 +18077,13 @@
         <v>OK</v>
       </c>
       <c r="L4" s="204" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="M4" s="204" t="s">
         <v>86</v>
       </c>
       <c r="N4" s="204" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="O4" s="204" t="s">
         <v>95</v>
@@ -18102,7 +18098,7 @@
         <v>89</v>
       </c>
       <c r="S4" s="204" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="T4" s="163"/>
     </row>
@@ -18139,13 +18135,13 @@
         <v>OK</v>
       </c>
       <c r="L5" s="204" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="M5" s="204" t="s">
         <v>86</v>
       </c>
       <c r="N5" s="204" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="O5" s="204" t="s">
         <v>95</v>
@@ -18160,7 +18156,7 @@
         <v>89</v>
       </c>
       <c r="S5" s="204" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="T5" s="163"/>
     </row>
@@ -18197,13 +18193,13 @@
         <v>OK</v>
       </c>
       <c r="L6" s="204" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="M6" s="204" t="s">
         <v>86</v>
       </c>
       <c r="N6" s="204" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="O6" s="204" t="s">
         <v>108</v>
@@ -18218,7 +18214,7 @@
         <v>89</v>
       </c>
       <c r="S6" s="204" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="T6" s="163"/>
     </row>
@@ -18256,13 +18252,13 @@
         <v>OK</v>
       </c>
       <c r="L7" s="204" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="M7" s="204" t="s">
         <v>86</v>
       </c>
       <c r="N7" s="204" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="O7" s="204" t="s">
         <v>112</v>
@@ -18277,7 +18273,7 @@
         <v>89</v>
       </c>
       <c r="S7" s="204" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="T7" s="163"/>
     </row>
@@ -18314,13 +18310,13 @@
         <v>OK</v>
       </c>
       <c r="L8" s="204" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M8" s="204" t="s">
         <v>86</v>
       </c>
       <c r="N8" s="204" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="O8" s="204" t="s">
         <v>95</v>
@@ -18335,7 +18331,7 @@
         <v>89</v>
       </c>
       <c r="S8" s="204" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="T8" s="163"/>
     </row>
@@ -18372,13 +18368,13 @@
         <v>OK</v>
       </c>
       <c r="L9" s="204" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M9" s="204" t="s">
         <v>86</v>
       </c>
       <c r="N9" s="204" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="O9" s="204" t="s">
         <v>118</v>
@@ -18393,7 +18389,7 @@
         <v>89</v>
       </c>
       <c r="S9" s="204" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="T9" s="163"/>
     </row>
@@ -18430,13 +18426,13 @@
         <v>OK</v>
       </c>
       <c r="L10" s="204" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M10" s="204" t="s">
         <v>86</v>
       </c>
       <c r="N10" s="204" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="O10" s="204" t="s">
         <v>95</v>
@@ -18451,7 +18447,7 @@
         <v>89</v>
       </c>
       <c r="S10" s="204" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="T10" s="163"/>
     </row>
@@ -18488,13 +18484,13 @@
         <v>OK</v>
       </c>
       <c r="L11" s="204" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M11" s="204" t="s">
         <v>86</v>
       </c>
       <c r="N11" s="204" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="O11" s="204" t="s">
         <v>125</v>
@@ -18509,7 +18505,7 @@
         <v>89</v>
       </c>
       <c r="S11" s="204" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="T11" s="163"/>
     </row>
@@ -18546,13 +18542,13 @@
         <v>OK</v>
       </c>
       <c r="L12" s="204" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M12" s="204" t="s">
         <v>86</v>
       </c>
       <c r="N12" s="204" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="O12" s="204" t="s">
         <v>87</v>
@@ -18567,7 +18563,7 @@
         <v>89</v>
       </c>
       <c r="S12" s="204" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="T12" s="163"/>
     </row>
@@ -18578,7 +18574,7 @@
       </c>
       <c r="C13" s="163"/>
       <c r="D13" s="171" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E13" s="164" t="s">
         <v>82</v>
@@ -18604,13 +18600,13 @@
         <v>OK</v>
       </c>
       <c r="L13" s="204" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M13" s="204" t="s">
         <v>86</v>
       </c>
       <c r="N13" s="204" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="O13" s="204" t="s">
         <v>95</v>
@@ -18625,7 +18621,7 @@
         <v>89</v>
       </c>
       <c r="S13" s="204" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="T13" s="163"/>
     </row>
@@ -18641,7 +18637,7 @@
       <c r="I14" s="190"/>
       <c r="J14" s="194"/>
       <c r="K14" s="203" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L14" s="190"/>
       <c r="M14" s="186"/>
@@ -18688,7 +18684,7 @@
         <v>OK</v>
       </c>
       <c r="L15" s="204" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="M15" s="204" t="s">
         <v>86</v>
@@ -18742,7 +18738,7 @@
         <v>OK</v>
       </c>
       <c r="L16" s="204" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="M16" s="204" t="s">
         <v>86</v>
@@ -18759,7 +18755,7 @@
         <v>138</v>
       </c>
       <c r="S16" s="204" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="T16" s="163"/>
     </row>
@@ -18796,7 +18792,7 @@
         <v>OK</v>
       </c>
       <c r="L17" s="204" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M17" s="204" t="s">
         <v>86</v>
@@ -18813,7 +18809,7 @@
         <v>138</v>
       </c>
       <c r="S17" s="204" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="T17" s="163"/>
     </row>
@@ -18850,7 +18846,7 @@
         <v>OK</v>
       </c>
       <c r="L18" s="204" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M18" s="204" t="s">
         <v>86</v>
@@ -18867,7 +18863,7 @@
         <v>138</v>
       </c>
       <c r="S18" s="204" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="T18" s="163"/>
     </row>
@@ -18904,7 +18900,7 @@
         <v>OK</v>
       </c>
       <c r="L19" s="204" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="M19" s="204" t="s">
         <v>86</v>
@@ -18921,7 +18917,7 @@
         <v>138</v>
       </c>
       <c r="S19" s="204" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="T19" s="163"/>
     </row>
@@ -18958,7 +18954,7 @@
         <v>OK</v>
       </c>
       <c r="L20" s="204" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M20" s="204" t="s">
         <v>86</v>
@@ -18975,7 +18971,7 @@
         <v>138</v>
       </c>
       <c r="S20" s="204" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="T20" s="163"/>
     </row>
@@ -19012,7 +19008,7 @@
         <v>OK</v>
       </c>
       <c r="L21" s="204" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M21" s="204" t="s">
         <v>86</v>
@@ -19029,7 +19025,7 @@
         <v>138</v>
       </c>
       <c r="S21" s="204" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="T21" s="163"/>
     </row>
@@ -19066,7 +19062,7 @@
         <v>OK</v>
       </c>
       <c r="L22" s="204" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M22" s="204" t="s">
         <v>86</v>
@@ -19083,7 +19079,7 @@
         <v>138</v>
       </c>
       <c r="S22" s="204" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="T22" s="163"/>
     </row>
@@ -19120,7 +19116,7 @@
         <v>OK</v>
       </c>
       <c r="L23" s="204" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="M23" s="204" t="s">
         <v>86</v>
@@ -19137,7 +19133,7 @@
         <v>138</v>
       </c>
       <c r="S23" s="204" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="T23" s="163"/>
     </row>
@@ -19174,7 +19170,7 @@
         <v>请修改设备名称列,或者设备不存在</v>
       </c>
       <c r="L24" s="204" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="M24" s="204" t="s">
         <v>86</v>
@@ -19191,7 +19187,7 @@
         <v>138</v>
       </c>
       <c r="S24" s="204" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="T24" s="163"/>
     </row>
@@ -19228,7 +19224,7 @@
         <v>OK</v>
       </c>
       <c r="L25" s="204" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M25" s="204" t="s">
         <v>86</v>
@@ -19245,7 +19241,7 @@
         <v>138</v>
       </c>
       <c r="S25" s="204" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="T25" s="163"/>
     </row>
@@ -19282,7 +19278,7 @@
         <v>OK</v>
       </c>
       <c r="L26" s="204" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="M26" s="204" t="s">
         <v>86</v>
@@ -19299,7 +19295,7 @@
         <v>138</v>
       </c>
       <c r="S26" s="204" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="T26" s="163"/>
     </row>
@@ -19336,7 +19332,7 @@
         <v>OK</v>
       </c>
       <c r="L27" s="204" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="M27" s="204" t="s">
         <v>86</v>
@@ -19353,7 +19349,7 @@
         <v>138</v>
       </c>
       <c r="S27" s="204" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T27" s="163"/>
     </row>
@@ -19390,7 +19386,7 @@
         <v>OK</v>
       </c>
       <c r="L28" s="204" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="M28" s="204" t="s">
         <v>86</v>
@@ -19407,7 +19403,7 @@
         <v>138</v>
       </c>
       <c r="S28" s="204" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="T28" s="163"/>
     </row>
@@ -20098,8 +20094,8 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G20" sqref="G20"/>
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -20227,7 +20223,7 @@
         <v>122</v>
       </c>
       <c r="P2" s="123" t="str">
-        <f t="shared" ref="P2:P36" si="6">_xlfn.IFS(LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=7,MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",5))+1,FIND("$",SUBSTITUTE(C2,"-","$",1))-2),LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=6,MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",4))+1,FIND("$",SUBSTITUTE(C2,"-","$",1))-2),LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=5,MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",3))+1,FIND("$",SUBSTITUTE(C2,"-","$",1))-2))</f>
+        <f t="shared" ref="P2:P36" si="6">_xlfn.IFS(LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=7,MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",5))+1,FIND("$",SUBSTITUTE(C2,"-","$",6))-FIND("$",SUBSTITUTE(C2,"-","$",5))-1),LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=6,MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",4))+1,FIND("$",SUBSTITUTE(C2,"-","$",5))-FIND("$",SUBSTITUTE(C2,"-","$",4))-1),LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=5,MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",3))+1,FIND("$",SUBSTITUTE(C2,"-","$",4))-FIND("$",SUBSTITUTE(C2,"-","$",3))-1))</f>
         <v>CSW</v>
       </c>
       <c r="Q2" s="103" t="s">
@@ -20774,7 +20770,7 @@
         <v>283</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D12" s="100" t="str">
         <f>IF(LEN(B12)-LEN(SUBSTITUTE(B12,"-",""))&lt;&gt;1,MID(B12,1,FIND("$",SUBSTITUTE(B12,"-","$",LEN(B12)-LEN(SUBSTITUTE(B12,"-",""))),1)-1),MID(B12,1,FIND("-",B12,1)-1))&amp;"-"&amp;F12&amp;IF(R12="","","-"&amp;R12)</f>
@@ -20833,7 +20829,7 @@
         <v>285</v>
       </c>
       <c r="C13" s="100" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D13" s="100" t="str">
         <f t="shared" si="0"/>
@@ -21526,7 +21522,7 @@
       </c>
       <c r="P24" s="123" t="str">
         <f t="shared" si="6"/>
-        <v>MCS</v>
+        <v>MCSW</v>
       </c>
       <c r="Q24" s="103" t="s">
         <v>284</v>
@@ -21585,7 +21581,7 @@
       </c>
       <c r="P25" s="123" t="str">
         <f t="shared" si="6"/>
-        <v>MCS</v>
+        <v>MCSW</v>
       </c>
       <c r="Q25" s="103" t="s">
         <v>286</v>
@@ -22254,10 +22250,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:IO49"/>
+  <dimension ref="A1:IN49"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
@@ -22279,19 +22275,18 @@
     <col min="15" max="15" width="10.44140625" style="90" customWidth="1"/>
     <col min="16" max="16" width="11.109375" style="90" customWidth="1"/>
     <col min="17" max="17" width="6" style="90" customWidth="1"/>
-    <col min="18" max="18" width="7" style="91" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" style="90" customWidth="1"/>
-    <col min="20" max="20" width="6.77734375" style="90" customWidth="1"/>
-    <col min="21" max="21" width="6.44140625" style="90" customWidth="1"/>
-    <col min="22" max="22" width="7.77734375" style="90" customWidth="1"/>
-    <col min="23" max="23" width="4" style="91" customWidth="1"/>
-    <col min="24" max="24" width="5.5546875" style="90" customWidth="1"/>
-    <col min="25" max="25" width="20" style="86" customWidth="1"/>
-    <col min="26" max="26" width="11.5546875" style="86" customWidth="1"/>
-    <col min="27" max="249" width="9" style="86" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" style="90" customWidth="1"/>
+    <col min="19" max="19" width="6.77734375" style="90" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="90" customWidth="1"/>
+    <col min="21" max="21" width="7.77734375" style="90" customWidth="1"/>
+    <col min="22" max="22" width="4" style="91" customWidth="1"/>
+    <col min="23" max="23" width="5.5546875" style="90" customWidth="1"/>
+    <col min="24" max="24" width="20" style="86" customWidth="1"/>
+    <col min="25" max="25" width="11.5546875" style="86" customWidth="1"/>
+    <col min="26" max="248" width="9" style="86" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:249" s="85" customFormat="1" ht="28.8">
+    <row r="1" spans="1:248" s="85" customFormat="1" ht="28.8">
       <c r="A1" s="95" t="s">
         <v>67</v>
       </c>
@@ -22332,7 +22327,7 @@
         <v>251</v>
       </c>
       <c r="N1" s="97" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="O1" s="107" t="s">
         <v>337</v>
@@ -22344,29 +22339,27 @@
         <v>339</v>
       </c>
       <c r="R1" s="97" t="s">
-        <v>918</v>
-      </c>
-      <c r="S1" s="97" t="s">
         <v>340</v>
       </c>
+      <c r="S1" s="107" t="s">
+        <v>253</v>
+      </c>
       <c r="T1" s="107" t="s">
-        <v>253</v>
+        <v>871</v>
       </c>
       <c r="U1" s="107" t="s">
-        <v>871</v>
+        <v>254</v>
       </c>
       <c r="V1" s="107" t="s">
-        <v>254</v>
+        <v>872</v>
       </c>
       <c r="W1" s="107" t="s">
-        <v>872</v>
-      </c>
-      <c r="X1" s="107" t="s">
         <v>255</v>
       </c>
-      <c r="Y1" s="195" t="s">
+      <c r="X1" s="195" t="s">
         <v>865</v>
       </c>
+      <c r="Y1" s="192"/>
       <c r="Z1" s="192"/>
       <c r="AA1" s="192"/>
       <c r="AB1" s="192"/>
@@ -22590,9 +22583,8 @@
       <c r="IL1" s="192"/>
       <c r="IM1" s="192"/>
       <c r="IN1" s="192"/>
-      <c r="IO1" s="192"/>
-    </row>
-    <row r="2" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="2" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A2" s="98">
         <v>1</v>
       </c>
@@ -22603,7 +22595,7 @@
         <v>342</v>
       </c>
       <c r="D2" s="99" t="str">
-        <f>IF(LEN(B2)-LEN(SUBSTITUTE(B2,"-",""))&lt;&gt;1,MID(B2,1,FIND("$",SUBSTITUTE(B2,"-","$",LEN(B2)-LEN(SUBSTITUTE(B2,"-",""))),1)-1),MID(B2,1,FIND("-",B2,1)-1))&amp;"-"&amp;E2&amp;IF(Y2="","","-"&amp;Y2)</f>
+        <f>IF(LEN(B2)-LEN(SUBSTITUTE(B2,"-",""))&lt;&gt;1,MID(B2,1,FIND("$",SUBSTITUTE(B2,"-","$",LEN(B2)-LEN(SUBSTITUTE(B2,"-",""))),1)-1),MID(B2,1,FIND("-",B2,1)-1))&amp;"-"&amp;E2&amp;IF(X2="","","-"&amp;X2)</f>
         <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
       </c>
       <c r="E2" s="99" t="s">
@@ -22635,26 +22627,26 @@
       <c r="O2" s="98"/>
       <c r="P2" s="98"/>
       <c r="Q2" s="98"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="196" t="str">
+        <f t="shared" ref="S2:S49" si="0">RIGHT(C2,2)</f>
+        <v>06</v>
+      </c>
       <c r="T2" s="196" t="str">
-        <f t="shared" ref="T2:T49" si="0">RIGHT(C2,2)</f>
-        <v>06</v>
-      </c>
-      <c r="U2" s="196" t="str">
         <f>IF(RIGHT(MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,4),1)="-",MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,3),IF(RIGHT(MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,2),1)="-",IF(ISNUMBER(--MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,1)),"0"&amp;MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,1),MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,1)),MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,2))&amp;"列"&amp;MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",3))+1,2))</f>
         <v>03列01</v>
       </c>
+      <c r="U2" s="196" t="str">
+        <f t="shared" ref="U2:U49" si="1">MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",_xlfn.IFS(LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=7,7,LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=6,6,LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=5,5)))+1,2)</f>
+        <v>02</v>
+      </c>
       <c r="V2" s="196" t="str">
-        <f t="shared" ref="V2:V49" si="1">MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",_xlfn.IFS(LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=7,7,LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=6,6,LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=5,5)))+1,2)</f>
-        <v>02</v>
-      </c>
-      <c r="W2" s="196" t="str">
         <f>MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",1))+1,FIND("$",SUBSTITUTE(C2,"-","$",1))-2)</f>
         <v>122</v>
       </c>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="196"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="110"/>
       <c r="Z2" s="110"/>
       <c r="AA2" s="110"/>
       <c r="AB2" s="110"/>
@@ -22878,9 +22870,8 @@
       <c r="IL2" s="110"/>
       <c r="IM2" s="110"/>
       <c r="IN2" s="110"/>
-      <c r="IO2" s="110"/>
-    </row>
-    <row r="3" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="3" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A3" s="98">
         <v>2</v>
       </c>
@@ -22923,26 +22914,26 @@
       <c r="O3" s="98"/>
       <c r="P3" s="98"/>
       <c r="Q3" s="98"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="196" t="str">
+      <c r="R3" s="108"/>
+      <c r="S3" s="196" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
+      <c r="T3" s="196" t="str">
+        <f t="shared" ref="T3:T49" si="3">IF(RIGHT(MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",2))+1,4),1)="-",MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",2))+1,3),IF(RIGHT(MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",2))+1,2),1)="-",IF(ISNUMBER(--MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",2))+1,1)),"0"&amp;MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",2))+1,1),MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",2))+1,1)),MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",2))+1,2))&amp;"列"&amp;MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",3))+1,2))</f>
+        <v>03列01</v>
+      </c>
       <c r="U3" s="196" t="str">
-        <f t="shared" ref="U3:U49" si="3">IF(RIGHT(MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",2))+1,4),1)="-",MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",2))+1,3),IF(RIGHT(MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",2))+1,2),1)="-",IF(ISNUMBER(--MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",2))+1,1)),"0"&amp;MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",2))+1,1),MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",2))+1,1)),MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",2))+1,2))&amp;"列"&amp;MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",3))+1,2))</f>
-        <v>03列01</v>
-      </c>
-      <c r="V3" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W3" s="196" t="str">
-        <f t="shared" ref="W3:W49" si="4">MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",1))+1,FIND("$",SUBSTITUTE(C3,"-","$",1))-2)</f>
+      <c r="V3" s="196" t="str">
+        <f t="shared" ref="V3:V49" si="4">MID(C3,FIND("$",SUBSTITUTE(C3,"-","$",1))+1,FIND("$",SUBSTITUTE(C3,"-","$",1))-2)</f>
         <v>122</v>
       </c>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="196"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="110"/>
       <c r="Z3" s="110"/>
       <c r="AA3" s="110"/>
       <c r="AB3" s="110"/>
@@ -23166,9 +23157,8 @@
       <c r="IL3" s="110"/>
       <c r="IM3" s="110"/>
       <c r="IN3" s="110"/>
-      <c r="IO3" s="110"/>
-    </row>
-    <row r="4" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="4" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A4" s="98">
         <v>3</v>
       </c>
@@ -23211,26 +23201,26 @@
       <c r="O4" s="98"/>
       <c r="P4" s="98"/>
       <c r="Q4" s="98"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="196" t="str">
+      <c r="R4" s="108"/>
+      <c r="S4" s="196" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="U4" s="196" t="str">
+      <c r="T4" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列01</v>
       </c>
-      <c r="V4" s="196" t="str">
+      <c r="U4" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W4" s="196" t="str">
+      <c r="V4" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="196"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="196"/>
+      <c r="Y4" s="110"/>
       <c r="Z4" s="110"/>
       <c r="AA4" s="110"/>
       <c r="AB4" s="110"/>
@@ -23454,9 +23444,8 @@
       <c r="IL4" s="110"/>
       <c r="IM4" s="110"/>
       <c r="IN4" s="110"/>
-      <c r="IO4" s="110"/>
-    </row>
-    <row r="5" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="5" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A5" s="98">
         <v>4</v>
       </c>
@@ -23499,26 +23488,26 @@
       <c r="O5" s="98"/>
       <c r="P5" s="98"/>
       <c r="Q5" s="98"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="196" t="str">
+      <c r="R5" s="108"/>
+      <c r="S5" s="196" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="U5" s="196" t="str">
+      <c r="T5" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列01</v>
       </c>
-      <c r="V5" s="196" t="str">
+      <c r="U5" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W5" s="196" t="str">
+      <c r="V5" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="196"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="196"/>
+      <c r="Y5" s="110"/>
       <c r="Z5" s="110"/>
       <c r="AA5" s="110"/>
       <c r="AB5" s="110"/>
@@ -23742,9 +23731,8 @@
       <c r="IL5" s="110"/>
       <c r="IM5" s="110"/>
       <c r="IN5" s="110"/>
-      <c r="IO5" s="110"/>
-    </row>
-    <row r="6" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="6" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A6" s="98">
         <v>5</v>
       </c>
@@ -23787,26 +23775,26 @@
       <c r="O6" s="98"/>
       <c r="P6" s="98"/>
       <c r="Q6" s="98"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="196" t="str">
+      <c r="R6" s="108"/>
+      <c r="S6" s="196" t="str">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="U6" s="196" t="str">
+      <c r="T6" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列01</v>
       </c>
-      <c r="V6" s="196" t="str">
+      <c r="U6" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W6" s="196" t="str">
+      <c r="V6" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="196"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="196"/>
+      <c r="Y6" s="110"/>
       <c r="Z6" s="110"/>
       <c r="AA6" s="110"/>
       <c r="AB6" s="110"/>
@@ -24030,9 +24018,8 @@
       <c r="IL6" s="110"/>
       <c r="IM6" s="110"/>
       <c r="IN6" s="110"/>
-      <c r="IO6" s="110"/>
-    </row>
-    <row r="7" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="7" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A7" s="98">
         <v>6</v>
       </c>
@@ -24075,26 +24062,26 @@
       <c r="O7" s="98"/>
       <c r="P7" s="98"/>
       <c r="Q7" s="98"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="196" t="str">
+      <c r="R7" s="108"/>
+      <c r="S7" s="196" t="str">
         <f t="shared" si="0"/>
         <v>06</v>
       </c>
-      <c r="U7" s="196" t="str">
+      <c r="T7" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列02</v>
       </c>
-      <c r="V7" s="196" t="str">
+      <c r="U7" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W7" s="196" t="str">
+      <c r="V7" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X7" s="108"/>
-      <c r="Y7" s="196"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="196"/>
+      <c r="Y7" s="110"/>
       <c r="Z7" s="110"/>
       <c r="AA7" s="110"/>
       <c r="AB7" s="110"/>
@@ -24318,9 +24305,8 @@
       <c r="IL7" s="110"/>
       <c r="IM7" s="110"/>
       <c r="IN7" s="110"/>
-      <c r="IO7" s="110"/>
-    </row>
-    <row r="8" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="8" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A8" s="98">
         <v>7</v>
       </c>
@@ -24363,26 +24349,26 @@
       <c r="O8" s="98"/>
       <c r="P8" s="98"/>
       <c r="Q8" s="98"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="196" t="str">
+      <c r="R8" s="108"/>
+      <c r="S8" s="196" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="U8" s="196" t="str">
+      <c r="T8" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列02</v>
       </c>
-      <c r="V8" s="196" t="str">
+      <c r="U8" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W8" s="196" t="str">
+      <c r="V8" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="196"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="196"/>
+      <c r="Y8" s="110"/>
       <c r="Z8" s="110"/>
       <c r="AA8" s="110"/>
       <c r="AB8" s="110"/>
@@ -24606,9 +24592,8 @@
       <c r="IL8" s="110"/>
       <c r="IM8" s="110"/>
       <c r="IN8" s="110"/>
-      <c r="IO8" s="110"/>
-    </row>
-    <row r="9" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="9" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A9" s="98">
         <v>8</v>
       </c>
@@ -24651,26 +24636,26 @@
       <c r="O9" s="98"/>
       <c r="P9" s="98"/>
       <c r="Q9" s="98"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="196" t="str">
+      <c r="R9" s="108"/>
+      <c r="S9" s="196" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="U9" s="196" t="str">
+      <c r="T9" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列02</v>
       </c>
-      <c r="V9" s="196" t="str">
+      <c r="U9" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W9" s="196" t="str">
+      <c r="V9" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="196"/>
+      <c r="W9" s="108"/>
+      <c r="X9" s="196"/>
+      <c r="Y9" s="110"/>
       <c r="Z9" s="110"/>
       <c r="AA9" s="110"/>
       <c r="AB9" s="110"/>
@@ -24894,9 +24879,8 @@
       <c r="IL9" s="110"/>
       <c r="IM9" s="110"/>
       <c r="IN9" s="110"/>
-      <c r="IO9" s="110"/>
-    </row>
-    <row r="10" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="10" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A10" s="98">
         <v>9</v>
       </c>
@@ -24939,26 +24923,26 @@
       <c r="O10" s="98"/>
       <c r="P10" s="98"/>
       <c r="Q10" s="98"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="196" t="str">
+      <c r="R10" s="108"/>
+      <c r="S10" s="196" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="U10" s="196" t="str">
+      <c r="T10" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列02</v>
       </c>
-      <c r="V10" s="196" t="str">
+      <c r="U10" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W10" s="196" t="str">
+      <c r="V10" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="196"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="196"/>
+      <c r="Y10" s="110"/>
       <c r="Z10" s="110"/>
       <c r="AA10" s="110"/>
       <c r="AB10" s="110"/>
@@ -25182,9 +25166,8 @@
       <c r="IL10" s="110"/>
       <c r="IM10" s="110"/>
       <c r="IN10" s="110"/>
-      <c r="IO10" s="110"/>
-    </row>
-    <row r="11" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="11" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A11" s="98">
         <v>10</v>
       </c>
@@ -25227,26 +25210,26 @@
       <c r="O11" s="98"/>
       <c r="P11" s="98"/>
       <c r="Q11" s="98"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="196" t="str">
+      <c r="R11" s="108"/>
+      <c r="S11" s="196" t="str">
         <f t="shared" si="0"/>
         <v>06</v>
       </c>
-      <c r="U11" s="196" t="str">
+      <c r="T11" s="196" t="str">
         <f t="shared" si="3"/>
         <v>04列08</v>
       </c>
-      <c r="V11" s="196" t="str">
+      <c r="U11" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W11" s="196" t="str">
+      <c r="V11" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X11" s="108"/>
-      <c r="Y11" s="196"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="196"/>
+      <c r="Y11" s="110"/>
       <c r="Z11" s="110"/>
       <c r="AA11" s="110"/>
       <c r="AB11" s="110"/>
@@ -25470,9 +25453,8 @@
       <c r="IL11" s="110"/>
       <c r="IM11" s="110"/>
       <c r="IN11" s="110"/>
-      <c r="IO11" s="110"/>
-    </row>
-    <row r="12" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="12" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A12" s="98">
         <v>11</v>
       </c>
@@ -25515,26 +25497,26 @@
       <c r="O12" s="98"/>
       <c r="P12" s="98"/>
       <c r="Q12" s="98"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="196" t="str">
+      <c r="R12" s="108"/>
+      <c r="S12" s="196" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="U12" s="196" t="str">
+      <c r="T12" s="196" t="str">
         <f t="shared" si="3"/>
         <v>04列08</v>
       </c>
-      <c r="V12" s="196" t="str">
+      <c r="U12" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W12" s="196" t="str">
+      <c r="V12" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="196"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="196"/>
+      <c r="Y12" s="110"/>
       <c r="Z12" s="110"/>
       <c r="AA12" s="110"/>
       <c r="AB12" s="110"/>
@@ -25758,9 +25740,8 @@
       <c r="IL12" s="110"/>
       <c r="IM12" s="110"/>
       <c r="IN12" s="110"/>
-      <c r="IO12" s="110"/>
-    </row>
-    <row r="13" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="13" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A13" s="98">
         <v>12</v>
       </c>
@@ -25803,26 +25784,26 @@
       <c r="O13" s="98"/>
       <c r="P13" s="98"/>
       <c r="Q13" s="98"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="196" t="str">
+      <c r="R13" s="108"/>
+      <c r="S13" s="196" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="U13" s="196" t="str">
+      <c r="T13" s="196" t="str">
         <f t="shared" si="3"/>
         <v>04列08</v>
       </c>
-      <c r="V13" s="196" t="str">
+      <c r="U13" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W13" s="196" t="str">
+      <c r="V13" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X13" s="108"/>
-      <c r="Y13" s="196"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="196"/>
+      <c r="Y13" s="110"/>
       <c r="Z13" s="110"/>
       <c r="AA13" s="110"/>
       <c r="AB13" s="110"/>
@@ -26046,9 +26027,8 @@
       <c r="IL13" s="110"/>
       <c r="IM13" s="110"/>
       <c r="IN13" s="110"/>
-      <c r="IO13" s="110"/>
-    </row>
-    <row r="14" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="14" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A14" s="98">
         <v>13</v>
       </c>
@@ -26091,26 +26071,26 @@
       <c r="O14" s="98"/>
       <c r="P14" s="98"/>
       <c r="Q14" s="98"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="196" t="str">
+      <c r="R14" s="108"/>
+      <c r="S14" s="196" t="str">
         <f t="shared" si="0"/>
         <v>06</v>
       </c>
-      <c r="U14" s="196" t="str">
+      <c r="T14" s="196" t="str">
         <f t="shared" si="3"/>
         <v>04列09</v>
       </c>
-      <c r="V14" s="196" t="str">
+      <c r="U14" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W14" s="196" t="str">
+      <c r="V14" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X14" s="108"/>
-      <c r="Y14" s="196"/>
+      <c r="W14" s="108"/>
+      <c r="X14" s="196"/>
+      <c r="Y14" s="110"/>
       <c r="Z14" s="110"/>
       <c r="AA14" s="110"/>
       <c r="AB14" s="110"/>
@@ -26334,9 +26314,8 @@
       <c r="IL14" s="110"/>
       <c r="IM14" s="110"/>
       <c r="IN14" s="110"/>
-      <c r="IO14" s="110"/>
-    </row>
-    <row r="15" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="15" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A15" s="98">
         <v>14</v>
       </c>
@@ -26379,26 +26358,26 @@
       <c r="O15" s="98"/>
       <c r="P15" s="98"/>
       <c r="Q15" s="98"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="108"/>
-      <c r="T15" s="196" t="str">
+      <c r="R15" s="108"/>
+      <c r="S15" s="196" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="U15" s="196" t="str">
+      <c r="T15" s="196" t="str">
         <f t="shared" si="3"/>
         <v>04列09</v>
       </c>
-      <c r="V15" s="196" t="str">
+      <c r="U15" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W15" s="196" t="str">
+      <c r="V15" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X15" s="108"/>
-      <c r="Y15" s="196"/>
+      <c r="W15" s="108"/>
+      <c r="X15" s="196"/>
+      <c r="Y15" s="110"/>
       <c r="Z15" s="110"/>
       <c r="AA15" s="110"/>
       <c r="AB15" s="110"/>
@@ -26622,9 +26601,8 @@
       <c r="IL15" s="110"/>
       <c r="IM15" s="110"/>
       <c r="IN15" s="110"/>
-      <c r="IO15" s="110"/>
-    </row>
-    <row r="16" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="16" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A16" s="98">
         <v>15</v>
       </c>
@@ -26667,26 +26645,26 @@
       <c r="O16" s="98"/>
       <c r="P16" s="98"/>
       <c r="Q16" s="98"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="108"/>
-      <c r="T16" s="196" t="str">
+      <c r="R16" s="108"/>
+      <c r="S16" s="196" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="U16" s="196" t="str">
+      <c r="T16" s="196" t="str">
         <f t="shared" si="3"/>
         <v>04列09</v>
       </c>
-      <c r="V16" s="196" t="str">
+      <c r="U16" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W16" s="196" t="str">
+      <c r="V16" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X16" s="108"/>
-      <c r="Y16" s="196"/>
+      <c r="W16" s="108"/>
+      <c r="X16" s="196"/>
+      <c r="Y16" s="110"/>
       <c r="Z16" s="110"/>
       <c r="AA16" s="110"/>
       <c r="AB16" s="110"/>
@@ -26910,9 +26888,8 @@
       <c r="IL16" s="110"/>
       <c r="IM16" s="110"/>
       <c r="IN16" s="110"/>
-      <c r="IO16" s="110"/>
-    </row>
-    <row r="17" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="17" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A17" s="98">
         <v>16</v>
       </c>
@@ -26955,26 +26932,26 @@
       <c r="O17" s="98"/>
       <c r="P17" s="98"/>
       <c r="Q17" s="98"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="196" t="str">
+      <c r="R17" s="108"/>
+      <c r="S17" s="196" t="str">
         <f t="shared" si="0"/>
         <v>06</v>
       </c>
-      <c r="U17" s="196" t="str">
+      <c r="T17" s="196" t="str">
         <f t="shared" si="3"/>
         <v>04列10</v>
       </c>
-      <c r="V17" s="196" t="str">
+      <c r="U17" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W17" s="196" t="str">
+      <c r="V17" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X17" s="108"/>
-      <c r="Y17" s="196"/>
+      <c r="W17" s="108"/>
+      <c r="X17" s="196"/>
+      <c r="Y17" s="110"/>
       <c r="Z17" s="110"/>
       <c r="AA17" s="110"/>
       <c r="AB17" s="110"/>
@@ -27198,9 +27175,8 @@
       <c r="IL17" s="110"/>
       <c r="IM17" s="110"/>
       <c r="IN17" s="110"/>
-      <c r="IO17" s="110"/>
-    </row>
-    <row r="18" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="18" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A18" s="98">
         <v>17</v>
       </c>
@@ -27243,26 +27219,26 @@
       <c r="O18" s="98"/>
       <c r="P18" s="98"/>
       <c r="Q18" s="98"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="196" t="str">
+      <c r="R18" s="108"/>
+      <c r="S18" s="196" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="U18" s="196" t="str">
+      <c r="T18" s="196" t="str">
         <f t="shared" si="3"/>
         <v>04列10</v>
       </c>
-      <c r="V18" s="196" t="str">
+      <c r="U18" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W18" s="196" t="str">
+      <c r="V18" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X18" s="108"/>
-      <c r="Y18" s="196"/>
+      <c r="W18" s="108"/>
+      <c r="X18" s="196"/>
+      <c r="Y18" s="110"/>
       <c r="Z18" s="110"/>
       <c r="AA18" s="110"/>
       <c r="AB18" s="110"/>
@@ -27486,9 +27462,8 @@
       <c r="IL18" s="110"/>
       <c r="IM18" s="110"/>
       <c r="IN18" s="110"/>
-      <c r="IO18" s="110"/>
-    </row>
-    <row r="19" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="19" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A19" s="98">
         <v>18</v>
       </c>
@@ -27531,26 +27506,26 @@
       <c r="O19" s="98"/>
       <c r="P19" s="98"/>
       <c r="Q19" s="98"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="108"/>
-      <c r="T19" s="196" t="str">
+      <c r="R19" s="108"/>
+      <c r="S19" s="196" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="U19" s="196" t="str">
+      <c r="T19" s="196" t="str">
         <f t="shared" si="3"/>
         <v>04列10</v>
       </c>
-      <c r="V19" s="196" t="str">
+      <c r="U19" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W19" s="196" t="str">
+      <c r="V19" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X19" s="108"/>
-      <c r="Y19" s="196"/>
+      <c r="W19" s="108"/>
+      <c r="X19" s="196"/>
+      <c r="Y19" s="110"/>
       <c r="Z19" s="110"/>
       <c r="AA19" s="110"/>
       <c r="AB19" s="110"/>
@@ -27774,9 +27749,8 @@
       <c r="IL19" s="110"/>
       <c r="IM19" s="110"/>
       <c r="IN19" s="110"/>
-      <c r="IO19" s="110"/>
-    </row>
-    <row r="20" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="20" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A20" s="98">
         <v>19</v>
       </c>
@@ -27819,26 +27793,26 @@
       <c r="O20" s="98"/>
       <c r="P20" s="98"/>
       <c r="Q20" s="98"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="108"/>
-      <c r="T20" s="196" t="str">
+      <c r="R20" s="108"/>
+      <c r="S20" s="196" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="U20" s="196" t="str">
+      <c r="T20" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列04</v>
       </c>
-      <c r="V20" s="196" t="str">
+      <c r="U20" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W20" s="196" t="str">
+      <c r="V20" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X20" s="108"/>
-      <c r="Y20" s="196"/>
+      <c r="W20" s="108"/>
+      <c r="X20" s="196"/>
+      <c r="Y20" s="110"/>
       <c r="Z20" s="110"/>
       <c r="AA20" s="110"/>
       <c r="AB20" s="110"/>
@@ -28062,9 +28036,8 @@
       <c r="IL20" s="110"/>
       <c r="IM20" s="110"/>
       <c r="IN20" s="110"/>
-      <c r="IO20" s="110"/>
-    </row>
-    <row r="21" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="21" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A21" s="98">
         <v>20</v>
       </c>
@@ -28107,26 +28080,26 @@
       <c r="O21" s="98"/>
       <c r="P21" s="98"/>
       <c r="Q21" s="98"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="108"/>
-      <c r="T21" s="196" t="str">
+      <c r="R21" s="108"/>
+      <c r="S21" s="196" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="U21" s="196" t="str">
+      <c r="T21" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列04</v>
       </c>
-      <c r="V21" s="196" t="str">
+      <c r="U21" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W21" s="196" t="str">
+      <c r="V21" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X21" s="108"/>
-      <c r="Y21" s="196"/>
+      <c r="W21" s="108"/>
+      <c r="X21" s="196"/>
+      <c r="Y21" s="110"/>
       <c r="Z21" s="110"/>
       <c r="AA21" s="110"/>
       <c r="AB21" s="110"/>
@@ -28350,9 +28323,8 @@
       <c r="IL21" s="110"/>
       <c r="IM21" s="110"/>
       <c r="IN21" s="110"/>
-      <c r="IO21" s="110"/>
-    </row>
-    <row r="22" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="22" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A22" s="98">
         <v>21</v>
       </c>
@@ -28395,26 +28367,26 @@
       <c r="O22" s="98"/>
       <c r="P22" s="98"/>
       <c r="Q22" s="98"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="108"/>
-      <c r="T22" s="196" t="str">
+      <c r="R22" s="108"/>
+      <c r="S22" s="196" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="U22" s="196" t="str">
+      <c r="T22" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列04</v>
       </c>
-      <c r="V22" s="196" t="str">
+      <c r="U22" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W22" s="196" t="str">
+      <c r="V22" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X22" s="108"/>
-      <c r="Y22" s="196"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="196"/>
+      <c r="Y22" s="110"/>
       <c r="Z22" s="110"/>
       <c r="AA22" s="110"/>
       <c r="AB22" s="110"/>
@@ -28638,9 +28610,8 @@
       <c r="IL22" s="110"/>
       <c r="IM22" s="110"/>
       <c r="IN22" s="110"/>
-      <c r="IO22" s="110"/>
-    </row>
-    <row r="23" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="23" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A23" s="98">
         <v>22</v>
       </c>
@@ -28683,26 +28654,26 @@
       <c r="O23" s="98"/>
       <c r="P23" s="98"/>
       <c r="Q23" s="98"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="196" t="str">
+      <c r="R23" s="108"/>
+      <c r="S23" s="196" t="str">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="U23" s="196" t="str">
+      <c r="T23" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列04</v>
       </c>
-      <c r="V23" s="196" t="str">
+      <c r="U23" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W23" s="196" t="str">
+      <c r="V23" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X23" s="108"/>
-      <c r="Y23" s="196"/>
+      <c r="W23" s="108"/>
+      <c r="X23" s="196"/>
+      <c r="Y23" s="110"/>
       <c r="Z23" s="110"/>
       <c r="AA23" s="110"/>
       <c r="AB23" s="110"/>
@@ -28926,9 +28897,8 @@
       <c r="IL23" s="110"/>
       <c r="IM23" s="110"/>
       <c r="IN23" s="110"/>
-      <c r="IO23" s="110"/>
-    </row>
-    <row r="24" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="24" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A24" s="98">
         <v>23</v>
       </c>
@@ -28971,26 +28941,26 @@
       <c r="O24" s="98"/>
       <c r="P24" s="98"/>
       <c r="Q24" s="98"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="196" t="str">
+      <c r="R24" s="108"/>
+      <c r="S24" s="196" t="str">
         <f t="shared" si="0"/>
         <v>06</v>
       </c>
-      <c r="U24" s="196" t="str">
+      <c r="T24" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列05</v>
       </c>
-      <c r="V24" s="196" t="str">
+      <c r="U24" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W24" s="196" t="str">
+      <c r="V24" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X24" s="108"/>
-      <c r="Y24" s="196"/>
+      <c r="W24" s="108"/>
+      <c r="X24" s="196"/>
+      <c r="Y24" s="110"/>
       <c r="Z24" s="110"/>
       <c r="AA24" s="110"/>
       <c r="AB24" s="110"/>
@@ -29214,9 +29184,8 @@
       <c r="IL24" s="110"/>
       <c r="IM24" s="110"/>
       <c r="IN24" s="110"/>
-      <c r="IO24" s="110"/>
-    </row>
-    <row r="25" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="25" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A25" s="98">
         <v>24</v>
       </c>
@@ -29259,26 +29228,26 @@
       <c r="O25" s="98"/>
       <c r="P25" s="98"/>
       <c r="Q25" s="98"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="108"/>
-      <c r="T25" s="196" t="str">
+      <c r="R25" s="108"/>
+      <c r="S25" s="196" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="U25" s="196" t="str">
+      <c r="T25" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列05</v>
       </c>
-      <c r="V25" s="196" t="str">
+      <c r="U25" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W25" s="196" t="str">
+      <c r="V25" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X25" s="108"/>
-      <c r="Y25" s="196"/>
+      <c r="W25" s="108"/>
+      <c r="X25" s="196"/>
+      <c r="Y25" s="110"/>
       <c r="Z25" s="110"/>
       <c r="AA25" s="110"/>
       <c r="AB25" s="110"/>
@@ -29502,9 +29471,8 @@
       <c r="IL25" s="110"/>
       <c r="IM25" s="110"/>
       <c r="IN25" s="110"/>
-      <c r="IO25" s="110"/>
-    </row>
-    <row r="26" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="26" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A26" s="98">
         <v>25</v>
       </c>
@@ -29547,26 +29515,26 @@
       <c r="O26" s="98"/>
       <c r="P26" s="98"/>
       <c r="Q26" s="98"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="108"/>
-      <c r="T26" s="196" t="str">
+      <c r="R26" s="108"/>
+      <c r="S26" s="196" t="str">
         <f t="shared" si="0"/>
         <v>06</v>
       </c>
-      <c r="U26" s="196" t="str">
+      <c r="T26" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列03</v>
       </c>
-      <c r="V26" s="196" t="str">
+      <c r="U26" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W26" s="196" t="str">
+      <c r="V26" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X26" s="108"/>
-      <c r="Y26" s="196"/>
+      <c r="W26" s="108"/>
+      <c r="X26" s="196"/>
+      <c r="Y26" s="110"/>
       <c r="Z26" s="110"/>
       <c r="AA26" s="110"/>
       <c r="AB26" s="110"/>
@@ -29790,9 +29758,8 @@
       <c r="IL26" s="110"/>
       <c r="IM26" s="110"/>
       <c r="IN26" s="110"/>
-      <c r="IO26" s="110"/>
-    </row>
-    <row r="27" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="27" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A27" s="98">
         <v>26</v>
       </c>
@@ -29835,26 +29802,26 @@
       <c r="O27" s="98"/>
       <c r="P27" s="98"/>
       <c r="Q27" s="98"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="108"/>
-      <c r="T27" s="196" t="str">
+      <c r="R27" s="108"/>
+      <c r="S27" s="196" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="U27" s="196" t="str">
+      <c r="T27" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列03</v>
       </c>
-      <c r="V27" s="196" t="str">
+      <c r="U27" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W27" s="196" t="str">
+      <c r="V27" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X27" s="108"/>
-      <c r="Y27" s="196"/>
+      <c r="W27" s="108"/>
+      <c r="X27" s="196"/>
+      <c r="Y27" s="110"/>
       <c r="Z27" s="110"/>
       <c r="AA27" s="110"/>
       <c r="AB27" s="110"/>
@@ -30078,9 +30045,8 @@
       <c r="IL27" s="110"/>
       <c r="IM27" s="110"/>
       <c r="IN27" s="110"/>
-      <c r="IO27" s="110"/>
-    </row>
-    <row r="28" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="28" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A28" s="98">
         <v>27</v>
       </c>
@@ -30123,26 +30089,26 @@
       <c r="O28" s="98"/>
       <c r="P28" s="98"/>
       <c r="Q28" s="98"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="108"/>
-      <c r="T28" s="196" t="str">
+      <c r="R28" s="108"/>
+      <c r="S28" s="196" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="U28" s="196" t="str">
+      <c r="T28" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列03</v>
       </c>
-      <c r="V28" s="196" t="str">
+      <c r="U28" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W28" s="196" t="str">
+      <c r="V28" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X28" s="108"/>
-      <c r="Y28" s="196"/>
+      <c r="W28" s="108"/>
+      <c r="X28" s="196"/>
+      <c r="Y28" s="110"/>
       <c r="Z28" s="110"/>
       <c r="AA28" s="110"/>
       <c r="AB28" s="110"/>
@@ -30366,9 +30332,8 @@
       <c r="IL28" s="110"/>
       <c r="IM28" s="110"/>
       <c r="IN28" s="110"/>
-      <c r="IO28" s="110"/>
-    </row>
-    <row r="29" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="29" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A29" s="98">
         <v>28</v>
       </c>
@@ -30411,26 +30376,26 @@
       <c r="O29" s="98"/>
       <c r="P29" s="98"/>
       <c r="Q29" s="98"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="196" t="str">
+      <c r="R29" s="108"/>
+      <c r="S29" s="196" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="U29" s="196" t="str">
+      <c r="T29" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列03</v>
       </c>
-      <c r="V29" s="196" t="str">
+      <c r="U29" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W29" s="196" t="str">
+      <c r="V29" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X29" s="108"/>
-      <c r="Y29" s="196"/>
+      <c r="W29" s="108"/>
+      <c r="X29" s="196"/>
+      <c r="Y29" s="110"/>
       <c r="Z29" s="110"/>
       <c r="AA29" s="110"/>
       <c r="AB29" s="110"/>
@@ -30654,9 +30619,8 @@
       <c r="IL29" s="110"/>
       <c r="IM29" s="110"/>
       <c r="IN29" s="110"/>
-      <c r="IO29" s="110"/>
-    </row>
-    <row r="30" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="30" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A30" s="98">
         <v>29</v>
       </c>
@@ -30699,26 +30663,26 @@
       <c r="O30" s="98"/>
       <c r="P30" s="98"/>
       <c r="Q30" s="98"/>
-      <c r="R30" s="109"/>
-      <c r="S30" s="108"/>
-      <c r="T30" s="196" t="str">
+      <c r="R30" s="108"/>
+      <c r="S30" s="196" t="str">
         <f t="shared" si="0"/>
         <v>06</v>
       </c>
-      <c r="U30" s="196" t="str">
+      <c r="T30" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列04</v>
       </c>
-      <c r="V30" s="196" t="str">
+      <c r="U30" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W30" s="196" t="str">
+      <c r="V30" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X30" s="108"/>
-      <c r="Y30" s="196"/>
+      <c r="W30" s="108"/>
+      <c r="X30" s="196"/>
+      <c r="Y30" s="110"/>
       <c r="Z30" s="110"/>
       <c r="AA30" s="110"/>
       <c r="AB30" s="110"/>
@@ -30942,14 +30906,13 @@
       <c r="IL30" s="110"/>
       <c r="IM30" s="110"/>
       <c r="IN30" s="110"/>
-      <c r="IO30" s="110"/>
-    </row>
-    <row r="31" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="31" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A31" s="98">
         <v>30</v>
       </c>
       <c r="B31" s="99" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C31" s="99" t="s">
         <v>461</v>
@@ -30987,26 +30950,26 @@
       <c r="O31" s="98"/>
       <c r="P31" s="98"/>
       <c r="Q31" s="98"/>
-      <c r="R31" s="109"/>
-      <c r="S31" s="108"/>
-      <c r="T31" s="196" t="str">
+      <c r="R31" s="108"/>
+      <c r="S31" s="196" t="str">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="U31" s="196" t="str">
+      <c r="T31" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列05</v>
       </c>
-      <c r="V31" s="196" t="str">
+      <c r="U31" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W31" s="196" t="str">
+      <c r="V31" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X31" s="108"/>
-      <c r="Y31" s="196"/>
+      <c r="W31" s="108"/>
+      <c r="X31" s="196"/>
+      <c r="Y31" s="110"/>
       <c r="Z31" s="110"/>
       <c r="AA31" s="110"/>
       <c r="AB31" s="110"/>
@@ -31230,14 +31193,13 @@
       <c r="IL31" s="110"/>
       <c r="IM31" s="110"/>
       <c r="IN31" s="110"/>
-      <c r="IO31" s="110"/>
-    </row>
-    <row r="32" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="32" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A32" s="98">
         <v>31</v>
       </c>
       <c r="B32" s="99" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C32" s="99" t="s">
         <v>464</v>
@@ -31275,26 +31237,26 @@
       <c r="O32" s="98"/>
       <c r="P32" s="98"/>
       <c r="Q32" s="98"/>
-      <c r="R32" s="109"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="196" t="str">
+      <c r="R32" s="108"/>
+      <c r="S32" s="196" t="str">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="U32" s="196" t="str">
+      <c r="T32" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列06</v>
       </c>
-      <c r="V32" s="196" t="str">
+      <c r="U32" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W32" s="196" t="str">
+      <c r="V32" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X32" s="108"/>
-      <c r="Y32" s="196"/>
+      <c r="W32" s="108"/>
+      <c r="X32" s="196"/>
+      <c r="Y32" s="110"/>
       <c r="Z32" s="110"/>
       <c r="AA32" s="110"/>
       <c r="AB32" s="110"/>
@@ -31518,14 +31480,13 @@
       <c r="IL32" s="110"/>
       <c r="IM32" s="110"/>
       <c r="IN32" s="110"/>
-      <c r="IO32" s="110"/>
-    </row>
-    <row r="33" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="33" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A33" s="98">
         <v>32</v>
       </c>
       <c r="B33" s="99" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C33" s="99" t="s">
         <v>467</v>
@@ -31563,26 +31524,26 @@
       <c r="O33" s="98"/>
       <c r="P33" s="98"/>
       <c r="Q33" s="98"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="108"/>
-      <c r="T33" s="196" t="str">
+      <c r="R33" s="108"/>
+      <c r="S33" s="196" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="U33" s="196" t="str">
+      <c r="T33" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列05</v>
       </c>
-      <c r="V33" s="196" t="str">
+      <c r="U33" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W33" s="196" t="str">
+      <c r="V33" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X33" s="108"/>
-      <c r="Y33" s="196"/>
+      <c r="W33" s="108"/>
+      <c r="X33" s="196"/>
+      <c r="Y33" s="110"/>
       <c r="Z33" s="110"/>
       <c r="AA33" s="110"/>
       <c r="AB33" s="110"/>
@@ -31806,14 +31767,13 @@
       <c r="IL33" s="110"/>
       <c r="IM33" s="110"/>
       <c r="IN33" s="110"/>
-      <c r="IO33" s="110"/>
-    </row>
-    <row r="34" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="34" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A34" s="98">
         <v>33</v>
       </c>
       <c r="B34" s="99" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C34" s="99" t="s">
         <v>470</v>
@@ -31851,26 +31811,26 @@
       <c r="O34" s="98"/>
       <c r="P34" s="98"/>
       <c r="Q34" s="98"/>
-      <c r="R34" s="109"/>
-      <c r="S34" s="108"/>
-      <c r="T34" s="196" t="str">
+      <c r="R34" s="108"/>
+      <c r="S34" s="196" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="U34" s="196" t="str">
+      <c r="T34" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列06</v>
       </c>
-      <c r="V34" s="196" t="str">
+      <c r="U34" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W34" s="196" t="str">
+      <c r="V34" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X34" s="108"/>
-      <c r="Y34" s="196"/>
+      <c r="W34" s="108"/>
+      <c r="X34" s="196"/>
+      <c r="Y34" s="110"/>
       <c r="Z34" s="110"/>
       <c r="AA34" s="110"/>
       <c r="AB34" s="110"/>
@@ -32094,14 +32054,13 @@
       <c r="IL34" s="110"/>
       <c r="IM34" s="110"/>
       <c r="IN34" s="110"/>
-      <c r="IO34" s="110"/>
-    </row>
-    <row r="35" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="35" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A35" s="98">
         <v>34</v>
       </c>
       <c r="B35" s="99" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C35" s="99" t="s">
         <v>473</v>
@@ -32139,26 +32098,26 @@
       <c r="O35" s="98"/>
       <c r="P35" s="98"/>
       <c r="Q35" s="98"/>
-      <c r="R35" s="109"/>
-      <c r="S35" s="108"/>
-      <c r="T35" s="196" t="str">
+      <c r="R35" s="108"/>
+      <c r="S35" s="196" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="U35" s="196" t="str">
+      <c r="T35" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列05</v>
       </c>
-      <c r="V35" s="196" t="str">
+      <c r="U35" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W35" s="196" t="str">
+      <c r="V35" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X35" s="108"/>
-      <c r="Y35" s="196"/>
+      <c r="W35" s="108"/>
+      <c r="X35" s="196"/>
+      <c r="Y35" s="110"/>
       <c r="Z35" s="110"/>
       <c r="AA35" s="110"/>
       <c r="AB35" s="110"/>
@@ -32382,14 +32341,13 @@
       <c r="IL35" s="110"/>
       <c r="IM35" s="110"/>
       <c r="IN35" s="110"/>
-      <c r="IO35" s="110"/>
-    </row>
-    <row r="36" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="36" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A36" s="98">
         <v>35</v>
       </c>
       <c r="B36" s="99" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C36" s="99" t="s">
         <v>476</v>
@@ -32427,26 +32385,26 @@
       <c r="O36" s="98"/>
       <c r="P36" s="98"/>
       <c r="Q36" s="98"/>
-      <c r="R36" s="109"/>
-      <c r="S36" s="108"/>
-      <c r="T36" s="196" t="str">
+      <c r="R36" s="108"/>
+      <c r="S36" s="196" t="str">
         <f t="shared" si="0"/>
         <v>06</v>
       </c>
-      <c r="U36" s="196" t="str">
+      <c r="T36" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列06</v>
       </c>
-      <c r="V36" s="196" t="str">
+      <c r="U36" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W36" s="196" t="str">
+      <c r="V36" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X36" s="108"/>
-      <c r="Y36" s="196"/>
+      <c r="W36" s="108"/>
+      <c r="X36" s="196"/>
+      <c r="Y36" s="110"/>
       <c r="Z36" s="110"/>
       <c r="AA36" s="110"/>
       <c r="AB36" s="110"/>
@@ -32670,14 +32628,13 @@
       <c r="IL36" s="110"/>
       <c r="IM36" s="110"/>
       <c r="IN36" s="110"/>
-      <c r="IO36" s="110"/>
-    </row>
-    <row r="37" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="37" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A37" s="98">
         <v>36</v>
       </c>
       <c r="B37" s="99" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C37" s="99" t="s">
         <v>479</v>
@@ -32715,26 +32672,26 @@
       <c r="O37" s="98"/>
       <c r="P37" s="98"/>
       <c r="Q37" s="98"/>
-      <c r="R37" s="109"/>
-      <c r="S37" s="108"/>
-      <c r="T37" s="196" t="str">
+      <c r="R37" s="108"/>
+      <c r="S37" s="196" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="U37" s="196" t="str">
+      <c r="T37" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列06</v>
       </c>
-      <c r="V37" s="196" t="str">
+      <c r="U37" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W37" s="196" t="str">
+      <c r="V37" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X37" s="108"/>
-      <c r="Y37" s="196"/>
+      <c r="W37" s="108"/>
+      <c r="X37" s="196"/>
+      <c r="Y37" s="110"/>
       <c r="Z37" s="110"/>
       <c r="AA37" s="110"/>
       <c r="AB37" s="110"/>
@@ -32958,14 +32915,13 @@
       <c r="IL37" s="110"/>
       <c r="IM37" s="110"/>
       <c r="IN37" s="110"/>
-      <c r="IO37" s="110"/>
-    </row>
-    <row r="38" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="38" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A38" s="98">
         <v>37</v>
       </c>
       <c r="B38" s="99" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C38" s="99" t="s">
         <v>482</v>
@@ -33003,26 +32959,26 @@
       <c r="O38" s="98"/>
       <c r="P38" s="98"/>
       <c r="Q38" s="98"/>
-      <c r="R38" s="109"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="196" t="str">
+      <c r="R38" s="108"/>
+      <c r="S38" s="196" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="U38" s="196" t="str">
+      <c r="T38" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列06</v>
       </c>
-      <c r="V38" s="196" t="str">
+      <c r="U38" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W38" s="196" t="str">
+      <c r="V38" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X38" s="108"/>
-      <c r="Y38" s="196"/>
+      <c r="W38" s="108"/>
+      <c r="X38" s="196"/>
+      <c r="Y38" s="110"/>
       <c r="Z38" s="110"/>
       <c r="AA38" s="110"/>
       <c r="AB38" s="110"/>
@@ -33246,9 +33202,8 @@
       <c r="IL38" s="110"/>
       <c r="IM38" s="110"/>
       <c r="IN38" s="110"/>
-      <c r="IO38" s="110"/>
-    </row>
-    <row r="39" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="39" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A39" s="98">
         <v>38</v>
       </c>
@@ -33291,26 +33246,26 @@
       <c r="O39" s="98"/>
       <c r="P39" s="98"/>
       <c r="Q39" s="98"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="108"/>
-      <c r="T39" s="196" t="str">
+      <c r="R39" s="108"/>
+      <c r="S39" s="196" t="str">
         <f t="shared" si="0"/>
         <v>06</v>
       </c>
-      <c r="U39" s="196" t="str">
+      <c r="T39" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列07</v>
       </c>
-      <c r="V39" s="196" t="str">
+      <c r="U39" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W39" s="196" t="str">
+      <c r="V39" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X39" s="108"/>
-      <c r="Y39" s="196"/>
+      <c r="W39" s="108"/>
+      <c r="X39" s="196"/>
+      <c r="Y39" s="110"/>
       <c r="Z39" s="110"/>
       <c r="AA39" s="110"/>
       <c r="AB39" s="110"/>
@@ -33534,9 +33489,8 @@
       <c r="IL39" s="110"/>
       <c r="IM39" s="110"/>
       <c r="IN39" s="110"/>
-      <c r="IO39" s="110"/>
-    </row>
-    <row r="40" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="40" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A40" s="98">
         <v>39</v>
       </c>
@@ -33579,26 +33533,26 @@
       <c r="O40" s="98"/>
       <c r="P40" s="98"/>
       <c r="Q40" s="98"/>
-      <c r="R40" s="109"/>
-      <c r="S40" s="108"/>
-      <c r="T40" s="196" t="str">
+      <c r="R40" s="108"/>
+      <c r="S40" s="196" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="U40" s="196" t="str">
+      <c r="T40" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列07</v>
       </c>
-      <c r="V40" s="196" t="str">
+      <c r="U40" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W40" s="196" t="str">
+      <c r="V40" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X40" s="108"/>
-      <c r="Y40" s="196"/>
+      <c r="W40" s="108"/>
+      <c r="X40" s="196"/>
+      <c r="Y40" s="110"/>
       <c r="Z40" s="110"/>
       <c r="AA40" s="110"/>
       <c r="AB40" s="110"/>
@@ -33822,9 +33776,8 @@
       <c r="IL40" s="110"/>
       <c r="IM40" s="110"/>
       <c r="IN40" s="110"/>
-      <c r="IO40" s="110"/>
-    </row>
-    <row r="41" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="41" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A41" s="98">
         <v>40</v>
       </c>
@@ -33867,26 +33820,26 @@
       <c r="O41" s="98"/>
       <c r="P41" s="98"/>
       <c r="Q41" s="98"/>
-      <c r="R41" s="109"/>
-      <c r="S41" s="108"/>
-      <c r="T41" s="196" t="str">
+      <c r="R41" s="108"/>
+      <c r="S41" s="196" t="str">
         <f t="shared" si="0"/>
         <v>06</v>
       </c>
-      <c r="U41" s="196" t="str">
+      <c r="T41" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列08</v>
       </c>
-      <c r="V41" s="196" t="str">
+      <c r="U41" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W41" s="196" t="str">
+      <c r="V41" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X41" s="108"/>
-      <c r="Y41" s="196"/>
+      <c r="W41" s="108"/>
+      <c r="X41" s="196"/>
+      <c r="Y41" s="110"/>
       <c r="Z41" s="110"/>
       <c r="AA41" s="110"/>
       <c r="AB41" s="110"/>
@@ -34110,9 +34063,8 @@
       <c r="IL41" s="110"/>
       <c r="IM41" s="110"/>
       <c r="IN41" s="110"/>
-      <c r="IO41" s="110"/>
-    </row>
-    <row r="42" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="42" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A42" s="98">
         <v>41</v>
       </c>
@@ -34155,26 +34107,26 @@
       <c r="O42" s="98"/>
       <c r="P42" s="98"/>
       <c r="Q42" s="98"/>
-      <c r="R42" s="109"/>
-      <c r="S42" s="108"/>
-      <c r="T42" s="196" t="str">
+      <c r="R42" s="108"/>
+      <c r="S42" s="196" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="U42" s="196" t="str">
+      <c r="T42" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列08</v>
       </c>
-      <c r="V42" s="196" t="str">
+      <c r="U42" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W42" s="196" t="str">
+      <c r="V42" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X42" s="108"/>
-      <c r="Y42" s="196"/>
+      <c r="W42" s="108"/>
+      <c r="X42" s="196"/>
+      <c r="Y42" s="110"/>
       <c r="Z42" s="110"/>
       <c r="AA42" s="110"/>
       <c r="AB42" s="110"/>
@@ -34398,9 +34350,8 @@
       <c r="IL42" s="110"/>
       <c r="IM42" s="110"/>
       <c r="IN42" s="110"/>
-      <c r="IO42" s="110"/>
-    </row>
-    <row r="43" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="43" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A43" s="98">
         <v>42</v>
       </c>
@@ -34443,26 +34394,26 @@
       <c r="O43" s="98"/>
       <c r="P43" s="98"/>
       <c r="Q43" s="98"/>
-      <c r="R43" s="109"/>
-      <c r="S43" s="108"/>
-      <c r="T43" s="196" t="str">
+      <c r="R43" s="108"/>
+      <c r="S43" s="196" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="U43" s="196" t="str">
+      <c r="T43" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列07</v>
       </c>
-      <c r="V43" s="196" t="str">
+      <c r="U43" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W43" s="196" t="str">
+      <c r="V43" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X43" s="108"/>
-      <c r="Y43" s="196"/>
+      <c r="W43" s="108"/>
+      <c r="X43" s="196"/>
+      <c r="Y43" s="110"/>
       <c r="Z43" s="110"/>
       <c r="AA43" s="110"/>
       <c r="AB43" s="110"/>
@@ -34686,9 +34637,8 @@
       <c r="IL43" s="110"/>
       <c r="IM43" s="110"/>
       <c r="IN43" s="110"/>
-      <c r="IO43" s="110"/>
-    </row>
-    <row r="44" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="44" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A44" s="98">
         <v>43</v>
       </c>
@@ -34731,26 +34681,26 @@
       <c r="O44" s="98"/>
       <c r="P44" s="98"/>
       <c r="Q44" s="98"/>
-      <c r="R44" s="109"/>
-      <c r="S44" s="108"/>
-      <c r="T44" s="196" t="str">
+      <c r="R44" s="108"/>
+      <c r="S44" s="196" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="U44" s="196" t="str">
+      <c r="T44" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列07</v>
       </c>
-      <c r="V44" s="196" t="str">
+      <c r="U44" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W44" s="196" t="str">
+      <c r="V44" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X44" s="108"/>
-      <c r="Y44" s="196"/>
+      <c r="W44" s="108"/>
+      <c r="X44" s="196"/>
+      <c r="Y44" s="110"/>
       <c r="Z44" s="110"/>
       <c r="AA44" s="110"/>
       <c r="AB44" s="110"/>
@@ -34974,9 +34924,8 @@
       <c r="IL44" s="110"/>
       <c r="IM44" s="110"/>
       <c r="IN44" s="110"/>
-      <c r="IO44" s="110"/>
-    </row>
-    <row r="45" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="45" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A45" s="98">
         <v>44</v>
       </c>
@@ -35019,26 +34968,26 @@
       <c r="O45" s="98"/>
       <c r="P45" s="98"/>
       <c r="Q45" s="98"/>
-      <c r="R45" s="109"/>
-      <c r="S45" s="108"/>
-      <c r="T45" s="196" t="str">
+      <c r="R45" s="108"/>
+      <c r="S45" s="196" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="U45" s="196" t="str">
+      <c r="T45" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列08</v>
       </c>
-      <c r="V45" s="196" t="str">
+      <c r="U45" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W45" s="196" t="str">
+      <c r="V45" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X45" s="108"/>
-      <c r="Y45" s="196"/>
+      <c r="W45" s="108"/>
+      <c r="X45" s="196"/>
+      <c r="Y45" s="110"/>
       <c r="Z45" s="110"/>
       <c r="AA45" s="110"/>
       <c r="AB45" s="110"/>
@@ -35262,9 +35211,8 @@
       <c r="IL45" s="110"/>
       <c r="IM45" s="110"/>
       <c r="IN45" s="110"/>
-      <c r="IO45" s="110"/>
-    </row>
-    <row r="46" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="46" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A46" s="98">
         <v>45</v>
       </c>
@@ -35307,26 +35255,26 @@
       <c r="O46" s="98"/>
       <c r="P46" s="98"/>
       <c r="Q46" s="98"/>
-      <c r="R46" s="109"/>
-      <c r="S46" s="108"/>
-      <c r="T46" s="196" t="str">
+      <c r="R46" s="108"/>
+      <c r="S46" s="196" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="U46" s="196" t="str">
+      <c r="T46" s="196" t="str">
         <f t="shared" si="3"/>
         <v>03列08</v>
       </c>
-      <c r="V46" s="196" t="str">
+      <c r="U46" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W46" s="196" t="str">
+      <c r="V46" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X46" s="108"/>
-      <c r="Y46" s="196"/>
+      <c r="W46" s="108"/>
+      <c r="X46" s="196"/>
+      <c r="Y46" s="110"/>
       <c r="Z46" s="110"/>
       <c r="AA46" s="110"/>
       <c r="AB46" s="110"/>
@@ -35550,9 +35498,8 @@
       <c r="IL46" s="110"/>
       <c r="IM46" s="110"/>
       <c r="IN46" s="110"/>
-      <c r="IO46" s="110"/>
-    </row>
-    <row r="47" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="47" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A47" s="98">
         <v>46</v>
       </c>
@@ -35574,7 +35521,7 @@
         <v>150</v>
       </c>
       <c r="H47" s="181" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I47" s="103"/>
       <c r="J47" s="181" t="s">
@@ -35595,26 +35542,26 @@
       <c r="O47" s="98"/>
       <c r="P47" s="98"/>
       <c r="Q47" s="98"/>
-      <c r="R47" s="109"/>
-      <c r="S47" s="108"/>
-      <c r="T47" s="196" t="str">
+      <c r="R47" s="108"/>
+      <c r="S47" s="196" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="U47" s="196" t="str">
+      <c r="T47" s="196" t="str">
         <f t="shared" si="3"/>
         <v>04列08</v>
       </c>
-      <c r="V47" s="196" t="str">
+      <c r="U47" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W47" s="196" t="str">
+      <c r="V47" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X47" s="108"/>
-      <c r="Y47" s="196"/>
+      <c r="W47" s="108"/>
+      <c r="X47" s="196"/>
+      <c r="Y47" s="110"/>
       <c r="Z47" s="110"/>
       <c r="AA47" s="110"/>
       <c r="AB47" s="110"/>
@@ -35838,9 +35785,8 @@
       <c r="IL47" s="110"/>
       <c r="IM47" s="110"/>
       <c r="IN47" s="110"/>
-      <c r="IO47" s="110"/>
-    </row>
-    <row r="48" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="48" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A48" s="98">
         <v>47</v>
       </c>
@@ -35862,7 +35808,7 @@
         <v>150</v>
       </c>
       <c r="H48" s="181" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I48" s="103"/>
       <c r="J48" s="181" t="s">
@@ -35883,26 +35829,26 @@
       <c r="O48" s="98"/>
       <c r="P48" s="98"/>
       <c r="Q48" s="98"/>
-      <c r="R48" s="109"/>
-      <c r="S48" s="108"/>
-      <c r="T48" s="196" t="str">
+      <c r="R48" s="108"/>
+      <c r="S48" s="196" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="U48" s="196" t="str">
+      <c r="T48" s="196" t="str">
         <f t="shared" si="3"/>
         <v>04列09</v>
       </c>
-      <c r="V48" s="196" t="str">
+      <c r="U48" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W48" s="196" t="str">
+      <c r="V48" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X48" s="108"/>
-      <c r="Y48" s="196"/>
+      <c r="W48" s="108"/>
+      <c r="X48" s="196"/>
+      <c r="Y48" s="110"/>
       <c r="Z48" s="110"/>
       <c r="AA48" s="110"/>
       <c r="AB48" s="110"/>
@@ -36126,9 +36072,8 @@
       <c r="IL48" s="110"/>
       <c r="IM48" s="110"/>
       <c r="IN48" s="110"/>
-      <c r="IO48" s="110"/>
-    </row>
-    <row r="49" spans="1:249" s="43" customFormat="1" ht="11.4">
+    </row>
+    <row r="49" spans="1:248" s="43" customFormat="1" ht="11.4">
       <c r="A49" s="98">
         <v>48</v>
       </c>
@@ -36150,7 +36095,7 @@
         <v>150</v>
       </c>
       <c r="H49" s="181" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I49" s="103"/>
       <c r="J49" s="181" t="s">
@@ -36171,26 +36116,26 @@
       <c r="O49" s="98"/>
       <c r="P49" s="98"/>
       <c r="Q49" s="98"/>
-      <c r="R49" s="109"/>
-      <c r="S49" s="108"/>
-      <c r="T49" s="196" t="str">
+      <c r="R49" s="108"/>
+      <c r="S49" s="196" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="U49" s="196" t="str">
+      <c r="T49" s="196" t="str">
         <f t="shared" si="3"/>
         <v>04列10</v>
       </c>
-      <c r="V49" s="196" t="str">
+      <c r="U49" s="196" t="str">
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-      <c r="W49" s="196" t="str">
+      <c r="V49" s="196" t="str">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="X49" s="108"/>
-      <c r="Y49" s="196"/>
+      <c r="W49" s="108"/>
+      <c r="X49" s="196"/>
+      <c r="Y49" s="110"/>
       <c r="Z49" s="110"/>
       <c r="AA49" s="110"/>
       <c r="AB49" s="110"/>
@@ -36414,7 +36359,6 @@
       <c r="IL49" s="110"/>
       <c r="IM49" s="110"/>
       <c r="IN49" s="110"/>
-      <c r="IO49" s="110"/>
     </row>
   </sheetData>
   <phoneticPr fontId="50" type="noConversion"/>
@@ -39784,17 +39728,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9fce7f6-b2fa-4abf-bccc-9105804b1a8f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a6598b5a-f053-4765-b33b-4570b164eeea" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -39803,7 +39736,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CC23BF0921C4140B0A8505E505B68E1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9ccca0a7557b05bf66492ea844417434">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9fce7f6-b2fa-4abf-bccc-9105804b1a8f" xmlns:ns3="a6598b5a-f053-4765-b33b-4570b164eeea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a266b6b1127ff1e107b26d087a897361" ns2:_="" ns3:_="">
     <xsd:import namespace="a9fce7f6-b2fa-4abf-bccc-9105804b1a8f"/>
@@ -40020,18 +39953,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2889F554-92C1-435B-A7B4-9C5E151F206B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a9fce7f6-b2fa-4abf-bccc-9105804b1a8f"/>
-    <ds:schemaRef ds:uri="a6598b5a-f053-4765-b33b-4570b164eeea"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9fce7f6-b2fa-4abf-bccc-9105804b1a8f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a6598b5a-f053-4765-b33b-4570b164eeea" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D85166B-068B-4EF9-ACE2-1BB8C6FE521A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -40039,7 +39972,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50DDA352-A54C-463E-8D26-EE95918DB1C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40056,4 +39989,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2889F554-92C1-435B-A7B4-9C5E151F206B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a9fce7f6-b2fa-4abf-bccc-9105804b1a8f"/>
+    <ds:schemaRef ds:uri="a6598b5a-f053-4765-b33b-4570b164eeea"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/upload/00-天翼云集成实施基本信息表模板(网络和服务器设备表含公式)20230101(1).xlsx
+++ b/upload/00-天翼云集成实施基本信息表模板(网络和服务器设备表含公式)20230101(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingz\Documents\GitHub\jw3\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58485989-5B52-4CAC-93BC-AD770A2263DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7CADD1-69FF-4763-8530-FE97D23E3A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="693" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4812" yWindow="1092" windowWidth="22524" windowHeight="13848" tabRatio="693" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明（请勿修改此页内容）" sheetId="21" r:id="rId1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="976">
   <si>
     <t>模板名称</t>
   </si>
@@ -237,7 +237,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>一、红色【Sheet】为信息补充修改项，灰色【Sheet】为字典类型表，不需要修改，可以查看。
 二、</t>
@@ -257,7 +256,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>。
 三、红色sheet内容，请按此模板为准，如需修改，请修改后添加到修改内容记录里。</t>
@@ -267,7 +265,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 四、设备清单的【设备名称】列请和网络设备、服务器设备的【系统名称】保持一致，排除后缀。注：当有括号时请注意两个</t>
@@ -277,7 +274,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet名称统一。
 </t>
@@ -330,7 +326,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>1、为了让网络设备、服务器设备等表的型号、品牌更准确，现确定取值方式：通过0号表的网络设备、服务器设备表的型号值到【品牌字典表】里匹配型号和品牌。</t>
     </r>
@@ -351,7 +346,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>1、01号表设备序列号取值报错-已修改
 2、02、99号表增加了列名：</t>
@@ -371,7 +365,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>、</t>
     </r>
@@ -390,7 +383,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>。修改了</t>
     </r>
@@ -409,7 +401,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>的取值待确认
 3、25号转固表表</t>
@@ -429,7 +420,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>的取值改为：</t>
     </r>
@@ -448,7 +438,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 4、27号普罗米修斯表，</t>
@@ -468,7 +457,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>取值改为直接copy0号表网络设备</t>
     </r>
@@ -3980,6 +3968,18 @@
   </si>
   <si>
     <t>操作系统和设备版本号</t>
+    <phoneticPr fontId="50" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源编号</t>
+    <phoneticPr fontId="50" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="50" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源编码,服务器4A纳管表要求固定4位,不足4未补0、向研发申请</t>
     <phoneticPr fontId="50" type="noConversion"/>
   </si>
 </sst>
@@ -4063,7 +4063,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4092,7 +4091,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4115,7 +4113,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4155,7 +4152,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4191,14 +4187,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4237,14 +4231,12 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4265,14 +4257,12 @@
       <b/>
       <sz val="11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4283,7 +4273,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4298,7 +4287,6 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4310,14 +4298,12 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5726,7 +5712,7 @@
     <xf numFmtId="176" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="221">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6312,12 +6298,12 @@
     <xf numFmtId="49" fontId="29" fillId="0" borderId="5" xfId="200" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6341,6 +6327,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="285"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="285" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -17546,10 +17535,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -17716,13 +17705,13 @@
         <v>29</v>
       </c>
       <c r="B12" s="147" t="s">
-        <v>922</v>
-      </c>
-      <c r="C12" s="148" t="s">
-        <v>61</v>
+        <v>973</v>
+      </c>
+      <c r="C12" s="220" t="s">
+        <v>974</v>
       </c>
       <c r="D12" s="148" t="s">
-        <v>62</v>
+        <v>975</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="145" customFormat="1" ht="12">
@@ -17730,41 +17719,41 @@
         <v>29</v>
       </c>
       <c r="B13" s="147" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C13" s="148" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" s="148" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="145" customFormat="1" ht="12">
       <c r="A14" s="144" t="s">
-        <v>863</v>
+        <v>29</v>
       </c>
       <c r="B14" s="147" t="s">
-        <v>869</v>
+        <v>921</v>
       </c>
       <c r="C14" s="148" t="s">
-        <v>870</v>
+        <v>64</v>
       </c>
       <c r="D14" s="148" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="145" customFormat="1" ht="12">
       <c r="A15" s="144" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B15" s="147" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="152">
-        <v>48</v>
+        <v>869</v>
+      </c>
+      <c r="C15" s="148" t="s">
+        <v>870</v>
       </c>
       <c r="D15" s="148" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="145" customFormat="1" ht="12">
@@ -17772,13 +17761,13 @@
         <v>864</v>
       </c>
       <c r="B16" s="147" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="152" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="152" t="s">
-        <v>861</v>
+        <v>49</v>
+      </c>
+      <c r="C16" s="152">
+        <v>48</v>
+      </c>
+      <c r="D16" s="148" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="145" customFormat="1" ht="12">
@@ -17786,13 +17775,13 @@
         <v>864</v>
       </c>
       <c r="B17" s="147" t="s">
-        <v>920</v>
-      </c>
-      <c r="C17" s="152">
-        <v>20</v>
+        <v>51</v>
+      </c>
+      <c r="C17" s="152" t="s">
+        <v>52</v>
       </c>
       <c r="D17" s="152" t="s">
-        <v>53</v>
+        <v>861</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="145" customFormat="1" ht="12">
@@ -17800,10 +17789,10 @@
         <v>864</v>
       </c>
       <c r="B18" s="147" t="s">
-        <v>54</v>
+        <v>920</v>
       </c>
       <c r="C18" s="152">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D18" s="152" t="s">
         <v>53</v>
@@ -17814,12 +17803,26 @@
         <v>864</v>
       </c>
       <c r="B19" s="147" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="152">
+        <v>32</v>
+      </c>
+      <c r="D19" s="152" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="145" customFormat="1" ht="12">
+      <c r="A20" s="144" t="s">
+        <v>864</v>
+      </c>
+      <c r="B20" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C20" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="152" t="s">
+      <c r="D20" s="152" t="s">
         <v>53</v>
       </c>
     </row>
@@ -19448,11 +19451,11 @@
         <v>60</v>
       </c>
       <c r="B1" s="125" t="str">
-        <f>项目信息!C12</f>
+        <f>项目信息!C13</f>
         <v>10.13.1.136</v>
       </c>
       <c r="C1" s="125" t="str">
-        <f>项目信息!D12</f>
+        <f>项目信息!D13</f>
         <v>云调采集机-1</v>
       </c>
     </row>
@@ -19461,11 +19464,11 @@
         <v>63</v>
       </c>
       <c r="B2" s="125" t="str">
-        <f>项目信息!C13</f>
+        <f>项目信息!C14</f>
         <v>10.13.1.137</v>
       </c>
       <c r="C2" s="125" t="str">
-        <f>项目信息!D13</f>
+        <f>项目信息!D14</f>
         <v>云调采集机-2</v>
       </c>
     </row>
@@ -19475,7 +19478,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A6" s="209" t="s">
+      <c r="A6" s="210" t="s">
         <v>174</v>
       </c>
       <c r="B6" s="126" t="s">
@@ -19505,7 +19508,7 @@
       <c r="O6" s="139"/>
     </row>
     <row r="7" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A7" s="209"/>
+      <c r="A7" s="210"/>
       <c r="B7" s="127">
         <v>2</v>
       </c>
@@ -19533,7 +19536,7 @@
       <c r="O7" s="139"/>
     </row>
     <row r="8" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A8" s="209"/>
+      <c r="A8" s="210"/>
       <c r="B8" s="127">
         <v>3</v>
       </c>
@@ -19561,7 +19564,7 @@
       <c r="O8" s="139"/>
     </row>
     <row r="9" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A9" s="209"/>
+      <c r="A9" s="210"/>
       <c r="B9" s="127">
         <v>3</v>
       </c>
@@ -19592,7 +19595,7 @@
       <c r="O9" s="139"/>
     </row>
     <row r="10" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A10" s="209"/>
+      <c r="A10" s="210"/>
       <c r="B10" s="127">
         <v>4</v>
       </c>
@@ -19623,7 +19626,7 @@
       <c r="O10" s="139"/>
     </row>
     <row r="11" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A11" s="209"/>
+      <c r="A11" s="210"/>
       <c r="B11" s="127">
         <v>4</v>
       </c>
@@ -19651,7 +19654,7 @@
       <c r="O11" s="139"/>
     </row>
     <row r="12" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A12" s="209"/>
+      <c r="A12" s="210"/>
       <c r="B12" s="127">
         <v>4</v>
       </c>
@@ -19682,7 +19685,7 @@
       <c r="O12" s="139"/>
     </row>
     <row r="13" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A13" s="209"/>
+      <c r="A13" s="210"/>
       <c r="B13" s="127">
         <v>4</v>
       </c>
@@ -19713,7 +19716,7 @@
       <c r="O13" s="139"/>
     </row>
     <row r="14" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A14" s="209"/>
+      <c r="A14" s="210"/>
       <c r="B14" s="127">
         <v>5</v>
       </c>
@@ -19741,7 +19744,7 @@
       <c r="O14" s="139"/>
     </row>
     <row r="15" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A15" s="209"/>
+      <c r="A15" s="210"/>
       <c r="B15" s="127">
         <v>6</v>
       </c>
@@ -19769,7 +19772,7 @@
       <c r="O15" s="139"/>
     </row>
     <row r="16" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A16" s="209"/>
+      <c r="A16" s="210"/>
       <c r="B16" s="127">
         <v>7</v>
       </c>
@@ -19797,7 +19800,7 @@
       <c r="O16" s="139"/>
     </row>
     <row r="17" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A17" s="209"/>
+      <c r="A17" s="210"/>
       <c r="B17" s="129">
         <v>8</v>
       </c>
@@ -19924,48 +19927,48 @@
       <c r="A36" s="137" t="s">
         <v>220</v>
       </c>
-      <c r="B36" s="210" t="s">
+      <c r="B36" s="209" t="s">
         <v>221</v>
       </c>
-      <c r="C36" s="210"/>
-      <c r="D36" s="210"/>
-      <c r="E36" s="210" t="s">
+      <c r="C36" s="209"/>
+      <c r="D36" s="209"/>
+      <c r="E36" s="209" t="s">
         <v>222</v>
       </c>
-      <c r="F36" s="210"/>
-      <c r="G36" s="210"/>
+      <c r="F36" s="209"/>
+      <c r="G36" s="209"/>
       <c r="H36" s="138"/>
     </row>
     <row r="37" spans="1:8" ht="211.95" customHeight="1">
       <c r="A37" s="137" t="s">
         <v>223</v>
       </c>
-      <c r="B37" s="210" t="s">
+      <c r="B37" s="209" t="s">
         <v>224</v>
       </c>
-      <c r="C37" s="210"/>
-      <c r="D37" s="210"/>
-      <c r="E37" s="210" t="s">
+      <c r="C37" s="209"/>
+      <c r="D37" s="209"/>
+      <c r="E37" s="209" t="s">
         <v>225</v>
       </c>
-      <c r="F37" s="210"/>
-      <c r="G37" s="210"/>
+      <c r="F37" s="209"/>
+      <c r="G37" s="209"/>
       <c r="H37" s="138"/>
     </row>
     <row r="38" spans="1:8" ht="157.94999999999999" customHeight="1">
       <c r="A38" s="137" t="s">
         <v>226</v>
       </c>
-      <c r="B38" s="210" t="s">
+      <c r="B38" s="209" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="210"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="210" t="s">
+      <c r="C38" s="209"/>
+      <c r="D38" s="209"/>
+      <c r="E38" s="209" t="s">
         <v>228</v>
       </c>
-      <c r="F38" s="210"/>
-      <c r="G38" s="210"/>
+      <c r="F38" s="209"/>
+      <c r="G38" s="209"/>
       <c r="H38" s="138" t="s">
         <v>229</v>
       </c>
@@ -19974,16 +19977,16 @@
       <c r="A39" s="137" t="s">
         <v>226</v>
       </c>
-      <c r="B39" s="210" t="s">
+      <c r="B39" s="209" t="s">
         <v>230</v>
       </c>
-      <c r="C39" s="210"/>
-      <c r="D39" s="210"/>
-      <c r="E39" s="210" t="s">
+      <c r="C39" s="209"/>
+      <c r="D39" s="209"/>
+      <c r="E39" s="209" t="s">
         <v>231</v>
       </c>
-      <c r="F39" s="210"/>
-      <c r="G39" s="210"/>
+      <c r="F39" s="209"/>
+      <c r="G39" s="209"/>
       <c r="H39" s="138" t="s">
         <v>232</v>
       </c>
@@ -19992,77 +19995,69 @@
       <c r="A40" s="137" t="s">
         <v>233</v>
       </c>
-      <c r="B40" s="210" t="s">
+      <c r="B40" s="209" t="s">
         <v>234</v>
       </c>
-      <c r="C40" s="210"/>
-      <c r="D40" s="210"/>
-      <c r="E40" s="210" t="s">
+      <c r="C40" s="209"/>
+      <c r="D40" s="209"/>
+      <c r="E40" s="209" t="s">
         <v>235</v>
       </c>
-      <c r="F40" s="210"/>
-      <c r="G40" s="210"/>
+      <c r="F40" s="209"/>
+      <c r="G40" s="209"/>
       <c r="H40" s="138"/>
     </row>
     <row r="41" spans="1:8" ht="132.6" customHeight="1">
       <c r="A41" s="137" t="s">
         <v>236</v>
       </c>
-      <c r="B41" s="210" t="s">
+      <c r="B41" s="209" t="s">
         <v>237</v>
       </c>
-      <c r="C41" s="210"/>
-      <c r="D41" s="210"/>
-      <c r="E41" s="210" t="s">
+      <c r="C41" s="209"/>
+      <c r="D41" s="209"/>
+      <c r="E41" s="209" t="s">
         <v>238</v>
       </c>
-      <c r="F41" s="210"/>
-      <c r="G41" s="210"/>
+      <c r="F41" s="209"/>
+      <c r="G41" s="209"/>
       <c r="H41" s="138"/>
     </row>
     <row r="42" spans="1:8" ht="168.45" customHeight="1">
       <c r="A42" s="137" t="s">
         <v>239</v>
       </c>
-      <c r="B42" s="210" t="s">
+      <c r="B42" s="209" t="s">
         <v>240</v>
       </c>
-      <c r="C42" s="210"/>
-      <c r="D42" s="210"/>
-      <c r="E42" s="210" t="s">
+      <c r="C42" s="209"/>
+      <c r="D42" s="209"/>
+      <c r="E42" s="209" t="s">
         <v>241</v>
       </c>
-      <c r="F42" s="210"/>
-      <c r="G42" s="210"/>
+      <c r="F42" s="209"/>
+      <c r="G42" s="209"/>
       <c r="H42" s="138"/>
     </row>
     <row r="43" spans="1:8" ht="168.45" customHeight="1">
       <c r="A43" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="210" t="s">
+      <c r="B43" s="209" t="s">
         <v>242</v>
       </c>
-      <c r="C43" s="210"/>
-      <c r="D43" s="210"/>
-      <c r="E43" s="210" t="s">
+      <c r="C43" s="209"/>
+      <c r="D43" s="209"/>
+      <c r="E43" s="209" t="s">
         <v>243</v>
       </c>
-      <c r="F43" s="210"/>
-      <c r="G43" s="210"/>
+      <c r="F43" s="209"/>
+      <c r="G43" s="209"/>
       <c r="H43" s="138"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:G17" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="19">
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
     <mergeCell ref="A6:A17"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="E41:G41"/>
@@ -20074,6 +20069,14 @@
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
   </mergeCells>
   <phoneticPr fontId="50" type="noConversion"/>
   <hyperlinks>
@@ -22252,7 +22255,7 @@
   </sheetPr>
   <dimension ref="A1:IN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -36524,7 +36527,7 @@
         <v>郑州</v>
       </c>
       <c r="D3" s="70" t="str">
-        <f>项目信息!C14</f>
+        <f>项目信息!C15</f>
         <v>郑州市高新区枢纽楼数据中心{site_name}机房</v>
       </c>
       <c r="E3" s="70" t="s">
@@ -36606,7 +36609,7 @@
         <v>郑州</v>
       </c>
       <c r="D4" s="70" t="str">
-        <f>项目信息!C14</f>
+        <f>项目信息!C15</f>
         <v>郑州市高新区枢纽楼数据中心{site_name}机房</v>
       </c>
       <c r="E4" s="70" t="s">
@@ -36688,7 +36691,7 @@
         <v>郑州</v>
       </c>
       <c r="D5" s="70" t="str">
-        <f>项目信息!C14</f>
+        <f>项目信息!C15</f>
         <v>郑州市高新区枢纽楼数据中心{site_name}机房</v>
       </c>
       <c r="E5" s="70" t="s">
@@ -36770,7 +36773,7 @@
         <v>郑州</v>
       </c>
       <c r="D6" s="70" t="str">
-        <f>项目信息!C14</f>
+        <f>项目信息!C15</f>
         <v>郑州市高新区枢纽楼数据中心{site_name}机房</v>
       </c>
       <c r="E6" s="70" t="s">
@@ -39728,12 +39731,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9fce7f6-b2fa-4abf-bccc-9105804b1a8f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a6598b5a-f053-4765-b33b-4570b164eeea" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39954,20 +39959,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9fce7f6-b2fa-4abf-bccc-9105804b1a8f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a6598b5a-f053-4765-b33b-4570b164eeea" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D85166B-068B-4EF9-ACE2-1BB8C6FE521A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2889F554-92C1-435B-A7B4-9C5E151F206B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a9fce7f6-b2fa-4abf-bccc-9105804b1a8f"/>
+    <ds:schemaRef ds:uri="a6598b5a-f053-4765-b33b-4570b164eeea"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -39992,12 +39998,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2889F554-92C1-435B-A7B4-9C5E151F206B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D85166B-068B-4EF9-ACE2-1BB8C6FE521A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a9fce7f6-b2fa-4abf-bccc-9105804b1a8f"/>
-    <ds:schemaRef ds:uri="a6598b5a-f053-4765-b33b-4570b164eeea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/upload/00-天翼云集成实施基本信息表模板(网络和服务器设备表含公式)20230101(1).xlsx
+++ b/upload/00-天翼云集成实施基本信息表模板(网络和服务器设备表含公式)20230101(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingz\Documents\GitHub\jw3\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7CADD1-69FF-4763-8530-FE97D23E3A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B234A853-C663-4271-B0B3-BE731E402788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4812" yWindow="1092" windowWidth="22524" windowHeight="13848" tabRatio="693" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="693" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明（请勿修改此页内容）" sheetId="21" r:id="rId1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="979">
   <si>
     <t>模板名称</t>
   </si>
@@ -3981,6 +3981,17 @@
   <si>
     <t>资源编码,服务器4A纳管表要求固定4位,不足4未补0、向研发申请</t>
     <phoneticPr fontId="50" type="noConversion"/>
+  </si>
+  <si>
+    <t>串口交换机</t>
+    <phoneticPr fontId="50" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAZZ-122-3-06-A1P1-SSW-ACS8000-01U37</t>
+    <phoneticPr fontId="50" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.1.36</t>
   </si>
 </sst>
 </file>
@@ -6286,6 +6297,9 @@
     <xf numFmtId="49" fontId="8" fillId="25" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6327,9 +6341,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="285"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="285" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7582,44 +7593,44 @@
       <c r="A1" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="205"/>
+      <c r="C1" s="206"/>
     </row>
     <row r="2" spans="1:3" ht="25.2" customHeight="1">
       <c r="A2" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="205"/>
+      <c r="C2" s="206"/>
     </row>
     <row r="3" spans="1:3" ht="25.2" customHeight="1">
       <c r="A3" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="206" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="205"/>
+      <c r="C3" s="206"/>
     </row>
     <row r="4" spans="1:3" ht="110.1" customHeight="1">
       <c r="A4" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="205"/>
+      <c r="C4" s="206"/>
     </row>
     <row r="5" spans="1:3" ht="52.2" customHeight="1">
-      <c r="A5" s="207" t="s">
+      <c r="A5" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="207"/>
-      <c r="C5" s="207"/>
+      <c r="B5" s="208"/>
+      <c r="C5" s="208"/>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="A6" s="153" t="s">
@@ -7968,16 +7979,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="220" t="s">
         <v>713</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
       <c r="K1" s="23"/>
@@ -7985,16 +7996,16 @@
       <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="220" t="s">
         <v>714</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
       <c r="K2" s="23"/>
@@ -8002,16 +8013,16 @@
       <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="220" t="s">
         <v>715</v>
       </c>
-      <c r="B3" s="219"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
       <c r="K3" s="23"/>
@@ -8019,16 +8030,16 @@
       <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="219" t="s">
+      <c r="A4" s="220" t="s">
         <v>716</v>
       </c>
-      <c r="B4" s="219"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
       <c r="K4" s="23"/>
@@ -8114,7 +8125,7 @@
       <c r="I8" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="J8" s="217" t="s">
+      <c r="J8" s="218" t="s">
         <v>729</v>
       </c>
       <c r="K8" s="23"/>
@@ -8147,7 +8158,7 @@
         <v>735</v>
       </c>
       <c r="I9" s="27"/>
-      <c r="J9" s="218"/>
+      <c r="J9" s="219"/>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23"/>
@@ -8178,7 +8189,7 @@
         <v>742</v>
       </c>
       <c r="I10" s="27"/>
-      <c r="J10" s="218"/>
+      <c r="J10" s="219"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
@@ -8209,7 +8220,7 @@
         <v>746</v>
       </c>
       <c r="I11" s="27"/>
-      <c r="J11" s="218"/>
+      <c r="J11" s="219"/>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
       <c r="M11" s="23"/>
@@ -8228,7 +8239,7 @@
       <c r="I12" s="33" t="s">
         <v>748</v>
       </c>
-      <c r="J12" s="218"/>
+      <c r="J12" s="219"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
@@ -8259,7 +8270,7 @@
         <v>735</v>
       </c>
       <c r="I13" s="27"/>
-      <c r="J13" s="218"/>
+      <c r="J13" s="219"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
       <c r="M13" s="23"/>
@@ -8290,7 +8301,7 @@
         <v>742</v>
       </c>
       <c r="I14" s="27"/>
-      <c r="J14" s="218"/>
+      <c r="J14" s="219"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
@@ -8321,7 +8332,7 @@
         <v>746</v>
       </c>
       <c r="I15" s="27"/>
-      <c r="J15" s="218"/>
+      <c r="J15" s="219"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
@@ -8340,7 +8351,7 @@
       <c r="I16" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="J16" s="218"/>
+      <c r="J16" s="219"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
@@ -8371,7 +8382,7 @@
         <v>735</v>
       </c>
       <c r="I17" s="27"/>
-      <c r="J17" s="218"/>
+      <c r="J17" s="219"/>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
@@ -8402,7 +8413,7 @@
         <v>754</v>
       </c>
       <c r="I18" s="27"/>
-      <c r="J18" s="218"/>
+      <c r="J18" s="219"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
@@ -8433,7 +8444,7 @@
         <v>755</v>
       </c>
       <c r="I19" s="27"/>
-      <c r="J19" s="218"/>
+      <c r="J19" s="219"/>
       <c r="K19" s="23"/>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
@@ -8452,7 +8463,7 @@
       <c r="I20" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="J20" s="218"/>
+      <c r="J20" s="219"/>
       <c r="K20" s="23"/>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
@@ -8483,7 +8494,7 @@
         <v>735</v>
       </c>
       <c r="I21" s="27"/>
-      <c r="J21" s="218"/>
+      <c r="J21" s="219"/>
       <c r="K21" s="23"/>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
@@ -8514,7 +8525,7 @@
         <v>735</v>
       </c>
       <c r="I22" s="27"/>
-      <c r="J22" s="218"/>
+      <c r="J22" s="219"/>
       <c r="K22" s="23"/>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
@@ -8545,7 +8556,7 @@
         <v>742</v>
       </c>
       <c r="I23" s="27"/>
-      <c r="J23" s="218"/>
+      <c r="J23" s="219"/>
       <c r="K23" s="23"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
@@ -8576,7 +8587,7 @@
         <v>746</v>
       </c>
       <c r="I24" s="27"/>
-      <c r="J24" s="218"/>
+      <c r="J24" s="219"/>
       <c r="K24" s="34"/>
       <c r="L24" s="23"/>
       <c r="M24" s="23"/>
@@ -8595,7 +8606,7 @@
       <c r="I25" s="33" t="s">
         <v>760</v>
       </c>
-      <c r="J25" s="218"/>
+      <c r="J25" s="219"/>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
       <c r="M25" s="23"/>
@@ -8626,7 +8637,7 @@
         <v>735</v>
       </c>
       <c r="I26" s="27"/>
-      <c r="J26" s="218"/>
+      <c r="J26" s="219"/>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
       <c r="M26" s="23"/>
@@ -8657,7 +8668,7 @@
         <v>763</v>
       </c>
       <c r="I27" s="27"/>
-      <c r="J27" s="218"/>
+      <c r="J27" s="219"/>
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
       <c r="M27" s="23"/>
@@ -8688,7 +8699,7 @@
         <v>739</v>
       </c>
       <c r="I28" s="27"/>
-      <c r="J28" s="218"/>
+      <c r="J28" s="219"/>
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
       <c r="M28" s="23"/>
@@ -8719,7 +8730,7 @@
         <v>739</v>
       </c>
       <c r="I29" s="27"/>
-      <c r="J29" s="218"/>
+      <c r="J29" s="219"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
       <c r="M29" s="23"/>
@@ -8738,7 +8749,7 @@
       <c r="I30" s="33" t="s">
         <v>760</v>
       </c>
-      <c r="J30" s="218"/>
+      <c r="J30" s="219"/>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
       <c r="M30" s="23"/>
@@ -8769,7 +8780,7 @@
         <v>735</v>
       </c>
       <c r="I31" s="27"/>
-      <c r="J31" s="218"/>
+      <c r="J31" s="219"/>
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
       <c r="M31" s="23"/>
@@ -8800,7 +8811,7 @@
         <v>763</v>
       </c>
       <c r="I32" s="27"/>
-      <c r="J32" s="218"/>
+      <c r="J32" s="219"/>
       <c r="K32" s="23"/>
       <c r="L32" s="23"/>
       <c r="M32" s="23"/>
@@ -8831,7 +8842,7 @@
         <v>739</v>
       </c>
       <c r="I33" s="27"/>
-      <c r="J33" s="218"/>
+      <c r="J33" s="219"/>
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
       <c r="M33" s="23"/>
@@ -8862,7 +8873,7 @@
         <v>739</v>
       </c>
       <c r="I34" s="27"/>
-      <c r="J34" s="218"/>
+      <c r="J34" s="219"/>
       <c r="K34" s="23"/>
       <c r="L34" s="23"/>
       <c r="M34" s="23"/>
@@ -8893,7 +8904,7 @@
         <v>739</v>
       </c>
       <c r="I35" s="27"/>
-      <c r="J35" s="218"/>
+      <c r="J35" s="219"/>
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
       <c r="M35" s="23"/>
@@ -8912,7 +8923,7 @@
       <c r="I36" s="33" t="s">
         <v>760</v>
       </c>
-      <c r="J36" s="218"/>
+      <c r="J36" s="219"/>
       <c r="K36" s="23"/>
       <c r="L36" s="23"/>
       <c r="M36" s="23"/>
@@ -8943,7 +8954,7 @@
         <v>735</v>
       </c>
       <c r="I37" s="27"/>
-      <c r="J37" s="218"/>
+      <c r="J37" s="219"/>
       <c r="K37" s="23"/>
       <c r="L37" s="23"/>
       <c r="M37" s="23"/>
@@ -8974,7 +8985,7 @@
         <v>776</v>
       </c>
       <c r="I38" s="27"/>
-      <c r="J38" s="218"/>
+      <c r="J38" s="219"/>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="23"/>
@@ -9005,7 +9016,7 @@
         <v>777</v>
       </c>
       <c r="I39" s="27"/>
-      <c r="J39" s="218"/>
+      <c r="J39" s="219"/>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
       <c r="M39" s="23"/>
@@ -9036,7 +9047,7 @@
         <v>779</v>
       </c>
       <c r="I40" s="27"/>
-      <c r="J40" s="218"/>
+      <c r="J40" s="219"/>
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
       <c r="M40" s="23"/>
@@ -9055,7 +9066,7 @@
       <c r="I41" s="33" t="s">
         <v>760</v>
       </c>
-      <c r="J41" s="218"/>
+      <c r="J41" s="219"/>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
       <c r="M41" s="23"/>
@@ -9086,7 +9097,7 @@
         <v>735</v>
       </c>
       <c r="I42" s="27"/>
-      <c r="J42" s="218"/>
+      <c r="J42" s="219"/>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
       <c r="M42" s="23"/>
@@ -9117,7 +9128,7 @@
         <v>781</v>
       </c>
       <c r="I43" s="27"/>
-      <c r="J43" s="218"/>
+      <c r="J43" s="219"/>
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
@@ -9148,7 +9159,7 @@
         <v>779</v>
       </c>
       <c r="I44" s="27"/>
-      <c r="J44" s="218"/>
+      <c r="J44" s="219"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
@@ -9167,7 +9178,7 @@
       <c r="I45" s="33" t="s">
         <v>783</v>
       </c>
-      <c r="J45" s="217" t="s">
+      <c r="J45" s="218" t="s">
         <v>784</v>
       </c>
       <c r="K45" s="23"/>
@@ -9200,7 +9211,7 @@
         <v>735</v>
       </c>
       <c r="I46" s="27"/>
-      <c r="J46" s="218"/>
+      <c r="J46" s="219"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
       <c r="M46" s="23"/>
@@ -9231,7 +9242,7 @@
         <v>786</v>
       </c>
       <c r="I47" s="27"/>
-      <c r="J47" s="218"/>
+      <c r="J47" s="219"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
       <c r="M47" s="23"/>
@@ -9262,7 +9273,7 @@
         <v>789</v>
       </c>
       <c r="I48" s="27"/>
-      <c r="J48" s="218"/>
+      <c r="J48" s="219"/>
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
       <c r="M48" s="23"/>
@@ -9279,7 +9290,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="218"/>
+      <c r="J49" s="219"/>
       <c r="K49" s="23"/>
       <c r="L49" s="23"/>
       <c r="M49" s="23"/>
@@ -9310,7 +9321,7 @@
         <v>735</v>
       </c>
       <c r="I50" s="27"/>
-      <c r="J50" s="218"/>
+      <c r="J50" s="219"/>
       <c r="K50" s="23"/>
       <c r="L50" s="23"/>
       <c r="M50" s="23"/>
@@ -9341,7 +9352,7 @@
         <v>786</v>
       </c>
       <c r="I51" s="27"/>
-      <c r="J51" s="218"/>
+      <c r="J51" s="219"/>
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
       <c r="M51" s="23"/>
@@ -9372,7 +9383,7 @@
         <v>795</v>
       </c>
       <c r="I52" s="27"/>
-      <c r="J52" s="218"/>
+      <c r="J52" s="219"/>
       <c r="K52" s="23"/>
       <c r="L52" s="23"/>
       <c r="M52" s="23"/>
@@ -9403,7 +9414,7 @@
         <v>796</v>
       </c>
       <c r="I53" s="27"/>
-      <c r="J53" s="218"/>
+      <c r="J53" s="219"/>
       <c r="K53" s="23"/>
       <c r="L53" s="23"/>
       <c r="M53" s="23"/>
@@ -9422,7 +9433,7 @@
       <c r="I54" s="33" t="s">
         <v>798</v>
       </c>
-      <c r="J54" s="218"/>
+      <c r="J54" s="219"/>
       <c r="K54" s="23"/>
       <c r="L54" s="23"/>
       <c r="M54" s="23"/>
@@ -9453,7 +9464,7 @@
         <v>735</v>
       </c>
       <c r="I55" s="27"/>
-      <c r="J55" s="218"/>
+      <c r="J55" s="219"/>
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
       <c r="M55" s="23"/>
@@ -9484,7 +9495,7 @@
         <v>754</v>
       </c>
       <c r="I56" s="27"/>
-      <c r="J56" s="218"/>
+      <c r="J56" s="219"/>
       <c r="K56" s="23"/>
       <c r="L56" s="23"/>
       <c r="M56" s="23"/>
@@ -9515,7 +9526,7 @@
         <v>754</v>
       </c>
       <c r="I57" s="27"/>
-      <c r="J57" s="218"/>
+      <c r="J57" s="219"/>
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
       <c r="M57" s="23"/>
@@ -9546,7 +9557,7 @@
         <v>755</v>
       </c>
       <c r="I58" s="27"/>
-      <c r="J58" s="218"/>
+      <c r="J58" s="219"/>
       <c r="K58" s="23"/>
       <c r="L58" s="23"/>
       <c r="M58" s="23"/>
@@ -9565,7 +9576,7 @@
       <c r="I59" s="33" t="s">
         <v>802</v>
       </c>
-      <c r="J59" s="218"/>
+      <c r="J59" s="219"/>
       <c r="K59" s="23"/>
       <c r="L59" s="23"/>
       <c r="M59" s="23"/>
@@ -9596,7 +9607,7 @@
         <v>735</v>
       </c>
       <c r="I60" s="27"/>
-      <c r="J60" s="218"/>
+      <c r="J60" s="219"/>
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="23"/>
@@ -9627,7 +9638,7 @@
         <v>735</v>
       </c>
       <c r="I61" s="27"/>
-      <c r="J61" s="218"/>
+      <c r="J61" s="219"/>
       <c r="K61" s="23"/>
       <c r="L61" s="23"/>
       <c r="M61" s="23"/>
@@ -9658,7 +9669,7 @@
         <v>742</v>
       </c>
       <c r="I62" s="27"/>
-      <c r="J62" s="218"/>
+      <c r="J62" s="219"/>
       <c r="K62" s="23"/>
       <c r="L62" s="23"/>
       <c r="M62" s="23"/>
@@ -9689,7 +9700,7 @@
         <v>742</v>
       </c>
       <c r="I63" s="27"/>
-      <c r="J63" s="218"/>
+      <c r="J63" s="219"/>
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
       <c r="M63" s="23"/>
@@ -9720,7 +9731,7 @@
         <v>742</v>
       </c>
       <c r="I64" s="27"/>
-      <c r="J64" s="218"/>
+      <c r="J64" s="219"/>
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
       <c r="M64" s="23"/>
@@ -9751,7 +9762,7 @@
         <v>746</v>
       </c>
       <c r="I65" s="27"/>
-      <c r="J65" s="218"/>
+      <c r="J65" s="219"/>
       <c r="K65" s="23"/>
       <c r="L65" s="23"/>
       <c r="M65" s="23"/>
@@ -9782,7 +9793,7 @@
         <v>746</v>
       </c>
       <c r="I66" s="27"/>
-      <c r="J66" s="218"/>
+      <c r="J66" s="219"/>
       <c r="K66" s="23"/>
       <c r="L66" s="23"/>
       <c r="M66" s="23"/>
@@ -17537,7 +17548,7 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -17707,7 +17718,7 @@
       <c r="B12" s="147" t="s">
         <v>973</v>
       </c>
-      <c r="C12" s="220" t="s">
+      <c r="C12" s="205" t="s">
         <v>974</v>
       </c>
       <c r="D12" s="148" t="s">
@@ -17930,7 +17941,7 @@
       <c r="U1" s="200"/>
     </row>
     <row r="2" spans="1:21" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="209" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="143">
@@ -17990,7 +18001,7 @@
       <c r="T2" s="163"/>
     </row>
     <row r="3" spans="1:21" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A3" s="208"/>
+      <c r="A3" s="209"/>
       <c r="B3" s="143" t="s">
         <v>90</v>
       </c>
@@ -18048,7 +18059,7 @@
       <c r="T3" s="163"/>
     </row>
     <row r="4" spans="1:21" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A4" s="208"/>
+      <c r="A4" s="209"/>
       <c r="B4" s="143" t="s">
         <v>97</v>
       </c>
@@ -18106,7 +18117,7 @@
       <c r="T4" s="163"/>
     </row>
     <row r="5" spans="1:21" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A5" s="208"/>
+      <c r="A5" s="209"/>
       <c r="B5" s="143" t="s">
         <v>100</v>
       </c>
@@ -18164,7 +18175,7 @@
       <c r="T5" s="163"/>
     </row>
     <row r="6" spans="1:21" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A6" s="208"/>
+      <c r="A6" s="209"/>
       <c r="B6" s="143" t="s">
         <v>103</v>
       </c>
@@ -18222,7 +18233,7 @@
       <c r="T6" s="163"/>
     </row>
     <row r="7" spans="1:21" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A7" s="208"/>
+      <c r="A7" s="209"/>
       <c r="B7" s="143" t="s">
         <v>109</v>
       </c>
@@ -18281,7 +18292,7 @@
       <c r="T7" s="163"/>
     </row>
     <row r="8" spans="1:21" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A8" s="208"/>
+      <c r="A8" s="209"/>
       <c r="B8" s="143">
         <v>7</v>
       </c>
@@ -18339,7 +18350,7 @@
       <c r="T8" s="163"/>
     </row>
     <row r="9" spans="1:21" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A9" s="208"/>
+      <c r="A9" s="209"/>
       <c r="B9" s="143" t="s">
         <v>115</v>
       </c>
@@ -18397,7 +18408,7 @@
       <c r="T9" s="163"/>
     </row>
     <row r="10" spans="1:21" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A10" s="208"/>
+      <c r="A10" s="209"/>
       <c r="B10" s="143" t="s">
         <v>119</v>
       </c>
@@ -18455,7 +18466,7 @@
       <c r="T10" s="163"/>
     </row>
     <row r="11" spans="1:21" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A11" s="208"/>
+      <c r="A11" s="209"/>
       <c r="B11" s="143" t="s">
         <v>122</v>
       </c>
@@ -18513,7 +18524,7 @@
       <c r="T11" s="163"/>
     </row>
     <row r="12" spans="1:21" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A12" s="208"/>
+      <c r="A12" s="209"/>
       <c r="B12" s="143" t="s">
         <v>126</v>
       </c>
@@ -18571,7 +18582,7 @@
       <c r="T12" s="163"/>
     </row>
     <row r="13" spans="1:21" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A13" s="208"/>
+      <c r="A13" s="209"/>
       <c r="B13" s="143" t="s">
         <v>129</v>
       </c>
@@ -18653,7 +18664,7 @@
       <c r="T14" s="184"/>
     </row>
     <row r="15" spans="1:21" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A15" s="208" t="s">
+      <c r="A15" s="209" t="s">
         <v>131</v>
       </c>
       <c r="B15" s="143" t="s">
@@ -18709,7 +18720,7 @@
       <c r="T15" s="163"/>
     </row>
     <row r="16" spans="1:21" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A16" s="208"/>
+      <c r="A16" s="209"/>
       <c r="B16" s="143" t="s">
         <v>90</v>
       </c>
@@ -18763,7 +18774,7 @@
       <c r="T16" s="163"/>
     </row>
     <row r="17" spans="1:20" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A17" s="208"/>
+      <c r="A17" s="209"/>
       <c r="B17" s="143" t="s">
         <v>97</v>
       </c>
@@ -18817,7 +18828,7 @@
       <c r="T17" s="163"/>
     </row>
     <row r="18" spans="1:20" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A18" s="208"/>
+      <c r="A18" s="209"/>
       <c r="B18" s="143" t="s">
         <v>100</v>
       </c>
@@ -18871,7 +18882,7 @@
       <c r="T18" s="163"/>
     </row>
     <row r="19" spans="1:20" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A19" s="208"/>
+      <c r="A19" s="209"/>
       <c r="B19" s="143" t="s">
         <v>103</v>
       </c>
@@ -18925,7 +18936,7 @@
       <c r="T19" s="163"/>
     </row>
     <row r="20" spans="1:20" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A20" s="208"/>
+      <c r="A20" s="209"/>
       <c r="B20" s="143" t="s">
         <v>109</v>
       </c>
@@ -18979,7 +18990,7 @@
       <c r="T20" s="163"/>
     </row>
     <row r="21" spans="1:20" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A21" s="208"/>
+      <c r="A21" s="209"/>
       <c r="B21" s="143" t="s">
         <v>152</v>
       </c>
@@ -19033,7 +19044,7 @@
       <c r="T21" s="163"/>
     </row>
     <row r="22" spans="1:20" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A22" s="208"/>
+      <c r="A22" s="209"/>
       <c r="B22" s="143" t="s">
         <v>115</v>
       </c>
@@ -19087,7 +19098,7 @@
       <c r="T22" s="163"/>
     </row>
     <row r="23" spans="1:20" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A23" s="208"/>
+      <c r="A23" s="209"/>
       <c r="B23" s="143" t="s">
         <v>119</v>
       </c>
@@ -19141,7 +19152,7 @@
       <c r="T23" s="163"/>
     </row>
     <row r="24" spans="1:20" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A24" s="208"/>
+      <c r="A24" s="209"/>
       <c r="B24" s="143" t="s">
         <v>122</v>
       </c>
@@ -19195,7 +19206,7 @@
       <c r="T24" s="163"/>
     </row>
     <row r="25" spans="1:20" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A25" s="208"/>
+      <c r="A25" s="209"/>
       <c r="B25" s="143" t="s">
         <v>126</v>
       </c>
@@ -19249,7 +19260,7 @@
       <c r="T25" s="163"/>
     </row>
     <row r="26" spans="1:20" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A26" s="208"/>
+      <c r="A26" s="209"/>
       <c r="B26" s="143" t="s">
         <v>129</v>
       </c>
@@ -19303,7 +19314,7 @@
       <c r="T26" s="163"/>
     </row>
     <row r="27" spans="1:20" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A27" s="208"/>
+      <c r="A27" s="209"/>
       <c r="B27" s="143" t="s">
         <v>166</v>
       </c>
@@ -19357,7 +19368,7 @@
       <c r="T27" s="163"/>
     </row>
     <row r="28" spans="1:20" s="169" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A28" s="208"/>
+      <c r="A28" s="209"/>
       <c r="B28" s="143" t="s">
         <v>169</v>
       </c>
@@ -19478,7 +19489,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="211" t="s">
         <v>174</v>
       </c>
       <c r="B6" s="126" t="s">
@@ -19508,7 +19519,7 @@
       <c r="O6" s="139"/>
     </row>
     <row r="7" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A7" s="210"/>
+      <c r="A7" s="211"/>
       <c r="B7" s="127">
         <v>2</v>
       </c>
@@ -19536,7 +19547,7 @@
       <c r="O7" s="139"/>
     </row>
     <row r="8" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A8" s="210"/>
+      <c r="A8" s="211"/>
       <c r="B8" s="127">
         <v>3</v>
       </c>
@@ -19564,7 +19575,7 @@
       <c r="O8" s="139"/>
     </row>
     <row r="9" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A9" s="210"/>
+      <c r="A9" s="211"/>
       <c r="B9" s="127">
         <v>3</v>
       </c>
@@ -19595,7 +19606,7 @@
       <c r="O9" s="139"/>
     </row>
     <row r="10" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A10" s="210"/>
+      <c r="A10" s="211"/>
       <c r="B10" s="127">
         <v>4</v>
       </c>
@@ -19626,7 +19637,7 @@
       <c r="O10" s="139"/>
     </row>
     <row r="11" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A11" s="210"/>
+      <c r="A11" s="211"/>
       <c r="B11" s="127">
         <v>4</v>
       </c>
@@ -19654,7 +19665,7 @@
       <c r="O11" s="139"/>
     </row>
     <row r="12" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A12" s="210"/>
+      <c r="A12" s="211"/>
       <c r="B12" s="127">
         <v>4</v>
       </c>
@@ -19685,7 +19696,7 @@
       <c r="O12" s="139"/>
     </row>
     <row r="13" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A13" s="210"/>
+      <c r="A13" s="211"/>
       <c r="B13" s="127">
         <v>4</v>
       </c>
@@ -19716,7 +19727,7 @@
       <c r="O13" s="139"/>
     </row>
     <row r="14" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A14" s="210"/>
+      <c r="A14" s="211"/>
       <c r="B14" s="127">
         <v>5</v>
       </c>
@@ -19744,7 +19755,7 @@
       <c r="O14" s="139"/>
     </row>
     <row r="15" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A15" s="210"/>
+      <c r="A15" s="211"/>
       <c r="B15" s="127">
         <v>6</v>
       </c>
@@ -19772,7 +19783,7 @@
       <c r="O15" s="139"/>
     </row>
     <row r="16" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A16" s="210"/>
+      <c r="A16" s="211"/>
       <c r="B16" s="127">
         <v>7</v>
       </c>
@@ -19800,7 +19811,7 @@
       <c r="O16" s="139"/>
     </row>
     <row r="17" spans="1:15" s="20" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A17" s="210"/>
+      <c r="A17" s="211"/>
       <c r="B17" s="129">
         <v>8</v>
       </c>
@@ -19909,16 +19920,16 @@
       <c r="A35" s="135" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="211" t="s">
+      <c r="B35" s="212" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="211"/>
-      <c r="D35" s="211"/>
-      <c r="E35" s="211" t="s">
+      <c r="C35" s="212"/>
+      <c r="D35" s="212"/>
+      <c r="E35" s="212" t="s">
         <v>219</v>
       </c>
-      <c r="F35" s="211"/>
-      <c r="G35" s="211"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="212"/>
       <c r="H35" s="136" t="s">
         <v>28</v>
       </c>
@@ -19927,48 +19938,48 @@
       <c r="A36" s="137" t="s">
         <v>220</v>
       </c>
-      <c r="B36" s="209" t="s">
+      <c r="B36" s="210" t="s">
         <v>221</v>
       </c>
-      <c r="C36" s="209"/>
-      <c r="D36" s="209"/>
-      <c r="E36" s="209" t="s">
+      <c r="C36" s="210"/>
+      <c r="D36" s="210"/>
+      <c r="E36" s="210" t="s">
         <v>222</v>
       </c>
-      <c r="F36" s="209"/>
-      <c r="G36" s="209"/>
+      <c r="F36" s="210"/>
+      <c r="G36" s="210"/>
       <c r="H36" s="138"/>
     </row>
     <row r="37" spans="1:8" ht="211.95" customHeight="1">
       <c r="A37" s="137" t="s">
         <v>223</v>
       </c>
-      <c r="B37" s="209" t="s">
+      <c r="B37" s="210" t="s">
         <v>224</v>
       </c>
-      <c r="C37" s="209"/>
-      <c r="D37" s="209"/>
-      <c r="E37" s="209" t="s">
+      <c r="C37" s="210"/>
+      <c r="D37" s="210"/>
+      <c r="E37" s="210" t="s">
         <v>225</v>
       </c>
-      <c r="F37" s="209"/>
-      <c r="G37" s="209"/>
+      <c r="F37" s="210"/>
+      <c r="G37" s="210"/>
       <c r="H37" s="138"/>
     </row>
     <row r="38" spans="1:8" ht="157.94999999999999" customHeight="1">
       <c r="A38" s="137" t="s">
         <v>226</v>
       </c>
-      <c r="B38" s="209" t="s">
+      <c r="B38" s="210" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="209"/>
-      <c r="D38" s="209"/>
-      <c r="E38" s="209" t="s">
+      <c r="C38" s="210"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="210" t="s">
         <v>228</v>
       </c>
-      <c r="F38" s="209"/>
-      <c r="G38" s="209"/>
+      <c r="F38" s="210"/>
+      <c r="G38" s="210"/>
       <c r="H38" s="138" t="s">
         <v>229</v>
       </c>
@@ -19977,16 +19988,16 @@
       <c r="A39" s="137" t="s">
         <v>226</v>
       </c>
-      <c r="B39" s="209" t="s">
+      <c r="B39" s="210" t="s">
         <v>230</v>
       </c>
-      <c r="C39" s="209"/>
-      <c r="D39" s="209"/>
-      <c r="E39" s="209" t="s">
+      <c r="C39" s="210"/>
+      <c r="D39" s="210"/>
+      <c r="E39" s="210" t="s">
         <v>231</v>
       </c>
-      <c r="F39" s="209"/>
-      <c r="G39" s="209"/>
+      <c r="F39" s="210"/>
+      <c r="G39" s="210"/>
       <c r="H39" s="138" t="s">
         <v>232</v>
       </c>
@@ -19995,64 +20006,64 @@
       <c r="A40" s="137" t="s">
         <v>233</v>
       </c>
-      <c r="B40" s="209" t="s">
+      <c r="B40" s="210" t="s">
         <v>234</v>
       </c>
-      <c r="C40" s="209"/>
-      <c r="D40" s="209"/>
-      <c r="E40" s="209" t="s">
+      <c r="C40" s="210"/>
+      <c r="D40" s="210"/>
+      <c r="E40" s="210" t="s">
         <v>235</v>
       </c>
-      <c r="F40" s="209"/>
-      <c r="G40" s="209"/>
+      <c r="F40" s="210"/>
+      <c r="G40" s="210"/>
       <c r="H40" s="138"/>
     </row>
     <row r="41" spans="1:8" ht="132.6" customHeight="1">
       <c r="A41" s="137" t="s">
         <v>236</v>
       </c>
-      <c r="B41" s="209" t="s">
+      <c r="B41" s="210" t="s">
         <v>237</v>
       </c>
-      <c r="C41" s="209"/>
-      <c r="D41" s="209"/>
-      <c r="E41" s="209" t="s">
+      <c r="C41" s="210"/>
+      <c r="D41" s="210"/>
+      <c r="E41" s="210" t="s">
         <v>238</v>
       </c>
-      <c r="F41" s="209"/>
-      <c r="G41" s="209"/>
+      <c r="F41" s="210"/>
+      <c r="G41" s="210"/>
       <c r="H41" s="138"/>
     </row>
     <row r="42" spans="1:8" ht="168.45" customHeight="1">
       <c r="A42" s="137" t="s">
         <v>239</v>
       </c>
-      <c r="B42" s="209" t="s">
+      <c r="B42" s="210" t="s">
         <v>240</v>
       </c>
-      <c r="C42" s="209"/>
-      <c r="D42" s="209"/>
-      <c r="E42" s="209" t="s">
+      <c r="C42" s="210"/>
+      <c r="D42" s="210"/>
+      <c r="E42" s="210" t="s">
         <v>241</v>
       </c>
-      <c r="F42" s="209"/>
-      <c r="G42" s="209"/>
+      <c r="F42" s="210"/>
+      <c r="G42" s="210"/>
       <c r="H42" s="138"/>
     </row>
     <row r="43" spans="1:8" ht="168.45" customHeight="1">
       <c r="A43" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="209" t="s">
+      <c r="B43" s="210" t="s">
         <v>242</v>
       </c>
-      <c r="C43" s="209"/>
-      <c r="D43" s="209"/>
-      <c r="E43" s="209" t="s">
+      <c r="C43" s="210"/>
+      <c r="D43" s="210"/>
+      <c r="E43" s="210" t="s">
         <v>243</v>
       </c>
-      <c r="F43" s="209"/>
-      <c r="G43" s="209"/>
+      <c r="F43" s="210"/>
+      <c r="G43" s="210"/>
       <c r="H43" s="138"/>
     </row>
   </sheetData>
@@ -20094,11 +20105,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -20186,11 +20197,11 @@
         <v>258</v>
       </c>
       <c r="D2" s="100" t="str">
-        <f t="shared" ref="D2:D36" si="0">IF(LEN(B2)-LEN(SUBSTITUTE(B2,"-",""))&lt;&gt;1,MID(B2,1,FIND("$",SUBSTITUTE(B2,"-","$",LEN(B2)-LEN(SUBSTITUTE(B2,"-",""))),1)-1),MID(B2,1,FIND("-",B2,1)-1))&amp;"-"&amp;F2&amp;IF(R2="","","-"&amp;R2)</f>
+        <f>IF(LEN(B2)-LEN(SUBSTITUTE(B2,"-",""))&lt;&gt;1,IF(LEN(B2)-LEN(SUBSTITUTE(B2,"-",""))=0,B2,MID(B2,1,FIND("$",SUBSTITUTE(B2,"-","$",LEN(B2)-LEN(SUBSTITUTE(B2,"-",""))),1)-1)),MID(B2,1,FIND("-",B2,1)-1))&amp;"-"&amp;F2&amp;IF(R2="","","-"&amp;R2)</f>
         <v>核心交换机-S12508G-AF</v>
       </c>
       <c r="E2" s="100" t="str">
-        <f t="shared" ref="E2:E36" si="1">_xlfn.IFS(Q2="独立","",Q2="M1",MID(C2,1,FIND("$",SUBSTITUTE(C2,"-","$",2)))&amp;MID(C2,FIND("%",SUBSTITUTE(C2,"-","%",2))+1,FIND("$",SUBSTITUTE(C2,"-","$",4))-1-FIND("%",SUBSTITUTE(C2,"-","%",2)))&amp;"_"&amp;MID(C3,FIND("%",SUBSTITUTE(C3,"-","%",2))+1,FIND("$",SUBSTITUTE(C3,"-","$",4))-1-FIND("%",SUBSTITUTE(C3,"-","%",2)))&amp;"-"&amp;MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",4))+1,FIND("$",SUBSTITUTE(C2,"-","$",6))-FIND("$",SUBSTITUTE(C2,"-","$",4))-1)&amp;"-"&amp;Q2&amp;IF(RIGHT(C2,2)=RIGHT(C3,2),MID(C2,FIND("^",SUBSTITUTE(C2,"-","^",6)),LEN(C2)-FIND("^",SUBSTITUTE(C2,"-","^",5))+1),MID(C2,FIND("^",SUBSTITUTE(C2,"-","^",6)),LEN(C2)-FIND("^",SUBSTITUTE(C2,"-","^",5))+1)&amp;"_"&amp;RIGHT(C3,2)),Q2="M2",MID(C1,1,FIND("$",SUBSTITUTE(C1,"-","$",2)))&amp;MID(C1,FIND("%",SUBSTITUTE(C1,"-","%",2))+1,FIND("$",SUBSTITUTE(C1,"-","$",4))-1-FIND("%",SUBSTITUTE(C1,"-","%",2)))&amp;"_"&amp;MID(C2,FIND("%",SUBSTITUTE(C2,"-","%",2))+1,FIND("$",SUBSTITUTE(C2,"-","$",4))-1-FIND("%",SUBSTITUTE(C2,"-","%",2)))&amp;"-"&amp;MID(C1,FIND("$",SUBSTITUTE(C1,"-","$",4))+1,FIND("$",SUBSTITUTE(C1,"-","$",6))-FIND("$",SUBSTITUTE(C1,"-","$",4))-1)&amp;"-"&amp;Q2&amp;IF(RIGHT(C1,2)=RIGHT(C2,2),MID(C1,FIND("^",SUBSTITUTE(C1,"-","^",6)),LEN(C1)-FIND("^",SUBSTITUTE(C1,"-","^",5))+1),MID(C1,FIND("^",SUBSTITUTE(C1,"-","^",6)),LEN(C1)-FIND("^",SUBSTITUTE(C1,"-","^",5))+1)&amp;"_"&amp;RIGHT(C2,2)),Q2="H1",MID(C2,1,FIND("$",SUBSTITUTE(C2,"-","$",2)))&amp;MID(C2,FIND("%",SUBSTITUTE(C2,"-","%",2))+1,FIND("$",SUBSTITUTE(C2,"-","$",4))-1-FIND("%",SUBSTITUTE(C2,"-","%",2)))&amp;"_"&amp;MID(C3,FIND("%",SUBSTITUTE(C3,"-","%",2))+1,FIND("$",SUBSTITUTE(C3,"-","$",4))-1-FIND("%",SUBSTITUTE(C3,"-","%",2)))&amp;"-"&amp;MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",4))+1,FIND("$",SUBSTITUTE(C2,"-","$",6))-FIND("$",SUBSTITUTE(C2,"-","$",4))-1)&amp;"-"&amp;Q2&amp;IF(RIGHT(C2,2)=RIGHT(C3,2),MID(C2,FIND("^",SUBSTITUTE(C2,"-","^",6)),LEN(C2)-FIND("^",SUBSTITUTE(C2,"-","^",5))+1),MID(C2,FIND("^",SUBSTITUTE(C2,"-","^",6)),LEN(C2)-FIND("^",SUBSTITUTE(C2,"-","^",5))+1)&amp;"_"&amp;RIGHT(C3,2)),Q2="H2",MID(C1,1,FIND("$",SUBSTITUTE(C1,"-","$",2)))&amp;MID(C1,FIND("%",SUBSTITUTE(C1,"-","%",2))+1,FIND("$",SUBSTITUTE(C1,"-","$",4))-1-FIND("%",SUBSTITUTE(C1,"-","%",2)))&amp;"_"&amp;MID(C2,FIND("%",SUBSTITUTE(C2,"-","%",2))+1,FIND("$",SUBSTITUTE(C2,"-","$",4))-1-FIND("%",SUBSTITUTE(C2,"-","%",2)))&amp;"-"&amp;MID(C1,FIND("$",SUBSTITUTE(C1,"-","$",4))+1,FIND("$",SUBSTITUTE(C1,"-","$",6))-FIND("$",SUBSTITUTE(C1,"-","$",4))-1)&amp;"-"&amp;Q2&amp;IF(RIGHT(C1,2)=RIGHT(C2,2),MID(C1,FIND("^",SUBSTITUTE(C1,"-","^",6)),LEN(C1)-FIND("^",SUBSTITUTE(C1,"-","^",5))+1),MID(C1,FIND("^",SUBSTITUTE(C1,"-","^",6)),LEN(C1)-FIND("^",SUBSTITUTE(C1,"-","^",5))+1)&amp;"_"&amp;RIGHT(C2,2)),Q2="堆叠1",MID(C2,1,FIND("$",SUBSTITUTE(C2,"-","$",2)))&amp;MID(C2,FIND("%",SUBSTITUTE(C2,"-","%",2))+1,FIND("$",SUBSTITUTE(C2,"-","$",4))-1-FIND("%",SUBSTITUTE(C2,"-","%",2)))&amp;"_"&amp;MID(C3,FIND("%",SUBSTITUTE(C3,"-","%",2))+1,FIND("$",SUBSTITUTE(C3,"-","$",4))-1-FIND("%",SUBSTITUTE(C3,"-","%",2)))&amp;"-"&amp;MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",4))+1,FIND("$",SUBSTITUTE(C2,"-","$",6))-FIND("$",SUBSTITUTE(C2,"-","$",4))-1)&amp;IF(RIGHT(C2,2)=RIGHT(C3,2),MID(C2,FIND("^",SUBSTITUTE(C2,"-","^",6)),LEN(C2)-FIND("^",SUBSTITUTE(C2,"-","^",5))+1),MID(C2,FIND("^",SUBSTITUTE(C2,"-","^",6)),LEN(C2)-FIND("^",SUBSTITUTE(C2,"-","^",5))+1)&amp;"_"&amp;RIGHT(C3,2)),Q2="堆叠2",MID(C1,1,FIND("$",SUBSTITUTE(C1,"-","$",2)))&amp;MID(C1,FIND("%",SUBSTITUTE(C1,"-","%",2))+1,FIND("$",SUBSTITUTE(C1,"-","$",4))-1-FIND("%",SUBSTITUTE(C1,"-","%",2)))&amp;"_"&amp;MID(C2,FIND("%",SUBSTITUTE(C2,"-","%",2))+1,FIND("$",SUBSTITUTE(C2,"-","$",4))-1-FIND("%",SUBSTITUTE(C2,"-","%",2)))&amp;"-"&amp;MID(C1,FIND("$",SUBSTITUTE(C1,"-","$",4))+1,FIND("$",SUBSTITUTE(C1,"-","$",6))-FIND("$",SUBSTITUTE(C1,"-","$",4))-1)&amp;IF(RIGHT(C1,2)=RIGHT(C2,2),MID(C1,FIND("^",SUBSTITUTE(C1,"-","^",6)),LEN(C1)-FIND("^",SUBSTITUTE(C1,"-","^",5))+1),MID(C1,FIND("^",SUBSTITUTE(C1,"-","^",6)),LEN(C1)-FIND("^",SUBSTITUTE(C1,"-","^",5))+1)&amp;"_"&amp;RIGHT(C2,2)))</f>
+        <f t="shared" ref="E2:E36" si="0">_xlfn.IFS(Q2="独立","",Q2="M1",MID(C2,1,FIND("$",SUBSTITUTE(C2,"-","$",2)))&amp;MID(C2,FIND("%",SUBSTITUTE(C2,"-","%",2))+1,FIND("$",SUBSTITUTE(C2,"-","$",4))-1-FIND("%",SUBSTITUTE(C2,"-","%",2)))&amp;"_"&amp;MID(C3,FIND("%",SUBSTITUTE(C3,"-","%",2))+1,FIND("$",SUBSTITUTE(C3,"-","$",4))-1-FIND("%",SUBSTITUTE(C3,"-","%",2)))&amp;"-"&amp;MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",4))+1,FIND("$",SUBSTITUTE(C2,"-","$",6))-FIND("$",SUBSTITUTE(C2,"-","$",4))-1)&amp;"-"&amp;Q2&amp;IF(RIGHT(C2,2)=RIGHT(C3,2),MID(C2,FIND("^",SUBSTITUTE(C2,"-","^",6)),LEN(C2)-FIND("^",SUBSTITUTE(C2,"-","^",5))+1),MID(C2,FIND("^",SUBSTITUTE(C2,"-","^",6)),LEN(C2)-FIND("^",SUBSTITUTE(C2,"-","^",5))+1)&amp;"_"&amp;RIGHT(C3,2)),Q2="M2",MID(C1,1,FIND("$",SUBSTITUTE(C1,"-","$",2)))&amp;MID(C1,FIND("%",SUBSTITUTE(C1,"-","%",2))+1,FIND("$",SUBSTITUTE(C1,"-","$",4))-1-FIND("%",SUBSTITUTE(C1,"-","%",2)))&amp;"_"&amp;MID(C2,FIND("%",SUBSTITUTE(C2,"-","%",2))+1,FIND("$",SUBSTITUTE(C2,"-","$",4))-1-FIND("%",SUBSTITUTE(C2,"-","%",2)))&amp;"-"&amp;MID(C1,FIND("$",SUBSTITUTE(C1,"-","$",4))+1,FIND("$",SUBSTITUTE(C1,"-","$",6))-FIND("$",SUBSTITUTE(C1,"-","$",4))-1)&amp;"-"&amp;Q2&amp;IF(RIGHT(C1,2)=RIGHT(C2,2),MID(C1,FIND("^",SUBSTITUTE(C1,"-","^",6)),LEN(C1)-FIND("^",SUBSTITUTE(C1,"-","^",5))+1),MID(C1,FIND("^",SUBSTITUTE(C1,"-","^",6)),LEN(C1)-FIND("^",SUBSTITUTE(C1,"-","^",5))+1)&amp;"_"&amp;RIGHT(C2,2)),Q2="H1",MID(C2,1,FIND("$",SUBSTITUTE(C2,"-","$",2)))&amp;MID(C2,FIND("%",SUBSTITUTE(C2,"-","%",2))+1,FIND("$",SUBSTITUTE(C2,"-","$",4))-1-FIND("%",SUBSTITUTE(C2,"-","%",2)))&amp;"_"&amp;MID(C3,FIND("%",SUBSTITUTE(C3,"-","%",2))+1,FIND("$",SUBSTITUTE(C3,"-","$",4))-1-FIND("%",SUBSTITUTE(C3,"-","%",2)))&amp;"-"&amp;MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",4))+1,FIND("$",SUBSTITUTE(C2,"-","$",6))-FIND("$",SUBSTITUTE(C2,"-","$",4))-1)&amp;"-"&amp;Q2&amp;IF(RIGHT(C2,2)=RIGHT(C3,2),MID(C2,FIND("^",SUBSTITUTE(C2,"-","^",6)),LEN(C2)-FIND("^",SUBSTITUTE(C2,"-","^",5))+1),MID(C2,FIND("^",SUBSTITUTE(C2,"-","^",6)),LEN(C2)-FIND("^",SUBSTITUTE(C2,"-","^",5))+1)&amp;"_"&amp;RIGHT(C3,2)),Q2="H2",MID(C1,1,FIND("$",SUBSTITUTE(C1,"-","$",2)))&amp;MID(C1,FIND("%",SUBSTITUTE(C1,"-","%",2))+1,FIND("$",SUBSTITUTE(C1,"-","$",4))-1-FIND("%",SUBSTITUTE(C1,"-","%",2)))&amp;"_"&amp;MID(C2,FIND("%",SUBSTITUTE(C2,"-","%",2))+1,FIND("$",SUBSTITUTE(C2,"-","$",4))-1-FIND("%",SUBSTITUTE(C2,"-","%",2)))&amp;"-"&amp;MID(C1,FIND("$",SUBSTITUTE(C1,"-","$",4))+1,FIND("$",SUBSTITUTE(C1,"-","$",6))-FIND("$",SUBSTITUTE(C1,"-","$",4))-1)&amp;"-"&amp;Q2&amp;IF(RIGHT(C1,2)=RIGHT(C2,2),MID(C1,FIND("^",SUBSTITUTE(C1,"-","^",6)),LEN(C1)-FIND("^",SUBSTITUTE(C1,"-","^",5))+1),MID(C1,FIND("^",SUBSTITUTE(C1,"-","^",6)),LEN(C1)-FIND("^",SUBSTITUTE(C1,"-","^",5))+1)&amp;"_"&amp;RIGHT(C2,2)),Q2="堆叠1",MID(C2,1,FIND("$",SUBSTITUTE(C2,"-","$",2)))&amp;MID(C2,FIND("%",SUBSTITUTE(C2,"-","%",2))+1,FIND("$",SUBSTITUTE(C2,"-","$",4))-1-FIND("%",SUBSTITUTE(C2,"-","%",2)))&amp;"_"&amp;MID(C3,FIND("%",SUBSTITUTE(C3,"-","%",2))+1,FIND("$",SUBSTITUTE(C3,"-","$",4))-1-FIND("%",SUBSTITUTE(C3,"-","%",2)))&amp;"-"&amp;MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",4))+1,FIND("$",SUBSTITUTE(C2,"-","$",6))-FIND("$",SUBSTITUTE(C2,"-","$",4))-1)&amp;IF(RIGHT(C2,2)=RIGHT(C3,2),MID(C2,FIND("^",SUBSTITUTE(C2,"-","^",6)),LEN(C2)-FIND("^",SUBSTITUTE(C2,"-","^",5))+1),MID(C2,FIND("^",SUBSTITUTE(C2,"-","^",6)),LEN(C2)-FIND("^",SUBSTITUTE(C2,"-","^",5))+1)&amp;"_"&amp;RIGHT(C3,2)),Q2="堆叠2",MID(C1,1,FIND("$",SUBSTITUTE(C1,"-","$",2)))&amp;MID(C1,FIND("%",SUBSTITUTE(C1,"-","%",2))+1,FIND("$",SUBSTITUTE(C1,"-","$",4))-1-FIND("%",SUBSTITUTE(C1,"-","%",2)))&amp;"_"&amp;MID(C2,FIND("%",SUBSTITUTE(C2,"-","%",2))+1,FIND("$",SUBSTITUTE(C2,"-","$",4))-1-FIND("%",SUBSTITUTE(C2,"-","%",2)))&amp;"-"&amp;MID(C1,FIND("$",SUBSTITUTE(C1,"-","$",4))+1,FIND("$",SUBSTITUTE(C1,"-","$",6))-FIND("$",SUBSTITUTE(C1,"-","$",4))-1)&amp;IF(RIGHT(C1,2)=RIGHT(C2,2),MID(C1,FIND("^",SUBSTITUTE(C1,"-","^",6)),LEN(C1)-FIND("^",SUBSTITUTE(C1,"-","^",5))+1),MID(C1,FIND("^",SUBSTITUTE(C1,"-","^",6)),LEN(C1)-FIND("^",SUBSTITUTE(C1,"-","^",5))+1)&amp;"_"&amp;RIGHT(C2,2)))</f>
         <v/>
       </c>
       <c r="F2" s="100" t="s">
@@ -20210,23 +20221,23 @@
         <v>915</v>
       </c>
       <c r="L2" s="123" t="str">
-        <f t="shared" ref="L2:L36" si="2">RIGHT(C2,2)</f>
+        <f t="shared" ref="L2:L36" si="1">RIGHT(C2,2)</f>
         <v>06</v>
       </c>
       <c r="M2" s="123" t="str">
-        <f t="shared" ref="M2:M36" si="3">IF(RIGHT(MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,4),1)="-",MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,3),IF(RIGHT(MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,2),1)="-",IF(ISNUMBER(--MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,1)),"0"&amp;MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,1),MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,1)),MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,2))&amp;"列"&amp;MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",3))+1,2))</f>
+        <f t="shared" ref="M2:M36" si="2">IF(RIGHT(MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,4),1)="-",MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,3),IF(RIGHT(MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,2),1)="-",IF(ISNUMBER(--MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,1)),"0"&amp;MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,1),MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,1)),MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",2))+1,2))&amp;"列"&amp;MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",3))+1,2))</f>
         <v>04列01</v>
       </c>
       <c r="N2" s="123" t="str">
-        <f t="shared" ref="N2:N36" si="4">MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",_xlfn.IFS(LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=7,7,LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=6,6,LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=5,5)))+1,2)</f>
+        <f t="shared" ref="N2:N36" si="3">MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",_xlfn.IFS(LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=7,7,LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=6,6,LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=5,5)))+1,2)</f>
         <v>12</v>
       </c>
       <c r="O2" s="123" t="str">
-        <f t="shared" ref="O2:O36" si="5">MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",1))+1,FIND("$",SUBSTITUTE(C2,"-","$",1))-2)</f>
+        <f t="shared" ref="O2:O36" si="4">MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",1))+1,FIND("$",SUBSTITUTE(C2,"-","$",1))-2)</f>
         <v>122</v>
       </c>
       <c r="P2" s="123" t="str">
-        <f t="shared" ref="P2:P36" si="6">_xlfn.IFS(LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=7,MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",5))+1,FIND("$",SUBSTITUTE(C2,"-","$",6))-FIND("$",SUBSTITUTE(C2,"-","$",5))-1),LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=6,MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",4))+1,FIND("$",SUBSTITUTE(C2,"-","$",5))-FIND("$",SUBSTITUTE(C2,"-","$",4))-1),LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=5,MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",3))+1,FIND("$",SUBSTITUTE(C2,"-","$",4))-FIND("$",SUBSTITUTE(C2,"-","$",3))-1))</f>
+        <f t="shared" ref="P2:P36" si="5">_xlfn.IFS(LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=7,MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",5))+1,FIND("$",SUBSTITUTE(C2,"-","$",6))-FIND("$",SUBSTITUTE(C2,"-","$",5))-1),LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=6,MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",4))+1,FIND("$",SUBSTITUTE(C2,"-","$",5))-FIND("$",SUBSTITUTE(C2,"-","$",4))-1),LEN(C2)-LEN(SUBSTITUTE(C2,"-",""))=5,MID(C2,FIND("$",SUBSTITUTE(C2,"-","$",3))+1,FIND("$",SUBSTITUTE(C2,"-","$",4))-FIND("$",SUBSTITUTE(C2,"-","$",3))-1))</f>
         <v>CSW</v>
       </c>
       <c r="Q2" s="103" t="s">
@@ -20245,11 +20256,11 @@
         <v>262</v>
       </c>
       <c r="D3" s="100" t="str">
+        <f t="shared" ref="D3:D37" si="6">IF(LEN(B3)-LEN(SUBSTITUTE(B3,"-",""))&lt;&gt;1,IF(LEN(B3)-LEN(SUBSTITUTE(B3,"-",""))=0,B3,MID(B3,1,FIND("$",SUBSTITUTE(B3,"-","$",LEN(B3)-LEN(SUBSTITUTE(B3,"-",""))),1)-1)),MID(B3,1,FIND("-",B3,1)-1))&amp;"-"&amp;F3&amp;IF(R3="","","-"&amp;R3)</f>
+        <v>核心交换机-S12508G-AF</v>
+      </c>
+      <c r="E3" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>核心交换机-S12508G-AF</v>
-      </c>
-      <c r="E3" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F3" s="100" t="s">
@@ -20269,23 +20280,23 @@
         <v>915</v>
       </c>
       <c r="L3" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>06</v>
+      </c>
+      <c r="M3" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>06</v>
-      </c>
-      <c r="M3" s="123" t="str">
+        <v>04列03</v>
+      </c>
+      <c r="N3" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列03</v>
-      </c>
-      <c r="N3" s="123" t="str">
+        <v>12</v>
+      </c>
+      <c r="O3" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="O3" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P3" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P3" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>CSW</v>
       </c>
       <c r="Q3" s="103" t="s">
@@ -20304,11 +20315,11 @@
         <v>264</v>
       </c>
       <c r="D4" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>业务防火墙-M9010</v>
+      </c>
+      <c r="E4" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>业务防火墙-M9010</v>
-      </c>
-      <c r="E4" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-4-04_4-05-A1P1-CFW-H1-HM9010-20U06</v>
       </c>
       <c r="F4" s="100" t="s">
@@ -20328,23 +20339,23 @@
         <v>915</v>
       </c>
       <c r="L4" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>06</v>
+      </c>
+      <c r="M4" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>06</v>
-      </c>
-      <c r="M4" s="123" t="str">
+        <v>04列04</v>
+      </c>
+      <c r="N4" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列04</v>
-      </c>
-      <c r="N4" s="123" t="str">
+        <v>20</v>
+      </c>
+      <c r="O4" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="O4" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P4" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P4" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>CFW</v>
       </c>
       <c r="Q4" s="103" t="s">
@@ -20363,11 +20374,11 @@
         <v>267</v>
       </c>
       <c r="D5" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>业务防火墙-M9010</v>
+      </c>
+      <c r="E5" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>业务防火墙-M9010</v>
-      </c>
-      <c r="E5" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-4-04_4-05-A1P1-CFW-H2-HM9010-20U06</v>
       </c>
       <c r="F5" s="100" t="s">
@@ -20387,23 +20398,23 @@
         <v>915</v>
       </c>
       <c r="L5" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>06</v>
+      </c>
+      <c r="M5" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>06</v>
-      </c>
-      <c r="M5" s="123" t="str">
+        <v>04列05</v>
+      </c>
+      <c r="N5" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列05</v>
-      </c>
-      <c r="N5" s="123" t="str">
+        <v>20</v>
+      </c>
+      <c r="O5" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="O5" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P5" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P5" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>CFW</v>
       </c>
       <c r="Q5" s="103" t="s">
@@ -20422,11 +20433,11 @@
         <v>270</v>
       </c>
       <c r="D6" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>IPS-T9008-S</v>
+      </c>
+      <c r="E6" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>IPS-T9008-S</v>
-      </c>
-      <c r="E6" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-4-06_4-07-A1P1-IPS-H1-HT9008-13U06</v>
       </c>
       <c r="F6" s="100" t="s">
@@ -20446,23 +20457,23 @@
         <v>915</v>
       </c>
       <c r="L6" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>06</v>
+      </c>
+      <c r="M6" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>06</v>
-      </c>
-      <c r="M6" s="123" t="str">
+        <v>04列06</v>
+      </c>
+      <c r="N6" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列06</v>
-      </c>
-      <c r="N6" s="123" t="str">
+        <v>13</v>
+      </c>
+      <c r="O6" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="O6" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P6" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P6" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>IPS</v>
       </c>
       <c r="Q6" s="103" t="s">
@@ -20481,11 +20492,11 @@
         <v>272</v>
       </c>
       <c r="D7" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>IPS-T9008-S</v>
+      </c>
+      <c r="E7" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>IPS-T9008-S</v>
-      </c>
-      <c r="E7" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-4-06_4-07-A1P1-IPS-H2-HT9008-13U06</v>
       </c>
       <c r="F7" s="100" t="s">
@@ -20505,23 +20516,23 @@
         <v>915</v>
       </c>
       <c r="L7" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>06</v>
+      </c>
+      <c r="M7" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>06</v>
-      </c>
-      <c r="M7" s="123" t="str">
+        <v>04列07</v>
+      </c>
+      <c r="N7" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列07</v>
-      </c>
-      <c r="N7" s="123" t="str">
+        <v>13</v>
+      </c>
+      <c r="O7" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="O7" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P7" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P7" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>IPS</v>
       </c>
       <c r="Q7" s="103" t="s">
@@ -20540,11 +20551,11 @@
         <v>274</v>
       </c>
       <c r="D8" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>边界交换机-S6900-54HQF-F</v>
+      </c>
+      <c r="E8" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>边界交换机-S6900-54HQF-F</v>
-      </c>
-      <c r="E8" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-4-01_4-03-A1P1-ASW-M1-H6900-01U40</v>
       </c>
       <c r="F8" s="100" t="s">
@@ -20564,23 +20575,23 @@
         <v>915</v>
       </c>
       <c r="L8" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M8" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M8" s="123" t="str">
+        <v>04列01</v>
+      </c>
+      <c r="N8" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列01</v>
-      </c>
-      <c r="N8" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O8" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O8" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P8" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P8" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q8" s="103" t="s">
@@ -20599,11 +20610,11 @@
         <v>277</v>
       </c>
       <c r="D9" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>边界交换机-S6900-54HQF-F</v>
+      </c>
+      <c r="E9" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>边界交换机-S6900-54HQF-F</v>
-      </c>
-      <c r="E9" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-4-01_4-03-A1P1-ASW-M2-H6900-01U40</v>
       </c>
       <c r="F9" s="100" t="s">
@@ -20623,23 +20634,23 @@
         <v>915</v>
       </c>
       <c r="L9" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M9" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M9" s="123" t="str">
+        <v>04列03</v>
+      </c>
+      <c r="N9" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列03</v>
-      </c>
-      <c r="N9" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O9" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O9" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P9" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P9" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q9" s="103" t="s">
@@ -20658,7 +20669,7 @@
         <v>280</v>
       </c>
       <c r="D10" s="100" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>边界交换机-S6900-54HQF-F</v>
       </c>
       <c r="E10" s="100" t="str">
@@ -20682,23 +20693,23 @@
         <v>915</v>
       </c>
       <c r="L10" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M10" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M10" s="123" t="str">
+        <v>04列04</v>
+      </c>
+      <c r="N10" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列04</v>
-      </c>
-      <c r="N10" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O10" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O10" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P10" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P10" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q10" s="103" t="s">
@@ -20717,11 +20728,11 @@
         <v>282</v>
       </c>
       <c r="D11" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>边界交换机-S6900-54HQF-F</v>
+      </c>
+      <c r="E11" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>边界交换机-S6900-54HQF-F</v>
-      </c>
-      <c r="E11" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-4-04_4-05-A1P1-ASW-M2-H6900-01U40</v>
       </c>
       <c r="F11" s="100" t="s">
@@ -20741,23 +20752,23 @@
         <v>915</v>
       </c>
       <c r="L11" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M11" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M11" s="123" t="str">
+        <v>04列05</v>
+      </c>
+      <c r="N11" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列05</v>
-      </c>
-      <c r="N11" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O11" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O11" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P11" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P11" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q11" s="103" t="s">
@@ -20776,11 +20787,11 @@
         <v>958</v>
       </c>
       <c r="D12" s="100" t="str">
-        <f>IF(LEN(B12)-LEN(SUBSTITUTE(B12,"-",""))&lt;&gt;1,MID(B12,1,FIND("$",SUBSTITUTE(B12,"-","$",LEN(B12)-LEN(SUBSTITUTE(B12,"-",""))),1)-1),MID(B12,1,FIND("-",B12,1)-1))&amp;"-"&amp;F12&amp;IF(R12="","","-"&amp;R12)</f>
+        <f t="shared" si="6"/>
         <v>大客户专线接入交换机-S6900-54HQF-F</v>
       </c>
       <c r="E12" s="100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>HAZZ-122-4-06_4-07-A1P1-PSW-H6900-01U37</v>
       </c>
       <c r="F12" s="100" t="s">
@@ -20800,23 +20811,23 @@
         <v>915</v>
       </c>
       <c r="L12" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M12" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="M12" s="123" t="str">
+        <v>04列06</v>
+      </c>
+      <c r="N12" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列06</v>
-      </c>
-      <c r="N12" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O12" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O12" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P12" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P12" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>PSW</v>
       </c>
       <c r="Q12" s="103" t="s">
@@ -20835,11 +20846,11 @@
         <v>959</v>
       </c>
       <c r="D13" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>大客户专线接入交换机-S6900-54HQF-F</v>
+      </c>
+      <c r="E13" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>大客户专线接入交换机-S6900-54HQF-F</v>
-      </c>
-      <c r="E13" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-4-06_4-07-A1P1-PSW-H6900-01U37</v>
       </c>
       <c r="F13" s="100" t="s">
@@ -20859,23 +20870,23 @@
         <v>915</v>
       </c>
       <c r="L13" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M13" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="M13" s="123" t="str">
+        <v>04列07</v>
+      </c>
+      <c r="N13" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列07</v>
-      </c>
-      <c r="N13" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O13" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O13" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P13" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P13" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>PSW</v>
       </c>
       <c r="Q13" s="103" t="s">
@@ -20894,11 +20905,11 @@
         <v>288</v>
       </c>
       <c r="D14" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>25Gleaf交换机（宿主机+存储）-S6825-54HF</v>
+      </c>
+      <c r="E14" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>25Gleaf交换机（宿主机+存储）-S6825-54HF</v>
-      </c>
-      <c r="E14" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-3-01_3-02-A1P1-ASW-M1-H6825-01U40</v>
       </c>
       <c r="F14" s="100" t="s">
@@ -20918,23 +20929,23 @@
         <v>915</v>
       </c>
       <c r="L14" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M14" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M14" s="123" t="str">
+        <v>03列01</v>
+      </c>
+      <c r="N14" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>03列01</v>
-      </c>
-      <c r="N14" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O14" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O14" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P14" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P14" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q14" s="103" t="s">
@@ -20953,11 +20964,11 @@
         <v>290</v>
       </c>
       <c r="D15" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>25Gleaf交换机（宿主机+存储）-S6825-54HF</v>
+      </c>
+      <c r="E15" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>25Gleaf交换机（宿主机+存储）-S6825-54HF</v>
-      </c>
-      <c r="E15" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-3-01_3-02-A1P1-ASW-M2-H6825-01U40</v>
       </c>
       <c r="F15" s="100" t="s">
@@ -20977,23 +20988,23 @@
         <v>915</v>
       </c>
       <c r="L15" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M15" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M15" s="123" t="str">
+        <v>03列02</v>
+      </c>
+      <c r="N15" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>03列02</v>
-      </c>
-      <c r="N15" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O15" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O15" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P15" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P15" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q15" s="103" t="s">
@@ -21012,11 +21023,11 @@
         <v>292</v>
       </c>
       <c r="D16" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>25Gleaf交换机（宿主机+存储）-S6825-54HF</v>
+      </c>
+      <c r="E16" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>25Gleaf交换机（宿主机+存储）-S6825-54HF</v>
-      </c>
-      <c r="E16" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-3-04_3-05-A1P1-ASW-M1-H6825-01U40</v>
       </c>
       <c r="F16" s="100" t="s">
@@ -21036,23 +21047,23 @@
         <v>915</v>
       </c>
       <c r="L16" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M16" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M16" s="123" t="str">
+        <v>03列04</v>
+      </c>
+      <c r="N16" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>03列04</v>
-      </c>
-      <c r="N16" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O16" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O16" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P16" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P16" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q16" s="103" t="s">
@@ -21071,11 +21082,11 @@
         <v>294</v>
       </c>
       <c r="D17" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>25Gleaf交换机（宿主机+存储）-S6825-54HF</v>
+      </c>
+      <c r="E17" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>25Gleaf交换机（宿主机+存储）-S6825-54HF</v>
-      </c>
-      <c r="E17" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-3-04_3-05-A1P1-ASW-M2-H6825-01U40</v>
       </c>
       <c r="F17" s="100" t="s">
@@ -21095,23 +21106,23 @@
         <v>915</v>
       </c>
       <c r="L17" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M17" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M17" s="123" t="str">
+        <v>03列05</v>
+      </c>
+      <c r="N17" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>03列05</v>
-      </c>
-      <c r="N17" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O17" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O17" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P17" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P17" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q17" s="103" t="s">
@@ -21130,11 +21141,11 @@
         <v>296</v>
       </c>
       <c r="D18" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>25Gleaf交换机（功能区）-S6825-54HF</v>
+      </c>
+      <c r="E18" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>25Gleaf交换机（功能区）-S6825-54HF</v>
-      </c>
-      <c r="E18" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-3-07_3-08-A1P1-ASW-M1-H6825-01U40</v>
       </c>
       <c r="F18" s="100" t="s">
@@ -21154,23 +21165,23 @@
         <v>915</v>
       </c>
       <c r="L18" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M18" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M18" s="123" t="str">
+        <v>03列07</v>
+      </c>
+      <c r="N18" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>03列07</v>
-      </c>
-      <c r="N18" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O18" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O18" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P18" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P18" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q18" s="103" t="s">
@@ -21189,11 +21200,11 @@
         <v>298</v>
       </c>
       <c r="D19" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>25Gleaf交换机（功能区）-S6825-54HF</v>
+      </c>
+      <c r="E19" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>25Gleaf交换机（功能区）-S6825-54HF</v>
-      </c>
-      <c r="E19" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-3-07_3-08-A1P1-ASW-M2-H6825-01U40</v>
       </c>
       <c r="F19" s="100" t="s">
@@ -21213,23 +21224,23 @@
         <v>915</v>
       </c>
       <c r="L19" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M19" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M19" s="123" t="str">
+        <v>03列08</v>
+      </c>
+      <c r="N19" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>03列08</v>
-      </c>
-      <c r="N19" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O19" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O19" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P19" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P19" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q19" s="103" t="s">
@@ -21248,11 +21259,11 @@
         <v>300</v>
       </c>
       <c r="D20" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>25Gleaf交换机（功能区）-S6825-54HF</v>
+      </c>
+      <c r="E20" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>25Gleaf交换机（功能区）-S6825-54HF</v>
-      </c>
-      <c r="E20" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-3-07_3-08-A1P1-ASW-M1-H6825-01U37</v>
       </c>
       <c r="F20" s="100" t="s">
@@ -21272,23 +21283,23 @@
         <v>915</v>
       </c>
       <c r="L20" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M20" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="M20" s="123" t="str">
+        <v>03列07</v>
+      </c>
+      <c r="N20" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>03列07</v>
-      </c>
-      <c r="N20" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O20" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O20" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P20" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P20" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q20" s="103" t="s">
@@ -21307,11 +21318,11 @@
         <v>302</v>
       </c>
       <c r="D21" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>25Gleaf交换机（功能区）-S6825-54HF</v>
+      </c>
+      <c r="E21" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>25Gleaf交换机（功能区）-S6825-54HF</v>
-      </c>
-      <c r="E21" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-3-07_3-08-A1P1-ASW-M2-H6825-01U37</v>
       </c>
       <c r="F21" s="100" t="s">
@@ -21331,23 +21342,23 @@
         <v>915</v>
       </c>
       <c r="L21" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M21" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="M21" s="123" t="str">
+        <v>03列08</v>
+      </c>
+      <c r="N21" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>03列08</v>
-      </c>
-      <c r="N21" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O21" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O21" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P21" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P21" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q21" s="103" t="s">
@@ -21366,11 +21377,11 @@
         <v>304</v>
       </c>
       <c r="D22" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>25Gleaf交换机（裸金属）-RG-S6510-48VS8CQ</v>
+      </c>
+      <c r="E22" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>25Gleaf交换机（裸金属）-RG-S6510-48VS8CQ</v>
-      </c>
-      <c r="E22" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-4-08_4-09-A1P1-ASW-M1-RJ6510-01U40</v>
       </c>
       <c r="F22" s="100" t="s">
@@ -21390,23 +21401,23 @@
         <v>915</v>
       </c>
       <c r="L22" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M22" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M22" s="123" t="str">
+        <v>04列08</v>
+      </c>
+      <c r="N22" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列08</v>
-      </c>
-      <c r="N22" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O22" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O22" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P22" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P22" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q22" s="103" t="s">
@@ -21425,11 +21436,11 @@
         <v>306</v>
       </c>
       <c r="D23" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>25Gleaf交换机（裸金属）-RG-S6510-48VS8CQ</v>
+      </c>
+      <c r="E23" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>25Gleaf交换机（裸金属）-RG-S6510-48VS8CQ</v>
-      </c>
-      <c r="E23" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-4-08_4-09-A1P1-ASW-M2-RJ6510-01U40</v>
       </c>
       <c r="F23" s="100" t="s">
@@ -21449,23 +21460,23 @@
         <v>915</v>
       </c>
       <c r="L23" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M23" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M23" s="123" t="str">
+        <v>04列09</v>
+      </c>
+      <c r="N23" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列09</v>
-      </c>
-      <c r="N23" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O23" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O23" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P23" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P23" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q23" s="103" t="s">
@@ -21484,11 +21495,11 @@
         <v>308</v>
       </c>
       <c r="D24" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>管理核心交换机-S6900-54HQF-F</v>
+      </c>
+      <c r="E24" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>管理核心交换机-S6900-54HQF-F</v>
-      </c>
-      <c r="E24" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-4-06_4-07-A1P1-MCSW-H6900-01U40</v>
       </c>
       <c r="F24" s="100" t="s">
@@ -21508,23 +21519,23 @@
         <v>915</v>
       </c>
       <c r="L24" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M24" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M24" s="123" t="str">
+        <v>04列06</v>
+      </c>
+      <c r="N24" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列06</v>
-      </c>
-      <c r="N24" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O24" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O24" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P24" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P24" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>MCSW</v>
       </c>
       <c r="Q24" s="103" t="s">
@@ -21543,11 +21554,11 @@
         <v>310</v>
       </c>
       <c r="D25" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>管理核心交换机-S6900-54HQF-F</v>
+      </c>
+      <c r="E25" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>管理核心交换机-S6900-54HQF-F</v>
-      </c>
-      <c r="E25" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-4-06_4-07-A1P1-MCSW-H6900-01U40</v>
       </c>
       <c r="F25" s="100" t="s">
@@ -21567,23 +21578,23 @@
         <v>915</v>
       </c>
       <c r="L25" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M25" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M25" s="123" t="str">
+        <v>04列07</v>
+      </c>
+      <c r="N25" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列07</v>
-      </c>
-      <c r="N25" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O25" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O25" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P25" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P25" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>MCSW</v>
       </c>
       <c r="Q25" s="103" t="s">
@@ -21602,11 +21613,11 @@
         <v>312</v>
       </c>
       <c r="D26" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>管理防火墙-SecPath F5000-M</v>
+      </c>
+      <c r="E26" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>管理防火墙-SecPath F5000-M</v>
-      </c>
-      <c r="E26" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-4-01_4-03-A1P1-MFW-H1-HF5000-02U36</v>
       </c>
       <c r="F26" s="100" t="s">
@@ -21626,23 +21637,23 @@
         <v>915</v>
       </c>
       <c r="L26" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="M26" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="M26" s="123" t="str">
+        <v>04列01</v>
+      </c>
+      <c r="N26" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列01</v>
-      </c>
-      <c r="N26" s="123" t="str">
+        <v>02</v>
+      </c>
+      <c r="O26" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>02</v>
-      </c>
-      <c r="O26" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P26" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P26" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>MFW</v>
       </c>
       <c r="Q26" s="103" t="s">
@@ -21661,11 +21672,11 @@
         <v>314</v>
       </c>
       <c r="D27" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>管理防火墙-SecPath F5000-M</v>
+      </c>
+      <c r="E27" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>管理防火墙-SecPath F5000-M</v>
-      </c>
-      <c r="E27" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-4-01_4-03-A1P1-MFW-H2-HF5000-02U36</v>
       </c>
       <c r="F27" s="100" t="s">
@@ -21685,23 +21696,23 @@
         <v>915</v>
       </c>
       <c r="L27" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="M27" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="M27" s="123" t="str">
+        <v>04列03</v>
+      </c>
+      <c r="N27" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列03</v>
-      </c>
-      <c r="N27" s="123" t="str">
+        <v>02</v>
+      </c>
+      <c r="O27" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>02</v>
-      </c>
-      <c r="O27" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P27" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P27" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>MFW</v>
       </c>
       <c r="Q27" s="103" t="s">
@@ -21720,11 +21731,11 @@
         <v>316</v>
       </c>
       <c r="D28" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>千兆管理交换机（业务区）-S5554S-EI-D</v>
+      </c>
+      <c r="E28" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>千兆管理交换机（业务区）-S5554S-EI-D</v>
-      </c>
-      <c r="E28" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-4-08_4-09-A1P1-ASW-H5554-01U37</v>
       </c>
       <c r="F28" s="100" t="s">
@@ -21744,23 +21755,23 @@
         <v>915</v>
       </c>
       <c r="L28" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M28" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="M28" s="123" t="str">
+        <v>04列08</v>
+      </c>
+      <c r="N28" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列08</v>
-      </c>
-      <c r="N28" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O28" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O28" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P28" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P28" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q28" s="103" t="s">
@@ -21779,11 +21790,11 @@
         <v>318</v>
       </c>
       <c r="D29" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>千兆管理交换机（业务区）-S5554S-EI-D</v>
+      </c>
+      <c r="E29" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>千兆管理交换机（业务区）-S5554S-EI-D</v>
-      </c>
-      <c r="E29" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-4-08_4-09-A1P1-ASW-H5554-01U37</v>
       </c>
       <c r="F29" s="100" t="s">
@@ -21803,23 +21814,23 @@
         <v>915</v>
       </c>
       <c r="L29" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M29" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="M29" s="123" t="str">
+        <v>04列09</v>
+      </c>
+      <c r="N29" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列09</v>
-      </c>
-      <c r="N29" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O29" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O29" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P29" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P29" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q29" s="103" t="s">
@@ -21838,11 +21849,11 @@
         <v>320</v>
       </c>
       <c r="D30" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>千兆管理交换机（业务区）-S5554S-EI-D</v>
+      </c>
+      <c r="E30" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>千兆管理交换机（业务区）-S5554S-EI-D</v>
-      </c>
-      <c r="E30" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-3-04_3-05-A1P1-ASW-H5554-01U37</v>
       </c>
       <c r="F30" s="100" t="s">
@@ -21862,23 +21873,23 @@
         <v>915</v>
       </c>
       <c r="L30" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M30" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="M30" s="123" t="str">
+        <v>03列04</v>
+      </c>
+      <c r="N30" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>03列04</v>
-      </c>
-      <c r="N30" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O30" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O30" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P30" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P30" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q30" s="103" t="s">
@@ -21897,11 +21908,11 @@
         <v>322</v>
       </c>
       <c r="D31" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>千兆管理交换机（业务区）-S5554S-EI-D</v>
+      </c>
+      <c r="E31" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>千兆管理交换机（业务区）-S5554S-EI-D</v>
-      </c>
-      <c r="E31" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-3-04_3-05-A1P1-ASW-H5554-01U37</v>
       </c>
       <c r="F31" s="100" t="s">
@@ -21921,23 +21932,23 @@
         <v>915</v>
       </c>
       <c r="L31" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M31" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="M31" s="123" t="str">
+        <v>03列05</v>
+      </c>
+      <c r="N31" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>03列05</v>
-      </c>
-      <c r="N31" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O31" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O31" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P31" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P31" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q31" s="103" t="s">
@@ -21956,11 +21967,11 @@
         <v>324</v>
       </c>
       <c r="D32" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>千兆管理交换机（功能区）-S5554S-EI-D</v>
+      </c>
+      <c r="E32" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>千兆管理交换机（功能区）-S5554S-EI-D</v>
-      </c>
-      <c r="E32" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-3-07_3-08-A1P1-ASW-H5554-01U34</v>
       </c>
       <c r="F32" s="100" t="s">
@@ -21980,23 +21991,23 @@
         <v>915</v>
       </c>
       <c r="L32" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="M32" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="M32" s="123" t="str">
+        <v>03列07</v>
+      </c>
+      <c r="N32" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>03列07</v>
-      </c>
-      <c r="N32" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O32" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O32" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P32" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P32" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q32" s="103" t="s">
@@ -22015,11 +22026,11 @@
         <v>326</v>
       </c>
       <c r="D33" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>千兆管理交换机（功能区）-S5554S-EI-D</v>
+      </c>
+      <c r="E33" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>千兆管理交换机（功能区）-S5554S-EI-D</v>
-      </c>
-      <c r="E33" s="100" t="str">
-        <f t="shared" si="1"/>
         <v>HAZZ-122-3-07_3-08-A1P1-ASW-H5554-01U34</v>
       </c>
       <c r="F33" s="100" t="s">
@@ -22039,23 +22050,23 @@
         <v>915</v>
       </c>
       <c r="L33" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="M33" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="M33" s="123" t="str">
+        <v>03列08</v>
+      </c>
+      <c r="N33" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>03列08</v>
-      </c>
-      <c r="N33" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O33" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O33" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P33" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P33" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>ASW</v>
       </c>
       <c r="Q33" s="103" t="s">
@@ -22074,11 +22085,11 @@
         <v>328</v>
       </c>
       <c r="D34" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>千兆带外管理交换机-S5554S-EI-D</v>
+      </c>
+      <c r="E34" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>千兆带外管理交换机-S5554S-EI-D</v>
-      </c>
-      <c r="E34" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F34" s="100" t="s">
@@ -22098,23 +22109,23 @@
         <v>915</v>
       </c>
       <c r="L34" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M34" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M34" s="123" t="str">
+        <v>04列10</v>
+      </c>
+      <c r="N34" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>04列10</v>
-      </c>
-      <c r="N34" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O34" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O34" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P34" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P34" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>MSW</v>
       </c>
       <c r="Q34" s="103" t="s">
@@ -22133,11 +22144,11 @@
         <v>330</v>
       </c>
       <c r="D35" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>千兆带外管理交换机-S5554S-EI-D</v>
+      </c>
+      <c r="E35" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>千兆带外管理交换机-S5554S-EI-D</v>
-      </c>
-      <c r="E35" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F35" s="100" t="s">
@@ -22157,23 +22168,23 @@
         <v>915</v>
       </c>
       <c r="L35" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M35" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M35" s="123" t="str">
+        <v>03列03</v>
+      </c>
+      <c r="N35" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>03列03</v>
-      </c>
-      <c r="N35" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O35" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O35" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P35" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P35" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>MSW</v>
       </c>
       <c r="Q35" s="103" t="s">
@@ -22192,11 +22203,11 @@
         <v>332</v>
       </c>
       <c r="D36" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>千兆带外管理交换机-S5554S-EI-D</v>
+      </c>
+      <c r="E36" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>千兆带外管理交换机-S5554S-EI-D</v>
-      </c>
-      <c r="E36" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F36" s="100" t="s">
@@ -22216,29 +22227,88 @@
         <v>915</v>
       </c>
       <c r="L36" s="123" t="str">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M36" s="123" t="str">
         <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="M36" s="123" t="str">
+        <v>03列06</v>
+      </c>
+      <c r="N36" s="123" t="str">
         <f t="shared" si="3"/>
-        <v>03列06</v>
-      </c>
-      <c r="N36" s="123" t="str">
+        <v>01</v>
+      </c>
+      <c r="O36" s="123" t="str">
         <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="O36" s="123" t="str">
+        <v>122</v>
+      </c>
+      <c r="P36" s="123" t="str">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="P36" s="123" t="str">
-        <f t="shared" si="6"/>
         <v>MSW</v>
       </c>
       <c r="Q36" s="103" t="s">
         <v>260</v>
       </c>
       <c r="R36" s="109"/>
+    </row>
+    <row r="37" spans="1:18" s="112" customFormat="1" ht="10.8">
+      <c r="A37" s="117">
+        <v>36</v>
+      </c>
+      <c r="B37" s="118" t="s">
+        <v>976</v>
+      </c>
+      <c r="C37" s="100" t="s">
+        <v>977</v>
+      </c>
+      <c r="D37" s="100" t="str">
+        <f t="shared" si="6"/>
+        <v>串口交换机-ACS8000</v>
+      </c>
+      <c r="E37" s="100" t="str">
+        <f t="shared" ref="E37" si="7">_xlfn.IFS(Q37="独立","",Q37="M1",MID(C37,1,FIND("$",SUBSTITUTE(C37,"-","$",2)))&amp;MID(C37,FIND("%",SUBSTITUTE(C37,"-","%",2))+1,FIND("$",SUBSTITUTE(C37,"-","$",4))-1-FIND("%",SUBSTITUTE(C37,"-","%",2)))&amp;"_"&amp;MID(C38,FIND("%",SUBSTITUTE(C38,"-","%",2))+1,FIND("$",SUBSTITUTE(C38,"-","$",4))-1-FIND("%",SUBSTITUTE(C38,"-","%",2)))&amp;"-"&amp;MID(C37,FIND("$",SUBSTITUTE(C37,"-","$",4))+1,FIND("$",SUBSTITUTE(C37,"-","$",6))-FIND("$",SUBSTITUTE(C37,"-","$",4))-1)&amp;"-"&amp;Q37&amp;IF(RIGHT(C37,2)=RIGHT(C38,2),MID(C37,FIND("^",SUBSTITUTE(C37,"-","^",6)),LEN(C37)-FIND("^",SUBSTITUTE(C37,"-","^",5))+1),MID(C37,FIND("^",SUBSTITUTE(C37,"-","^",6)),LEN(C37)-FIND("^",SUBSTITUTE(C37,"-","^",5))+1)&amp;"_"&amp;RIGHT(C38,2)),Q37="M2",MID(C36,1,FIND("$",SUBSTITUTE(C36,"-","$",2)))&amp;MID(C36,FIND("%",SUBSTITUTE(C36,"-","%",2))+1,FIND("$",SUBSTITUTE(C36,"-","$",4))-1-FIND("%",SUBSTITUTE(C36,"-","%",2)))&amp;"_"&amp;MID(C37,FIND("%",SUBSTITUTE(C37,"-","%",2))+1,FIND("$",SUBSTITUTE(C37,"-","$",4))-1-FIND("%",SUBSTITUTE(C37,"-","%",2)))&amp;"-"&amp;MID(C36,FIND("$",SUBSTITUTE(C36,"-","$",4))+1,FIND("$",SUBSTITUTE(C36,"-","$",6))-FIND("$",SUBSTITUTE(C36,"-","$",4))-1)&amp;"-"&amp;Q37&amp;IF(RIGHT(C36,2)=RIGHT(C37,2),MID(C36,FIND("^",SUBSTITUTE(C36,"-","^",6)),LEN(C36)-FIND("^",SUBSTITUTE(C36,"-","^",5))+1),MID(C36,FIND("^",SUBSTITUTE(C36,"-","^",6)),LEN(C36)-FIND("^",SUBSTITUTE(C36,"-","^",5))+1)&amp;"_"&amp;RIGHT(C37,2)),Q37="H1",MID(C37,1,FIND("$",SUBSTITUTE(C37,"-","$",2)))&amp;MID(C37,FIND("%",SUBSTITUTE(C37,"-","%",2))+1,FIND("$",SUBSTITUTE(C37,"-","$",4))-1-FIND("%",SUBSTITUTE(C37,"-","%",2)))&amp;"_"&amp;MID(C38,FIND("%",SUBSTITUTE(C38,"-","%",2))+1,FIND("$",SUBSTITUTE(C38,"-","$",4))-1-FIND("%",SUBSTITUTE(C38,"-","%",2)))&amp;"-"&amp;MID(C37,FIND("$",SUBSTITUTE(C37,"-","$",4))+1,FIND("$",SUBSTITUTE(C37,"-","$",6))-FIND("$",SUBSTITUTE(C37,"-","$",4))-1)&amp;"-"&amp;Q37&amp;IF(RIGHT(C37,2)=RIGHT(C38,2),MID(C37,FIND("^",SUBSTITUTE(C37,"-","^",6)),LEN(C37)-FIND("^",SUBSTITUTE(C37,"-","^",5))+1),MID(C37,FIND("^",SUBSTITUTE(C37,"-","^",6)),LEN(C37)-FIND("^",SUBSTITUTE(C37,"-","^",5))+1)&amp;"_"&amp;RIGHT(C38,2)),Q37="H2",MID(C36,1,FIND("$",SUBSTITUTE(C36,"-","$",2)))&amp;MID(C36,FIND("%",SUBSTITUTE(C36,"-","%",2))+1,FIND("$",SUBSTITUTE(C36,"-","$",4))-1-FIND("%",SUBSTITUTE(C36,"-","%",2)))&amp;"_"&amp;MID(C37,FIND("%",SUBSTITUTE(C37,"-","%",2))+1,FIND("$",SUBSTITUTE(C37,"-","$",4))-1-FIND("%",SUBSTITUTE(C37,"-","%",2)))&amp;"-"&amp;MID(C36,FIND("$",SUBSTITUTE(C36,"-","$",4))+1,FIND("$",SUBSTITUTE(C36,"-","$",6))-FIND("$",SUBSTITUTE(C36,"-","$",4))-1)&amp;"-"&amp;Q37&amp;IF(RIGHT(C36,2)=RIGHT(C37,2),MID(C36,FIND("^",SUBSTITUTE(C36,"-","^",6)),LEN(C36)-FIND("^",SUBSTITUTE(C36,"-","^",5))+1),MID(C36,FIND("^",SUBSTITUTE(C36,"-","^",6)),LEN(C36)-FIND("^",SUBSTITUTE(C36,"-","^",5))+1)&amp;"_"&amp;RIGHT(C37,2)),Q37="堆叠1",MID(C37,1,FIND("$",SUBSTITUTE(C37,"-","$",2)))&amp;MID(C37,FIND("%",SUBSTITUTE(C37,"-","%",2))+1,FIND("$",SUBSTITUTE(C37,"-","$",4))-1-FIND("%",SUBSTITUTE(C37,"-","%",2)))&amp;"_"&amp;MID(C38,FIND("%",SUBSTITUTE(C38,"-","%",2))+1,FIND("$",SUBSTITUTE(C38,"-","$",4))-1-FIND("%",SUBSTITUTE(C38,"-","%",2)))&amp;"-"&amp;MID(C37,FIND("$",SUBSTITUTE(C37,"-","$",4))+1,FIND("$",SUBSTITUTE(C37,"-","$",6))-FIND("$",SUBSTITUTE(C37,"-","$",4))-1)&amp;IF(RIGHT(C37,2)=RIGHT(C38,2),MID(C37,FIND("^",SUBSTITUTE(C37,"-","^",6)),LEN(C37)-FIND("^",SUBSTITUTE(C37,"-","^",5))+1),MID(C37,FIND("^",SUBSTITUTE(C37,"-","^",6)),LEN(C37)-FIND("^",SUBSTITUTE(C37,"-","^",5))+1)&amp;"_"&amp;RIGHT(C38,2)),Q37="堆叠2",MID(C36,1,FIND("$",SUBSTITUTE(C36,"-","$",2)))&amp;MID(C36,FIND("%",SUBSTITUTE(C36,"-","%",2))+1,FIND("$",SUBSTITUTE(C36,"-","$",4))-1-FIND("%",SUBSTITUTE(C36,"-","%",2)))&amp;"_"&amp;MID(C37,FIND("%",SUBSTITUTE(C37,"-","%",2))+1,FIND("$",SUBSTITUTE(C37,"-","$",4))-1-FIND("%",SUBSTITUTE(C37,"-","%",2)))&amp;"-"&amp;MID(C36,FIND("$",SUBSTITUTE(C36,"-","$",4))+1,FIND("$",SUBSTITUTE(C36,"-","$",6))-FIND("$",SUBSTITUTE(C36,"-","$",4))-1)&amp;IF(RIGHT(C36,2)=RIGHT(C37,2),MID(C36,FIND("^",SUBSTITUTE(C36,"-","^",6)),LEN(C36)-FIND("^",SUBSTITUTE(C36,"-","^",5))+1),MID(C36,FIND("^",SUBSTITUTE(C36,"-","^",6)),LEN(C36)-FIND("^",SUBSTITUTE(C36,"-","^",5))+1)&amp;"_"&amp;RIGHT(C37,2)))</f>
+        <v/>
+      </c>
+      <c r="F37" s="100" t="s">
+        <v>949</v>
+      </c>
+      <c r="G37" s="120"/>
+      <c r="H37" s="121">
+        <v>100</v>
+      </c>
+      <c r="I37" s="122" t="s">
+        <v>978</v>
+      </c>
+      <c r="J37" s="122" t="s">
+        <v>259</v>
+      </c>
+      <c r="K37" s="122" t="s">
+        <v>915</v>
+      </c>
+      <c r="L37" s="123" t="str">
+        <f t="shared" ref="L37" si="8">RIGHT(C37,2)</f>
+        <v>37</v>
+      </c>
+      <c r="M37" s="123" t="str">
+        <f t="shared" ref="M37" si="9">IF(RIGHT(MID(C37,FIND("$",SUBSTITUTE(C37,"-","$",2))+1,4),1)="-",MID(C37,FIND("$",SUBSTITUTE(C37,"-","$",2))+1,3),IF(RIGHT(MID(C37,FIND("$",SUBSTITUTE(C37,"-","$",2))+1,2),1)="-",IF(ISNUMBER(--MID(C37,FIND("$",SUBSTITUTE(C37,"-","$",2))+1,1)),"0"&amp;MID(C37,FIND("$",SUBSTITUTE(C37,"-","$",2))+1,1),MID(C37,FIND("$",SUBSTITUTE(C37,"-","$",2))+1,1)),MID(C37,FIND("$",SUBSTITUTE(C37,"-","$",2))+1,2))&amp;"列"&amp;MID(C37,FIND("$",SUBSTITUTE(C37,"-","$",3))+1,2))</f>
+        <v>03列06</v>
+      </c>
+      <c r="N37" s="123" t="str">
+        <f t="shared" ref="N37" si="10">MID(C37,FIND("$",SUBSTITUTE(C37,"-","$",_xlfn.IFS(LEN(C37)-LEN(SUBSTITUTE(C37,"-",""))=7,7,LEN(C37)-LEN(SUBSTITUTE(C37,"-",""))=6,6,LEN(C37)-LEN(SUBSTITUTE(C37,"-",""))=5,5)))+1,2)</f>
+        <v>01</v>
+      </c>
+      <c r="O37" s="123" t="str">
+        <f t="shared" ref="O37" si="11">MID(C37,FIND("$",SUBSTITUTE(C37,"-","$",1))+1,FIND("$",SUBSTITUTE(C37,"-","$",1))-2)</f>
+        <v>122</v>
+      </c>
+      <c r="P37" s="123" t="str">
+        <f t="shared" ref="P37" si="12">_xlfn.IFS(LEN(C37)-LEN(SUBSTITUTE(C37,"-",""))=7,MID(C37,FIND("$",SUBSTITUTE(C37,"-","$",5))+1,FIND("$",SUBSTITUTE(C37,"-","$",6))-FIND("$",SUBSTITUTE(C37,"-","$",5))-1),LEN(C37)-LEN(SUBSTITUTE(C37,"-",""))=6,MID(C37,FIND("$",SUBSTITUTE(C37,"-","$",4))+1,FIND("$",SUBSTITUTE(C37,"-","$",5))-FIND("$",SUBSTITUTE(C37,"-","$",4))-1),LEN(C37)-LEN(SUBSTITUTE(C37,"-",""))=5,MID(C37,FIND("$",SUBSTITUTE(C37,"-","$",3))+1,FIND("$",SUBSTITUTE(C37,"-","$",4))-FIND("$",SUBSTITUTE(C37,"-","$",3))-1))</f>
+        <v>SSW</v>
+      </c>
+      <c r="Q37" s="103" t="s">
+        <v>260</v>
+      </c>
+      <c r="R37" s="109"/>
     </row>
   </sheetData>
   <phoneticPr fontId="50" type="noConversion"/>
@@ -36388,41 +36458,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="66" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="213" t="s">
         <v>526</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="213" t="s">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="214" t="s">
         <v>527</v>
       </c>
-      <c r="J1" s="213"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="215" t="s">
+      <c r="J1" s="214"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="216" t="s">
         <v>528</v>
       </c>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="215"/>
-      <c r="T1" s="215"/>
-      <c r="U1" s="215"/>
-      <c r="V1" s="215"/>
-      <c r="W1" s="215"/>
-      <c r="X1" s="215"/>
-      <c r="Y1" s="215"/>
-      <c r="Z1" s="215"/>
-      <c r="AA1" s="215"/>
-      <c r="AB1" s="215"/>
-      <c r="AC1" s="215"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="216"/>
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="216"/>
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="216"/>
     </row>
     <row r="2" spans="1:29" s="66" customFormat="1" ht="19.2">
       <c r="A2" s="67" t="s">
@@ -37090,7 +37160,7 @@
       <c r="L6" s="64" t="s">
         <v>625</v>
       </c>
-      <c r="M6" s="216" t="s">
+      <c r="M6" s="217" t="s">
         <v>626</v>
       </c>
     </row>
@@ -37131,7 +37201,7 @@
       <c r="L7" s="64" t="s">
         <v>632</v>
       </c>
-      <c r="M7" s="216"/>
+      <c r="M7" s="217"/>
     </row>
     <row r="8" spans="1:13" s="46" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="52">
@@ -37240,7 +37310,7 @@
       <c r="L10" s="64" t="s">
         <v>647</v>
       </c>
-      <c r="M10" s="216" t="s">
+      <c r="M10" s="217" t="s">
         <v>648</v>
       </c>
     </row>
@@ -37281,7 +37351,7 @@
       <c r="L11" s="64" t="s">
         <v>654</v>
       </c>
-      <c r="M11" s="216"/>
+      <c r="M11" s="217"/>
     </row>
     <row r="12" spans="1:13" s="46" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="52">
@@ -39731,6 +39801,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9fce7f6-b2fa-4abf-bccc-9105804b1a8f">
@@ -39741,7 +39820,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CC23BF0921C4140B0A8505E505B68E1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9ccca0a7557b05bf66492ea844417434">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9fce7f6-b2fa-4abf-bccc-9105804b1a8f" xmlns:ns3="a6598b5a-f053-4765-b33b-4570b164eeea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a266b6b1127ff1e107b26d087a897361" ns2:_="" ns3:_="">
     <xsd:import namespace="a9fce7f6-b2fa-4abf-bccc-9105804b1a8f"/>
@@ -39958,16 +40037,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D85166B-068B-4EF9-ACE2-1BB8C6FE521A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2889F554-92C1-435B-A7B4-9C5E151F206B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -39978,7 +40056,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50DDA352-A54C-463E-8D26-EE95918DB1C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39995,12 +40073,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D85166B-068B-4EF9-ACE2-1BB8C6FE521A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/upload/00-天翼云集成实施基本信息表模板(网络和服务器设备表含公式)20230101(1).xlsx
+++ b/upload/00-天翼云集成实施基本信息表模板(网络和服务器设备表含公式)20230101(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingz\Documents\GitHub\jw3\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DE14EF-6BDF-42CC-A575-3C13FA02D9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EE1E4C-FF5B-4FE3-B882-5477213E66C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="693" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,6 +111,7 @@
     <author>wangfei</author>
     <author>xiefy</author>
     <author>tc={F6E4EC85-C7C1-4ABE-9680-96811E0AE032}</author>
+    <author>tc={21063DA4-4237-4FBD-BBDA-C3CDE8703146}</author>
   </authors>
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
@@ -191,6 +192,15 @@
 云调采集物理服务器ESXI</t>
       </text>
     </comment>
+    <comment ref="W44" authorId="3" shapeId="0" xr:uid="{21063DA4-4237-4FBD-BBDA-C3CDE8703146}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    研发一管理服务器KVM
+云调采集物理服务器ESXI</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -218,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="980">
   <si>
     <t>模板名称</t>
   </si>
@@ -4024,6 +4034,22 @@
   </si>
   <si>
     <t>/22</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>KVM01</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>KVM02</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
     <phoneticPr fontId="48" type="noConversion"/>
   </si>
 </sst>
@@ -6269,6 +6295,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="4" borderId="4" xfId="424" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6281,11 +6310,11 @@
     <xf numFmtId="49" fontId="27" fillId="0" borderId="4" xfId="200" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6311,9 +6340,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="285"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="285" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="4" xfId="424" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="430">
@@ -7557,6 +7583,10 @@
     <text>研发一管理服务器KVM
 云调采集物理服务器ESXI</text>
   </threadedComment>
+  <threadedComment ref="W44" dT="2023-01-16T15:51:41.06" personId="{78FC390E-67A9-4180-AAF6-FDB463885BD7}" id="{21063DA4-4237-4FBD-BBDA-C3CDE8703146}">
+    <text>研发一管理服务器KVM
+云调采集物理服务器ESXI</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -7580,44 +7610,44 @@
       <c r="A1" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="198"/>
+      <c r="C1" s="199"/>
     </row>
     <row r="2" spans="1:3" ht="25.2" customHeight="1">
       <c r="A2" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="199"/>
     </row>
     <row r="3" spans="1:3" ht="25.2" customHeight="1">
       <c r="A3" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="198" t="s">
+      <c r="B3" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="199"/>
     </row>
     <row r="4" spans="1:3" ht="110.1" customHeight="1">
       <c r="A4" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="198"/>
+      <c r="C4" s="199"/>
     </row>
     <row r="5" spans="1:3" ht="52.2" customHeight="1">
-      <c r="A5" s="200" t="s">
+      <c r="A5" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="200"/>
-      <c r="C5" s="200"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="201"/>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="A6" s="145" t="s">
@@ -7894,16 +7924,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="213" t="s">
         <v>701</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
       <c r="K1" s="18"/>
@@ -7911,16 +7941,16 @@
       <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="213" t="s">
         <v>702</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="18"/>
@@ -7928,16 +7958,16 @@
       <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="213" t="s">
         <v>703</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="213"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="18"/>
@@ -7945,16 +7975,16 @@
       <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="212" t="s">
+      <c r="A4" s="213" t="s">
         <v>704</v>
       </c>
-      <c r="B4" s="212"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="212"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="18"/>
@@ -8040,7 +8070,7 @@
       <c r="I8" s="28" t="s">
         <v>716</v>
       </c>
-      <c r="J8" s="210" t="s">
+      <c r="J8" s="211" t="s">
         <v>717</v>
       </c>
       <c r="K8" s="18"/>
@@ -8073,7 +8103,7 @@
         <v>723</v>
       </c>
       <c r="I9" s="22"/>
-      <c r="J9" s="211"/>
+      <c r="J9" s="212"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
@@ -8104,7 +8134,7 @@
         <v>730</v>
       </c>
       <c r="I10" s="22"/>
-      <c r="J10" s="211"/>
+      <c r="J10" s="212"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
@@ -8135,7 +8165,7 @@
         <v>734</v>
       </c>
       <c r="I11" s="22"/>
-      <c r="J11" s="211"/>
+      <c r="J11" s="212"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
@@ -8154,7 +8184,7 @@
       <c r="I12" s="28" t="s">
         <v>736</v>
       </c>
-      <c r="J12" s="211"/>
+      <c r="J12" s="212"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
@@ -8185,7 +8215,7 @@
         <v>723</v>
       </c>
       <c r="I13" s="22"/>
-      <c r="J13" s="211"/>
+      <c r="J13" s="212"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
@@ -8216,7 +8246,7 @@
         <v>730</v>
       </c>
       <c r="I14" s="22"/>
-      <c r="J14" s="211"/>
+      <c r="J14" s="212"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
@@ -8247,7 +8277,7 @@
         <v>734</v>
       </c>
       <c r="I15" s="22"/>
-      <c r="J15" s="211"/>
+      <c r="J15" s="212"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -8266,7 +8296,7 @@
       <c r="I16" s="28" t="s">
         <v>716</v>
       </c>
-      <c r="J16" s="211"/>
+      <c r="J16" s="212"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -8297,7 +8327,7 @@
         <v>723</v>
       </c>
       <c r="I17" s="22"/>
-      <c r="J17" s="211"/>
+      <c r="J17" s="212"/>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
@@ -8328,7 +8358,7 @@
         <v>742</v>
       </c>
       <c r="I18" s="22"/>
-      <c r="J18" s="211"/>
+      <c r="J18" s="212"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -8359,7 +8389,7 @@
         <v>743</v>
       </c>
       <c r="I19" s="22"/>
-      <c r="J19" s="211"/>
+      <c r="J19" s="212"/>
       <c r="K19" s="18"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
@@ -8378,7 +8408,7 @@
       <c r="I20" s="28" t="s">
         <v>716</v>
       </c>
-      <c r="J20" s="211"/>
+      <c r="J20" s="212"/>
       <c r="K20" s="18"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
@@ -8409,7 +8439,7 @@
         <v>723</v>
       </c>
       <c r="I21" s="22"/>
-      <c r="J21" s="211"/>
+      <c r="J21" s="212"/>
       <c r="K21" s="18"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
@@ -8440,7 +8470,7 @@
         <v>723</v>
       </c>
       <c r="I22" s="22"/>
-      <c r="J22" s="211"/>
+      <c r="J22" s="212"/>
       <c r="K22" s="18"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
@@ -8471,7 +8501,7 @@
         <v>730</v>
       </c>
       <c r="I23" s="22"/>
-      <c r="J23" s="211"/>
+      <c r="J23" s="212"/>
       <c r="K23" s="18"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
@@ -8502,7 +8532,7 @@
         <v>734</v>
       </c>
       <c r="I24" s="22"/>
-      <c r="J24" s="211"/>
+      <c r="J24" s="212"/>
       <c r="K24" s="29"/>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
@@ -8521,7 +8551,7 @@
       <c r="I25" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="J25" s="211"/>
+      <c r="J25" s="212"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
@@ -8552,7 +8582,7 @@
         <v>723</v>
       </c>
       <c r="I26" s="22"/>
-      <c r="J26" s="211"/>
+      <c r="J26" s="212"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
@@ -8583,7 +8613,7 @@
         <v>751</v>
       </c>
       <c r="I27" s="22"/>
-      <c r="J27" s="211"/>
+      <c r="J27" s="212"/>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
@@ -8614,7 +8644,7 @@
         <v>727</v>
       </c>
       <c r="I28" s="22"/>
-      <c r="J28" s="211"/>
+      <c r="J28" s="212"/>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
@@ -8645,7 +8675,7 @@
         <v>727</v>
       </c>
       <c r="I29" s="22"/>
-      <c r="J29" s="211"/>
+      <c r="J29" s="212"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
@@ -8664,7 +8694,7 @@
       <c r="I30" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="J30" s="211"/>
+      <c r="J30" s="212"/>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -8695,7 +8725,7 @@
         <v>723</v>
       </c>
       <c r="I31" s="22"/>
-      <c r="J31" s="211"/>
+      <c r="J31" s="212"/>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
@@ -8726,7 +8756,7 @@
         <v>751</v>
       </c>
       <c r="I32" s="22"/>
-      <c r="J32" s="211"/>
+      <c r="J32" s="212"/>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
@@ -8757,7 +8787,7 @@
         <v>727</v>
       </c>
       <c r="I33" s="22"/>
-      <c r="J33" s="211"/>
+      <c r="J33" s="212"/>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
@@ -8788,7 +8818,7 @@
         <v>727</v>
       </c>
       <c r="I34" s="22"/>
-      <c r="J34" s="211"/>
+      <c r="J34" s="212"/>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
@@ -8819,7 +8849,7 @@
         <v>727</v>
       </c>
       <c r="I35" s="22"/>
-      <c r="J35" s="211"/>
+      <c r="J35" s="212"/>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
@@ -8838,7 +8868,7 @@
       <c r="I36" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="J36" s="211"/>
+      <c r="J36" s="212"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
@@ -8869,7 +8899,7 @@
         <v>723</v>
       </c>
       <c r="I37" s="22"/>
-      <c r="J37" s="211"/>
+      <c r="J37" s="212"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
@@ -8900,7 +8930,7 @@
         <v>764</v>
       </c>
       <c r="I38" s="22"/>
-      <c r="J38" s="211"/>
+      <c r="J38" s="212"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
@@ -8931,7 +8961,7 @@
         <v>765</v>
       </c>
       <c r="I39" s="22"/>
-      <c r="J39" s="211"/>
+      <c r="J39" s="212"/>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
@@ -8962,7 +8992,7 @@
         <v>767</v>
       </c>
       <c r="I40" s="22"/>
-      <c r="J40" s="211"/>
+      <c r="J40" s="212"/>
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
@@ -8981,7 +9011,7 @@
       <c r="I41" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="J41" s="211"/>
+      <c r="J41" s="212"/>
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
@@ -9012,7 +9042,7 @@
         <v>723</v>
       </c>
       <c r="I42" s="22"/>
-      <c r="J42" s="211"/>
+      <c r="J42" s="212"/>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
@@ -9043,7 +9073,7 @@
         <v>769</v>
       </c>
       <c r="I43" s="22"/>
-      <c r="J43" s="211"/>
+      <c r="J43" s="212"/>
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
@@ -9074,7 +9104,7 @@
         <v>767</v>
       </c>
       <c r="I44" s="22"/>
-      <c r="J44" s="211"/>
+      <c r="J44" s="212"/>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
@@ -9093,7 +9123,7 @@
       <c r="I45" s="28" t="s">
         <v>771</v>
       </c>
-      <c r="J45" s="210" t="s">
+      <c r="J45" s="211" t="s">
         <v>772</v>
       </c>
       <c r="K45" s="18"/>
@@ -9126,7 +9156,7 @@
         <v>723</v>
       </c>
       <c r="I46" s="22"/>
-      <c r="J46" s="211"/>
+      <c r="J46" s="212"/>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
@@ -9157,7 +9187,7 @@
         <v>774</v>
       </c>
       <c r="I47" s="22"/>
-      <c r="J47" s="211"/>
+      <c r="J47" s="212"/>
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
@@ -9188,7 +9218,7 @@
         <v>777</v>
       </c>
       <c r="I48" s="22"/>
-      <c r="J48" s="211"/>
+      <c r="J48" s="212"/>
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
@@ -9205,7 +9235,7 @@
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
-      <c r="J49" s="211"/>
+      <c r="J49" s="212"/>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
@@ -9236,7 +9266,7 @@
         <v>723</v>
       </c>
       <c r="I50" s="22"/>
-      <c r="J50" s="211"/>
+      <c r="J50" s="212"/>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
@@ -9267,7 +9297,7 @@
         <v>774</v>
       </c>
       <c r="I51" s="22"/>
-      <c r="J51" s="211"/>
+      <c r="J51" s="212"/>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
@@ -9298,7 +9328,7 @@
         <v>783</v>
       </c>
       <c r="I52" s="22"/>
-      <c r="J52" s="211"/>
+      <c r="J52" s="212"/>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
@@ -9329,7 +9359,7 @@
         <v>784</v>
       </c>
       <c r="I53" s="22"/>
-      <c r="J53" s="211"/>
+      <c r="J53" s="212"/>
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
@@ -9348,7 +9378,7 @@
       <c r="I54" s="28" t="s">
         <v>786</v>
       </c>
-      <c r="J54" s="211"/>
+      <c r="J54" s="212"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
@@ -9379,7 +9409,7 @@
         <v>723</v>
       </c>
       <c r="I55" s="22"/>
-      <c r="J55" s="211"/>
+      <c r="J55" s="212"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
@@ -9410,7 +9440,7 @@
         <v>742</v>
       </c>
       <c r="I56" s="22"/>
-      <c r="J56" s="211"/>
+      <c r="J56" s="212"/>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
@@ -9441,7 +9471,7 @@
         <v>742</v>
       </c>
       <c r="I57" s="22"/>
-      <c r="J57" s="211"/>
+      <c r="J57" s="212"/>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
@@ -9472,7 +9502,7 @@
         <v>743</v>
       </c>
       <c r="I58" s="22"/>
-      <c r="J58" s="211"/>
+      <c r="J58" s="212"/>
       <c r="K58" s="18"/>
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
@@ -9491,7 +9521,7 @@
       <c r="I59" s="28" t="s">
         <v>790</v>
       </c>
-      <c r="J59" s="211"/>
+      <c r="J59" s="212"/>
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
@@ -9522,7 +9552,7 @@
         <v>723</v>
       </c>
       <c r="I60" s="22"/>
-      <c r="J60" s="211"/>
+      <c r="J60" s="212"/>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
@@ -9553,7 +9583,7 @@
         <v>723</v>
       </c>
       <c r="I61" s="22"/>
-      <c r="J61" s="211"/>
+      <c r="J61" s="212"/>
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
@@ -9584,7 +9614,7 @@
         <v>730</v>
       </c>
       <c r="I62" s="22"/>
-      <c r="J62" s="211"/>
+      <c r="J62" s="212"/>
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
@@ -9615,7 +9645,7 @@
         <v>730</v>
       </c>
       <c r="I63" s="22"/>
-      <c r="J63" s="211"/>
+      <c r="J63" s="212"/>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
@@ -9646,7 +9676,7 @@
         <v>730</v>
       </c>
       <c r="I64" s="22"/>
-      <c r="J64" s="211"/>
+      <c r="J64" s="212"/>
       <c r="K64" s="18"/>
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
@@ -9677,7 +9707,7 @@
         <v>734</v>
       </c>
       <c r="I65" s="22"/>
-      <c r="J65" s="211"/>
+      <c r="J65" s="212"/>
       <c r="K65" s="18"/>
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
@@ -9708,7 +9738,7 @@
         <v>734</v>
       </c>
       <c r="I66" s="22"/>
-      <c r="J66" s="211"/>
+      <c r="J66" s="212"/>
       <c r="K66" s="18"/>
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
@@ -11807,7 +11837,7 @@
   <dimension ref="A1:Y183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -11895,7 +11925,7 @@
         <v>hbwh-yum-server-11e107e135e241</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>808</v>
+        <v>978</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>809</v>
@@ -11956,7 +11986,7 @@
         <v>hbwh-cobbler-server-11e107e135e236</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>817</v>
+        <v>979</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>818</v>
@@ -12008,9 +12038,7 @@
         <f>SUBSTITUTE(SUBSTITUTE(A4&amp;"-"&amp;F4,".","e"),RIGHT(SUBSTITUTE(A4&amp;"-"&amp;F4,".","e"),3),)</f>
         <v>hbwh-nat-server-11e107e135e219</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>820</v>
-      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>821</v>
       </c>
@@ -12061,9 +12089,7 @@
         <f>SUBSTITUTE(SUBSTITUTE(A5&amp;"-"&amp;F5,".","e"),RIGHT(SUBSTITUTE(A5&amp;"-"&amp;F5,".","e"),3),)</f>
         <v>hbwh-tiaoban01-11e107e135e249</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>823</v>
-      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>821</v>
       </c>
@@ -12116,7 +12142,7 @@
         <v>hbwh-yundiaosnmp1-30e55e2e136</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>820</v>
+        <v>976</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>972</v>
@@ -12167,7 +12193,7 @@
         <v>hbwh-yundiaosnmp2-30e55e2e137</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>823</v>
+        <v>977</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>972</v>
@@ -17535,7 +17561,7 @@
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -17625,7 +17651,7 @@
       <c r="U1" s="191"/>
     </row>
     <row r="2" spans="1:21" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="202" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="135">
@@ -17685,7 +17711,7 @@
       <c r="T2" s="155"/>
     </row>
     <row r="3" spans="1:21" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A3" s="201"/>
+      <c r="A3" s="202"/>
       <c r="B3" s="135" t="s">
         <v>90</v>
       </c>
@@ -17743,7 +17769,7 @@
       <c r="T3" s="155"/>
     </row>
     <row r="4" spans="1:21" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A4" s="201"/>
+      <c r="A4" s="202"/>
       <c r="B4" s="135" t="s">
         <v>97</v>
       </c>
@@ -17801,7 +17827,7 @@
       <c r="T4" s="155"/>
     </row>
     <row r="5" spans="1:21" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A5" s="201"/>
+      <c r="A5" s="202"/>
       <c r="B5" s="135" t="s">
         <v>100</v>
       </c>
@@ -17859,7 +17885,7 @@
       <c r="T5" s="155"/>
     </row>
     <row r="6" spans="1:21" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A6" s="201"/>
+      <c r="A6" s="202"/>
       <c r="B6" s="135" t="s">
         <v>103</v>
       </c>
@@ -17917,7 +17943,7 @@
       <c r="T6" s="155"/>
     </row>
     <row r="7" spans="1:21" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A7" s="201"/>
+      <c r="A7" s="202"/>
       <c r="B7" s="135" t="s">
         <v>109</v>
       </c>
@@ -17976,7 +18002,7 @@
       <c r="T7" s="155"/>
     </row>
     <row r="8" spans="1:21" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A8" s="201"/>
+      <c r="A8" s="202"/>
       <c r="B8" s="135">
         <v>7</v>
       </c>
@@ -18034,7 +18060,7 @@
       <c r="T8" s="155"/>
     </row>
     <row r="9" spans="1:21" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A9" s="201"/>
+      <c r="A9" s="202"/>
       <c r="B9" s="135" t="s">
         <v>115</v>
       </c>
@@ -18092,7 +18118,7 @@
       <c r="T9" s="155"/>
     </row>
     <row r="10" spans="1:21" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A10" s="201"/>
+      <c r="A10" s="202"/>
       <c r="B10" s="135" t="s">
         <v>119</v>
       </c>
@@ -18150,7 +18176,7 @@
       <c r="T10" s="155"/>
     </row>
     <row r="11" spans="1:21" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A11" s="201"/>
+      <c r="A11" s="202"/>
       <c r="B11" s="135" t="s">
         <v>122</v>
       </c>
@@ -18208,7 +18234,7 @@
       <c r="T11" s="155"/>
     </row>
     <row r="12" spans="1:21" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A12" s="201"/>
+      <c r="A12" s="202"/>
       <c r="B12" s="135" t="s">
         <v>126</v>
       </c>
@@ -18266,7 +18292,7 @@
       <c r="T12" s="155"/>
     </row>
     <row r="13" spans="1:21" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A13" s="201"/>
+      <c r="A13" s="202"/>
       <c r="B13" s="135" t="s">
         <v>129</v>
       </c>
@@ -18348,7 +18374,7 @@
       <c r="T14" s="175"/>
     </row>
     <row r="15" spans="1:21" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A15" s="201" t="s">
+      <c r="A15" s="202" t="s">
         <v>131</v>
       </c>
       <c r="B15" s="135" t="s">
@@ -18404,7 +18430,7 @@
       <c r="T15" s="155"/>
     </row>
     <row r="16" spans="1:21" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A16" s="201"/>
+      <c r="A16" s="202"/>
       <c r="B16" s="135" t="s">
         <v>90</v>
       </c>
@@ -18458,7 +18484,7 @@
       <c r="T16" s="155"/>
     </row>
     <row r="17" spans="1:20" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A17" s="201"/>
+      <c r="A17" s="202"/>
       <c r="B17" s="135" t="s">
         <v>97</v>
       </c>
@@ -18512,7 +18538,7 @@
       <c r="T17" s="155"/>
     </row>
     <row r="18" spans="1:20" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A18" s="201"/>
+      <c r="A18" s="202"/>
       <c r="B18" s="135" t="s">
         <v>100</v>
       </c>
@@ -18566,7 +18592,7 @@
       <c r="T18" s="155"/>
     </row>
     <row r="19" spans="1:20" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A19" s="201"/>
+      <c r="A19" s="202"/>
       <c r="B19" s="135" t="s">
         <v>103</v>
       </c>
@@ -18620,7 +18646,7 @@
       <c r="T19" s="155"/>
     </row>
     <row r="20" spans="1:20" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A20" s="201"/>
+      <c r="A20" s="202"/>
       <c r="B20" s="135" t="s">
         <v>109</v>
       </c>
@@ -18674,7 +18700,7 @@
       <c r="T20" s="155"/>
     </row>
     <row r="21" spans="1:20" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A21" s="201"/>
+      <c r="A21" s="202"/>
       <c r="B21" s="135" t="s">
         <v>152</v>
       </c>
@@ -18728,7 +18754,7 @@
       <c r="T21" s="155"/>
     </row>
     <row r="22" spans="1:20" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A22" s="201"/>
+      <c r="A22" s="202"/>
       <c r="B22" s="135" t="s">
         <v>115</v>
       </c>
@@ -18782,7 +18808,7 @@
       <c r="T22" s="155"/>
     </row>
     <row r="23" spans="1:20" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A23" s="201"/>
+      <c r="A23" s="202"/>
       <c r="B23" s="135" t="s">
         <v>119</v>
       </c>
@@ -18836,7 +18862,7 @@
       <c r="T23" s="155"/>
     </row>
     <row r="24" spans="1:20" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A24" s="201"/>
+      <c r="A24" s="202"/>
       <c r="B24" s="135" t="s">
         <v>122</v>
       </c>
@@ -18890,7 +18916,7 @@
       <c r="T24" s="155"/>
     </row>
     <row r="25" spans="1:20" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A25" s="201"/>
+      <c r="A25" s="202"/>
       <c r="B25" s="135" t="s">
         <v>126</v>
       </c>
@@ -18944,7 +18970,7 @@
       <c r="T25" s="155"/>
     </row>
     <row r="26" spans="1:20" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A26" s="201"/>
+      <c r="A26" s="202"/>
       <c r="B26" s="135" t="s">
         <v>129</v>
       </c>
@@ -18998,7 +19024,7 @@
       <c r="T26" s="155"/>
     </row>
     <row r="27" spans="1:20" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A27" s="201"/>
+      <c r="A27" s="202"/>
       <c r="B27" s="135" t="s">
         <v>166</v>
       </c>
@@ -19052,7 +19078,7 @@
       <c r="T27" s="155"/>
     </row>
     <row r="28" spans="1:20" s="161" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A28" s="201"/>
+      <c r="A28" s="202"/>
       <c r="B28" s="135" t="s">
         <v>169</v>
       </c>
@@ -19173,7 +19199,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="15" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A6" s="202" t="s">
+      <c r="A6" s="204" t="s">
         <v>174</v>
       </c>
       <c r="B6" s="118" t="s">
@@ -19203,7 +19229,7 @@
       <c r="O6" s="131"/>
     </row>
     <row r="7" spans="1:15" s="15" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A7" s="202"/>
+      <c r="A7" s="204"/>
       <c r="B7" s="119">
         <v>2</v>
       </c>
@@ -19231,7 +19257,7 @@
       <c r="O7" s="131"/>
     </row>
     <row r="8" spans="1:15" s="15" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A8" s="202"/>
+      <c r="A8" s="204"/>
       <c r="B8" s="119">
         <v>3</v>
       </c>
@@ -19259,7 +19285,7 @@
       <c r="O8" s="131"/>
     </row>
     <row r="9" spans="1:15" s="15" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A9" s="202"/>
+      <c r="A9" s="204"/>
       <c r="B9" s="119">
         <v>3</v>
       </c>
@@ -19290,7 +19316,7 @@
       <c r="O9" s="131"/>
     </row>
     <row r="10" spans="1:15" s="15" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A10" s="202"/>
+      <c r="A10" s="204"/>
       <c r="B10" s="119">
         <v>4</v>
       </c>
@@ -19321,7 +19347,7 @@
       <c r="O10" s="131"/>
     </row>
     <row r="11" spans="1:15" s="15" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A11" s="202"/>
+      <c r="A11" s="204"/>
       <c r="B11" s="119">
         <v>4</v>
       </c>
@@ -19349,7 +19375,7 @@
       <c r="O11" s="131"/>
     </row>
     <row r="12" spans="1:15" s="15" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A12" s="202"/>
+      <c r="A12" s="204"/>
       <c r="B12" s="119">
         <v>4</v>
       </c>
@@ -19380,7 +19406,7 @@
       <c r="O12" s="131"/>
     </row>
     <row r="13" spans="1:15" s="15" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A13" s="202"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="119">
         <v>4</v>
       </c>
@@ -19411,7 +19437,7 @@
       <c r="O13" s="131"/>
     </row>
     <row r="14" spans="1:15" s="15" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A14" s="202"/>
+      <c r="A14" s="204"/>
       <c r="B14" s="119">
         <v>5</v>
       </c>
@@ -19439,7 +19465,7 @@
       <c r="O14" s="131"/>
     </row>
     <row r="15" spans="1:15" s="15" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A15" s="202"/>
+      <c r="A15" s="204"/>
       <c r="B15" s="119">
         <v>6</v>
       </c>
@@ -19467,7 +19493,7 @@
       <c r="O15" s="131"/>
     </row>
     <row r="16" spans="1:15" s="15" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A16" s="202"/>
+      <c r="A16" s="204"/>
       <c r="B16" s="119">
         <v>7</v>
       </c>
@@ -19495,7 +19521,7 @@
       <c r="O16" s="131"/>
     </row>
     <row r="17" spans="1:15" s="15" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A17" s="202"/>
+      <c r="A17" s="204"/>
       <c r="B17" s="121">
         <v>8</v>
       </c>
@@ -19604,16 +19630,16 @@
       <c r="A35" s="127" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="204" t="s">
+      <c r="B35" s="205" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="204"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="204" t="s">
+      <c r="C35" s="205"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="205" t="s">
         <v>219</v>
       </c>
-      <c r="F35" s="204"/>
-      <c r="G35" s="204"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
       <c r="H35" s="128" t="s">
         <v>28</v>
       </c>
@@ -19753,14 +19779,6 @@
   </sheetData>
   <autoFilter ref="B6:G17" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="19">
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
     <mergeCell ref="A6:A17"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="E41:G41"/>
@@ -19772,6 +19790,14 @@
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
   </mergeCells>
   <phoneticPr fontId="48" type="noConversion"/>
   <hyperlinks>
@@ -22009,8 +22035,8 @@
   </sheetPr>
   <dimension ref="A1:IN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
@@ -22062,13 +22088,13 @@
       <c r="F1" s="90" t="s">
         <v>248</v>
       </c>
-      <c r="G1" s="213" t="s">
+      <c r="G1" s="198" t="s">
         <v>331</v>
       </c>
-      <c r="H1" s="213" t="s">
+      <c r="H1" s="198" t="s">
         <v>973</v>
       </c>
-      <c r="I1" s="213" t="s">
+      <c r="I1" s="198" t="s">
         <v>974</v>
       </c>
       <c r="J1" s="90" t="s">
@@ -36242,41 +36268,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="59" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="206" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="206" t="s">
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="207" t="s">
         <v>524</v>
       </c>
-      <c r="J1" s="206"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="208" t="s">
+      <c r="J1" s="207"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="209" t="s">
         <v>525</v>
       </c>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="209"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="209"/>
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="209"/>
     </row>
     <row r="2" spans="1:29" s="59" customFormat="1" ht="19.2">
       <c r="A2" s="60" t="s">
@@ -36944,7 +36970,7 @@
       <c r="L6" s="57" t="s">
         <v>622</v>
       </c>
-      <c r="M6" s="209" t="s">
+      <c r="M6" s="210" t="s">
         <v>623</v>
       </c>
     </row>
@@ -36985,7 +37011,7 @@
       <c r="L7" s="57" t="s">
         <v>629</v>
       </c>
-      <c r="M7" s="209"/>
+      <c r="M7" s="210"/>
     </row>
     <row r="8" spans="1:13" s="39" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="45">
@@ -37094,7 +37120,7 @@
       <c r="L10" s="57" t="s">
         <v>644</v>
       </c>
-      <c r="M10" s="209" t="s">
+      <c r="M10" s="210" t="s">
         <v>645</v>
       </c>
     </row>
@@ -37135,7 +37161,7 @@
       <c r="L11" s="57" t="s">
         <v>651</v>
       </c>
-      <c r="M11" s="209"/>
+      <c r="M11" s="210"/>
     </row>
     <row r="12" spans="1:13" s="39" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="45">
@@ -39585,15 +39611,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CC23BF0921C4140B0A8505E505B68E1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9ccca0a7557b05bf66492ea844417434">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9fce7f6-b2fa-4abf-bccc-9105804b1a8f" xmlns:ns3="a6598b5a-f053-4765-b33b-4570b164eeea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a266b6b1127ff1e107b26d087a897361" ns2:_="" ns3:_="">
     <xsd:import namespace="a9fce7f6-b2fa-4abf-bccc-9105804b1a8f"/>
@@ -39810,6 +39827,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -39822,14 +39848,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D85166B-068B-4EF9-ACE2-1BB8C6FE521A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50DDA352-A54C-463E-8D26-EE95918DB1C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39848,6 +39866,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D85166B-068B-4EF9-ACE2-1BB8C6FE521A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2889F554-92C1-435B-A7B4-9C5E151F206B}">
   <ds:schemaRefs>

--- a/upload/00-天翼云集成实施基本信息表模板(网络和服务器设备表含公式)20230101(1).xlsx
+++ b/upload/00-天翼云集成实施基本信息表模板(网络和服务器设备表含公式)20230101(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingz\Documents\GitHub\jw3\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBFC0DA-C9B9-4CAD-B5B2-17F1868D1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37ED39F-A6AD-4EF0-84FE-512D97BADF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="693" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="693" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明（勿修改）" sheetId="21" r:id="rId1"/>
@@ -105,6 +105,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>haohan liu</author>
+  </authors>
+  <commentList>
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{8E47BF92-EA53-4AF5-833C-25A40949E162}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>haohan liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+云桌面填写内核版本、网络设备补丁暂时不用填写</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>wangfei</author>
   </authors>
   <commentList>
@@ -125,7 +161,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>wangfei</author>
@@ -205,7 +241,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>haohan liu</author>
@@ -242,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="910">
   <si>
     <t>模板名称</t>
   </si>
@@ -267,7 +303,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>一、红色【Sheet】为信息补充修改项，灰色【Sheet】为字典类型表，不需要修改，可以查看。
 二、</t>
@@ -287,7 +322,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>。
 三、红色sheet内容，请按此模板为准，如需修改，请修改后添加到修改内容记录里。</t>
@@ -297,7 +331,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 四、设备清单的【设备名称】列请和网络设备、服务器设备的【系统名称】保持一致，排除后缀。注：当有括号时请注意两个</t>
@@ -307,7 +340,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet名称统一。
 </t>
@@ -3794,7 +3826,15 @@
     <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
-    <t>KVM</t>
+    <t>ESXI</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核版本和设备补丁</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.19.12</t>
     <phoneticPr fontId="46" type="noConversion"/>
   </si>
 </sst>
@@ -3870,7 +3910,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3892,7 +3931,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3907,7 +3945,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3947,7 +3984,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3975,14 +4011,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4021,14 +4055,12 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4049,14 +4081,12 @@
       <b/>
       <sz val="11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4067,7 +4097,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4082,7 +4111,6 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4094,14 +4122,12 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6780,6 +6806,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -8276,14 +8306,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -8304,12 +8334,13 @@
     <col min="14" max="14" width="20.33203125" style="104" customWidth="1"/>
     <col min="15" max="18" width="21.5546875" style="104" customWidth="1"/>
     <col min="19" max="19" width="31" style="104" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" style="104" customWidth="1"/>
-    <col min="21" max="21" width="9" style="104" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="104"/>
+    <col min="20" max="20" width="21.109375" style="104" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" style="104" customWidth="1"/>
+    <col min="22" max="22" width="9" style="104" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="155" customFormat="1" ht="28.8">
+    <row r="1" spans="1:22" s="155" customFormat="1" ht="28.8">
       <c r="A1" s="155" t="s">
         <v>67</v>
       </c>
@@ -8367,12 +8398,15 @@
       <c r="S1" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="T1" s="159" t="s">
+      <c r="T1" s="138" t="s">
+        <v>908</v>
+      </c>
+      <c r="U1" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="158"/>
-    </row>
-    <row r="2" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="V1" s="158"/>
+    </row>
+    <row r="2" spans="1:22" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A2" s="201" t="s">
         <v>86</v>
       </c>
@@ -8429,9 +8463,12 @@
       <c r="S2" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="T2" s="122"/>
-    </row>
-    <row r="3" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T2" s="162" t="s">
+        <v>909</v>
+      </c>
+      <c r="U2" s="122"/>
+    </row>
+    <row r="3" spans="1:22" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A3" s="201"/>
       <c r="B3" s="107" t="s">
         <v>99</v>
@@ -8486,9 +8523,12 @@
       <c r="S3" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="T3" s="122"/>
-    </row>
-    <row r="4" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T3" s="162" t="s">
+        <v>909</v>
+      </c>
+      <c r="U3" s="122"/>
+    </row>
+    <row r="4" spans="1:22" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A4" s="201"/>
       <c r="B4" s="107" t="s">
         <v>108</v>
@@ -8543,9 +8583,12 @@
       <c r="S4" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="T4" s="122"/>
-    </row>
-    <row r="5" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T4" s="162" t="s">
+        <v>909</v>
+      </c>
+      <c r="U4" s="122"/>
+    </row>
+    <row r="5" spans="1:22" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A5" s="201"/>
       <c r="B5" s="107" t="s">
         <v>111</v>
@@ -8600,9 +8643,12 @@
       <c r="S5" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="T5" s="122"/>
-    </row>
-    <row r="6" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T5" s="162" t="s">
+        <v>909</v>
+      </c>
+      <c r="U5" s="122"/>
+    </row>
+    <row r="6" spans="1:22" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A6" s="201"/>
       <c r="B6" s="107" t="s">
         <v>114</v>
@@ -8657,9 +8703,12 @@
       <c r="S6" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="T6" s="122"/>
-    </row>
-    <row r="7" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T6" s="162" t="s">
+        <v>909</v>
+      </c>
+      <c r="U6" s="122"/>
+    </row>
+    <row r="7" spans="1:22" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A7" s="201"/>
       <c r="B7" s="107" t="s">
         <v>122</v>
@@ -8715,9 +8764,12 @@
       <c r="S7" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="T7" s="122"/>
-    </row>
-    <row r="8" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T7" s="162" t="s">
+        <v>909</v>
+      </c>
+      <c r="U7" s="122"/>
+    </row>
+    <row r="8" spans="1:22" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A8" s="201"/>
       <c r="B8" s="107">
         <v>7</v>
@@ -8772,9 +8824,12 @@
       <c r="S8" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="T8" s="122"/>
-    </row>
-    <row r="9" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T8" s="162" t="s">
+        <v>909</v>
+      </c>
+      <c r="U8" s="122"/>
+    </row>
+    <row r="9" spans="1:22" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A9" s="201"/>
       <c r="B9" s="107" t="s">
         <v>128</v>
@@ -8829,9 +8884,12 @@
       <c r="S9" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="T9" s="122"/>
-    </row>
-    <row r="10" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T9" s="162" t="s">
+        <v>909</v>
+      </c>
+      <c r="U9" s="122"/>
+    </row>
+    <row r="10" spans="1:22" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A10" s="201"/>
       <c r="B10" s="107" t="s">
         <v>132</v>
@@ -8886,9 +8944,12 @@
       <c r="S10" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="T10" s="122"/>
-    </row>
-    <row r="11" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T10" s="162" t="s">
+        <v>909</v>
+      </c>
+      <c r="U10" s="122"/>
+    </row>
+    <row r="11" spans="1:22" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A11" s="201"/>
       <c r="B11" s="107" t="s">
         <v>135</v>
@@ -8943,9 +9004,12 @@
       <c r="S11" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="T11" s="122"/>
-    </row>
-    <row r="12" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T11" s="162" t="s">
+        <v>909</v>
+      </c>
+      <c r="U11" s="122"/>
+    </row>
+    <row r="12" spans="1:22" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A12" s="201"/>
       <c r="B12" s="107" t="s">
         <v>140</v>
@@ -9000,9 +9064,12 @@
       <c r="S12" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="T12" s="122"/>
-    </row>
-    <row r="13" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T12" s="162" t="s">
+        <v>909</v>
+      </c>
+      <c r="U12" s="122"/>
+    </row>
+    <row r="13" spans="1:22" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A13" s="201"/>
       <c r="B13" s="107" t="s">
         <v>144</v>
@@ -9057,9 +9124,12 @@
       <c r="S13" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="T13" s="122"/>
-    </row>
-    <row r="14" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T13" s="162" t="s">
+        <v>909</v>
+      </c>
+      <c r="U13" s="122"/>
+    </row>
+    <row r="14" spans="1:22" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A14" s="140"/>
       <c r="B14" s="141"/>
       <c r="C14" s="142"/>
@@ -9081,9 +9151,10 @@
       <c r="Q14" s="144"/>
       <c r="R14" s="144"/>
       <c r="S14" s="144"/>
-      <c r="T14" s="142"/>
-    </row>
-    <row r="15" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T14" s="144"/>
+      <c r="U14" s="142"/>
+    </row>
+    <row r="15" spans="1:22" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A15" s="201" t="s">
         <v>148</v>
       </c>
@@ -9136,9 +9207,12 @@
       <c r="S15" s="162" t="s">
         <v>157</v>
       </c>
-      <c r="T15" s="122"/>
-    </row>
-    <row r="16" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T15" s="162" t="s">
+        <v>871</v>
+      </c>
+      <c r="U15" s="122"/>
+    </row>
+    <row r="16" spans="1:22" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A16" s="201"/>
       <c r="B16" s="107" t="s">
         <v>99</v>
@@ -9189,9 +9263,12 @@
       <c r="S16" s="162" t="s">
         <v>163</v>
       </c>
-      <c r="T16" s="122"/>
-    </row>
-    <row r="17" spans="1:20" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T16" s="162" t="s">
+        <v>871</v>
+      </c>
+      <c r="U16" s="122"/>
+    </row>
+    <row r="17" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A17" s="201"/>
       <c r="B17" s="107" t="s">
         <v>108</v>
@@ -9242,9 +9319,12 @@
       <c r="S17" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="T17" s="122"/>
-    </row>
-    <row r="18" spans="1:20" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T17" s="162" t="s">
+        <v>871</v>
+      </c>
+      <c r="U17" s="122"/>
+    </row>
+    <row r="18" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A18" s="201"/>
       <c r="B18" s="107" t="s">
         <v>111</v>
@@ -9295,9 +9375,12 @@
       <c r="S18" s="162" t="s">
         <v>169</v>
       </c>
-      <c r="T18" s="122"/>
-    </row>
-    <row r="19" spans="1:20" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T18" s="162" t="s">
+        <v>871</v>
+      </c>
+      <c r="U18" s="122"/>
+    </row>
+    <row r="19" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A19" s="201"/>
       <c r="B19" s="107" t="s">
         <v>114</v>
@@ -9348,9 +9431,12 @@
       <c r="S19" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="T19" s="122"/>
-    </row>
-    <row r="20" spans="1:20" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T19" s="162" t="s">
+        <v>871</v>
+      </c>
+      <c r="U19" s="122"/>
+    </row>
+    <row r="20" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A20" s="201"/>
       <c r="B20" s="107" t="s">
         <v>122</v>
@@ -9401,9 +9487,12 @@
       <c r="S20" s="162" t="s">
         <v>179</v>
       </c>
-      <c r="T20" s="122"/>
-    </row>
-    <row r="21" spans="1:20" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T20" s="162" t="s">
+        <v>871</v>
+      </c>
+      <c r="U20" s="122"/>
+    </row>
+    <row r="21" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A21" s="201"/>
       <c r="B21" s="107" t="s">
         <v>180</v>
@@ -9454,9 +9543,12 @@
       <c r="S21" s="162" t="s">
         <v>182</v>
       </c>
-      <c r="T21" s="122"/>
-    </row>
-    <row r="22" spans="1:20" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T21" s="162" t="s">
+        <v>871</v>
+      </c>
+      <c r="U21" s="122"/>
+    </row>
+    <row r="22" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A22" s="201"/>
       <c r="B22" s="107" t="s">
         <v>128</v>
@@ -9507,9 +9599,12 @@
       <c r="S22" s="162" t="s">
         <v>184</v>
       </c>
-      <c r="T22" s="122"/>
-    </row>
-    <row r="23" spans="1:20" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T22" s="162" t="s">
+        <v>871</v>
+      </c>
+      <c r="U22" s="122"/>
+    </row>
+    <row r="23" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A23" s="201"/>
       <c r="B23" s="107" t="s">
         <v>132</v>
@@ -9560,9 +9655,12 @@
       <c r="S23" s="162" t="s">
         <v>186</v>
       </c>
-      <c r="T23" s="122"/>
-    </row>
-    <row r="24" spans="1:20" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T23" s="162" t="s">
+        <v>871</v>
+      </c>
+      <c r="U23" s="122"/>
+    </row>
+    <row r="24" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A24" s="201"/>
       <c r="B24" s="107" t="s">
         <v>135</v>
@@ -9613,9 +9711,12 @@
       <c r="S24" s="162" t="s">
         <v>192</v>
       </c>
-      <c r="T24" s="122"/>
-    </row>
-    <row r="25" spans="1:20" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T24" s="162" t="s">
+        <v>871</v>
+      </c>
+      <c r="U24" s="122"/>
+    </row>
+    <row r="25" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A25" s="201"/>
       <c r="B25" s="107" t="s">
         <v>140</v>
@@ -9666,9 +9767,12 @@
       <c r="S25" s="162" t="s">
         <v>197</v>
       </c>
-      <c r="T25" s="122"/>
-    </row>
-    <row r="26" spans="1:20" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T25" s="162" t="s">
+        <v>871</v>
+      </c>
+      <c r="U25" s="122"/>
+    </row>
+    <row r="26" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A26" s="201"/>
       <c r="B26" s="107" t="s">
         <v>144</v>
@@ -9719,9 +9823,12 @@
       <c r="S26" s="162" t="s">
         <v>202</v>
       </c>
-      <c r="T26" s="122"/>
-    </row>
-    <row r="27" spans="1:20" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T26" s="162" t="s">
+        <v>871</v>
+      </c>
+      <c r="U26" s="122"/>
+    </row>
+    <row r="27" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A27" s="201"/>
       <c r="B27" s="107" t="s">
         <v>203</v>
@@ -9772,9 +9879,12 @@
       <c r="S27" s="162" t="s">
         <v>206</v>
       </c>
-      <c r="T27" s="122"/>
-    </row>
-    <row r="28" spans="1:20" s="128" customFormat="1" ht="19.95" customHeight="1">
+      <c r="T27" s="162" t="s">
+        <v>871</v>
+      </c>
+      <c r="U27" s="122"/>
+    </row>
+    <row r="28" spans="1:21" s="128" customFormat="1" ht="19.95" customHeight="1">
       <c r="A28" s="201"/>
       <c r="B28" s="107" t="s">
         <v>207</v>
@@ -9825,7 +9935,10 @@
       <c r="S28" s="162" t="s">
         <v>212</v>
       </c>
-      <c r="T28" s="122"/>
+      <c r="T28" s="162" t="s">
+        <v>871</v>
+      </c>
+      <c r="U28" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9835,6 +9948,7 @@
   <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12749,8 +12863,8 @@
   </sheetPr>
   <dimension ref="A1:IN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H11" workbookViewId="0">
-      <selection activeCell="Y43" sqref="Y43"/>
+    <sheetView topLeftCell="H19" workbookViewId="0">
+      <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
@@ -35528,26 +35642,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d0a44472-358d-4f72-9b41-73280ab5bb44">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="abe9a1fc-9b1b-4145-a7c0-c219f34cbfe1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010035289B95AB6962459D297FEDC06642CB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31d4b9b804ee58645739dd064a24e0ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0a44472-358d-4f72-9b41-73280ab5bb44" xmlns:ns3="abe9a1fc-9b1b-4145-a7c0-c219f34cbfe1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d677dd6d8eb8b95637b08373aa39eb7" ns2:_="" ns3:_="">
     <xsd:import namespace="d0a44472-358d-4f72-9b41-73280ab5bb44"/>
@@ -35736,26 +35830,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2889F554-92C1-435B-A7B4-9C5E151F206B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d0a44472-358d-4f72-9b41-73280ab5bb44"/>
-    <ds:schemaRef ds:uri="abe9a1fc-9b1b-4145-a7c0-c219f34cbfe1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d0a44472-358d-4f72-9b41-73280ab5bb44">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="abe9a1fc-9b1b-4145-a7c0-c219f34cbfe1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D85166B-068B-4EF9-ACE2-1BB8C6FE521A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BAF7B6-FEB0-49D3-B034-DF379BDDA304}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35772,4 +35867,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2889F554-92C1-435B-A7B4-9C5E151F206B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d0a44472-358d-4f72-9b41-73280ab5bb44"/>
+    <ds:schemaRef ds:uri="abe9a1fc-9b1b-4145-a7c0-c219f34cbfe1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D85166B-068B-4EF9-ACE2-1BB8C6FE521A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/upload/00-天翼云集成实施基本信息表模板(网络和服务器设备表含公式)20230101(1).xlsx
+++ b/upload/00-天翼云集成实施基本信息表模板(网络和服务器设备表含公式)20230101(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingz\Documents\GitHub\jw3\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A103A545-C558-4D0B-87DD-A178A51398C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEF40A8-14FB-4785-A766-7A76CB0100FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="693" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="693" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明（勿修改）" sheetId="21" r:id="rId1"/>
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="930">
   <si>
     <t>模板名称</t>
   </si>
@@ -3935,6 +3935,18 @@
   </si>
   <si>
     <t>OS_CN2</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>380</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 380</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠普</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
 </sst>
@@ -6177,7 +6189,7 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="221">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6796,6 +6808,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="17" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9168,8 +9183,8 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9395,7 +9410,7 @@
         <v>56</v>
       </c>
       <c r="C16" s="115">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D16" s="111" t="s">
         <v>57</v>
@@ -9473,8 +9488,8 @@
   </sheetPr>
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -9588,21 +9603,21 @@
         <v>88</v>
       </c>
       <c r="H2" s="125" t="s">
-        <v>89</v>
+        <v>929</v>
       </c>
       <c r="I2" s="126" t="s">
-        <v>90</v>
+        <v>927</v>
       </c>
       <c r="J2" s="150" t="str">
         <f>D2&amp;"-"&amp;I2&amp;IF(C2="","","-"&amp;C2)</f>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
+        <v>宿主机服务器-380</v>
       </c>
       <c r="K2" s="158" t="str" cm="1">
         <f t="array" ref="K2">IF(_xlfn.IFS(_xlfn.IFNA(VLOOKUP(J2,服务器!$D:$D,1,FALSE),1)=1,1,EXACT(VLOOKUP(J2,服务器!$D:$D,1,FALSE),J2)=FALSE,1,EXACT(VLOOKUP(J2,服务器!$D:$D,1,FALSE),J2)=TRUE,FALSE),"请修改设备名称列,或者设备不存在","OK")</f>
         <v>OK</v>
       </c>
       <c r="L2" s="160" t="s">
-        <v>91</v>
+        <v>928</v>
       </c>
       <c r="M2" s="160" t="s">
         <v>92</v>
@@ -11834,7 +11849,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D39" sqref="D39"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -14050,8 +14065,8 @@
   </sheetPr>
   <dimension ref="A1:IN49"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
@@ -14394,10 +14409,10 @@
       </c>
       <c r="D2" s="63" t="str">
         <f>IF(LEN(B2)-LEN(SUBSTITUTE(B2,"-",""))&lt;&gt;1,MID(B2,1,FIND("$",SUBSTITUTE(B2,"-","$",LEN(B2)-LEN(SUBSTITUTE(B2,"-",""))),1)-1),MID(B2,1,FIND("-",B2,1)-1))&amp;"-"&amp;E2&amp;IF(X2="","","-"&amp;X2)</f>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>90</v>
+        <v>宿主机服务器-380</v>
+      </c>
+      <c r="E2" s="220" t="s">
+        <v>927</v>
       </c>
       <c r="F2" s="65"/>
       <c r="G2" s="66">
@@ -14683,10 +14698,10 @@
       </c>
       <c r="D3" s="63" t="str">
         <f t="shared" ref="D3:D49" si="2">IF(LEN(B3)-LEN(SUBSTITUTE(B3,"-",""))&lt;&gt;1,MID(B3,1,FIND("$",SUBSTITUTE(B3,"-","$",LEN(B3)-LEN(SUBSTITUTE(B3,"-",""))),1)-1),MID(B3,1,FIND("-",B3,1)-1))&amp;"-"&amp;E3</f>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>90</v>
+        <v>宿主机服务器-380</v>
+      </c>
+      <c r="E3" s="220" t="s">
+        <v>927</v>
       </c>
       <c r="F3" s="65"/>
       <c r="G3" s="66">
@@ -14972,10 +14987,10 @@
       </c>
       <c r="D4" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>90</v>
+        <v>宿主机服务器-380</v>
+      </c>
+      <c r="E4" s="220" t="s">
+        <v>927</v>
       </c>
       <c r="F4" s="65"/>
       <c r="G4" s="66">
@@ -15261,10 +15276,10 @@
       </c>
       <c r="D5" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>90</v>
+        <v>宿主机服务器-380</v>
+      </c>
+      <c r="E5" s="220" t="s">
+        <v>927</v>
       </c>
       <c r="F5" s="65"/>
       <c r="G5" s="66">
@@ -15550,10 +15565,10 @@
       </c>
       <c r="D6" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>90</v>
+        <v>宿主机服务器-380</v>
+      </c>
+      <c r="E6" s="220" t="s">
+        <v>927</v>
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="66">
@@ -15839,10 +15854,10 @@
       </c>
       <c r="D7" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>90</v>
+        <v>宿主机服务器-380</v>
+      </c>
+      <c r="E7" s="220" t="s">
+        <v>927</v>
       </c>
       <c r="F7" s="65"/>
       <c r="G7" s="66">
@@ -16128,10 +16143,10 @@
       </c>
       <c r="D8" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>90</v>
+        <v>宿主机服务器-380</v>
+      </c>
+      <c r="E8" s="220" t="s">
+        <v>927</v>
       </c>
       <c r="F8" s="65"/>
       <c r="G8" s="66">
@@ -16417,10 +16432,10 @@
       </c>
       <c r="D9" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>90</v>
+        <v>宿主机服务器-380</v>
+      </c>
+      <c r="E9" s="220" t="s">
+        <v>927</v>
       </c>
       <c r="F9" s="65"/>
       <c r="G9" s="66">
@@ -16706,10 +16721,10 @@
       </c>
       <c r="D10" s="63" t="str">
         <f t="shared" si="2"/>
-        <v>宿主机服务器-ZXCLOUD R5300 G4X</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>90</v>
+        <v>宿主机服务器-380</v>
+      </c>
+      <c r="E10" s="220" t="s">
+        <v>927</v>
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="66">
@@ -31406,7 +31421,7 @@
   </sheetPr>
   <dimension ref="A1:Y183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
